--- a/private/INDIVIDUAL_LOCALIZATIONS_UI_7.xlsx
+++ b/private/INDIVIDUAL_LOCALIZATIONS_UI_7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\lolvvv\Assets\private\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6283F8E7-EAF5-4437-AF4C-D996248C5A58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF4B1D2A-69E0-49CE-BCD5-34BB4C8F9A2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7545" yWindow="1740" windowWidth="22245" windowHeight="18300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4980" yWindow="1965" windowWidth="22245" windowHeight="18300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INTL" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12033" uniqueCount="7293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12048" uniqueCount="7306">
   <si>
     <t>en_US</t>
   </si>
@@ -21917,6 +21917,45 @@
   </si>
   <si>
     <t>Na mesz na patchu {patch} {platform} {gameId} | lolvvv</t>
+  </si>
+  <si>
+    <t>label|montage</t>
+  </si>
+  <si>
+    <t>Montage</t>
+  </si>
+  <si>
+    <t>Montaje</t>
+  </si>
+  <si>
+    <t>Montagem</t>
+  </si>
+  <si>
+    <t>Montaż</t>
+  </si>
+  <si>
+    <t>モンタージュ</t>
+  </si>
+  <si>
+    <t>蒙太奇</t>
+  </si>
+  <si>
+    <t>Montaggio</t>
+  </si>
+  <si>
+    <t>Монтаж</t>
+  </si>
+  <si>
+    <t>몽타주</t>
+  </si>
+  <si>
+    <t>Montaj</t>
+  </si>
+  <si>
+    <t>Dựng phim</t>
+  </si>
+  <si>
+    <t>A compilation of many clips</t>
   </si>
 </sst>
 </file>
@@ -22368,11 +22407,11 @@
   <sheetPr codeName="Tabelle1">
     <outlinePr summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB602"/>
+  <dimension ref="A1:AB603"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z91" sqref="Z91"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -22386,10 +22425,10 @@
     <col min="7" max="7" width="27.42578125" style="4" customWidth="1"/>
     <col min="8" max="8" width="13.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="40.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="52.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="44.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="54.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="49.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="52.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="44.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="54.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="49.28515625" style="1" customWidth="1"/>
     <col min="14" max="14" width="41.85546875" style="1" customWidth="1"/>
     <col min="15" max="15" width="46" style="1" customWidth="1"/>
     <col min="16" max="16" width="11.42578125" style="1" customWidth="1"/>
@@ -49541,7 +49580,7 @@
         <v>6916</v>
       </c>
     </row>
-    <row r="593" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="593" spans="6:28" x14ac:dyDescent="0.25">
       <c r="F593" s="26" t="s">
         <v>6223</v>
       </c>
@@ -49562,7 +49601,7 @@
         <v>6917</v>
       </c>
     </row>
-    <row r="594" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="594" spans="6:28" x14ac:dyDescent="0.25">
       <c r="F594" s="26" t="s">
         <v>6224</v>
       </c>
@@ -49583,7 +49622,7 @@
         <v>6918</v>
       </c>
     </row>
-    <row r="595" spans="6:27" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="6:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F595" s="31" t="s">
         <v>6231</v>
       </c>
@@ -49615,7 +49654,7 @@
         <v>6919</v>
       </c>
     </row>
-    <row r="596" spans="6:27" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="6:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F596" s="31" t="s">
         <v>6235</v>
       </c>
@@ -49637,7 +49676,7 @@
         <v>6920</v>
       </c>
     </row>
-    <row r="597" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="597" spans="6:28" x14ac:dyDescent="0.25">
       <c r="F597" s="3" t="s">
         <v>6500</v>
       </c>
@@ -49654,7 +49693,7 @@
         <v>6921</v>
       </c>
     </row>
-    <row r="598" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="598" spans="6:28" x14ac:dyDescent="0.25">
       <c r="F598" s="26" t="s">
         <v>6501</v>
       </c>
@@ -49671,7 +49710,7 @@
         <v>6922</v>
       </c>
     </row>
-    <row r="599" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="599" spans="6:28" x14ac:dyDescent="0.25">
       <c r="F599" s="26" t="s">
         <v>6502</v>
       </c>
@@ -49688,7 +49727,7 @@
         <v>6923</v>
       </c>
     </row>
-    <row r="600" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="600" spans="6:28" x14ac:dyDescent="0.25">
       <c r="F600" s="26" t="s">
         <v>6503</v>
       </c>
@@ -49705,7 +49744,7 @@
         <v>6924</v>
       </c>
     </row>
-    <row r="601" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="601" spans="6:28" x14ac:dyDescent="0.25">
       <c r="F601" s="26" t="s">
         <v>6504</v>
       </c>
@@ -49722,7 +49761,7 @@
         <v>6925</v>
       </c>
     </row>
-    <row r="602" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="602" spans="6:28" x14ac:dyDescent="0.25">
       <c r="F602" s="3" t="s">
         <v>6937</v>
       </c>
@@ -49752,6 +49791,53 @@
       </c>
       <c r="Z602" s="27" t="s">
         <v>6946</v>
+      </c>
+    </row>
+    <row r="603" spans="6:28" x14ac:dyDescent="0.25">
+      <c r="F603" s="3" t="s">
+        <v>7293</v>
+      </c>
+      <c r="G603" s="4" t="s">
+        <v>7305</v>
+      </c>
+      <c r="I603" s="24" t="s">
+        <v>7294</v>
+      </c>
+      <c r="J603" s="24" t="s">
+        <v>7294</v>
+      </c>
+      <c r="M603" s="27" t="s">
+        <v>7295</v>
+      </c>
+      <c r="N603" s="24" t="s">
+        <v>7294</v>
+      </c>
+      <c r="Q603" s="27" t="s">
+        <v>7300</v>
+      </c>
+      <c r="R603" s="1" t="s">
+        <v>7298</v>
+      </c>
+      <c r="S603" s="27" t="s">
+        <v>7302</v>
+      </c>
+      <c r="U603" s="24" t="s">
+        <v>7297</v>
+      </c>
+      <c r="V603" s="27" t="s">
+        <v>7296</v>
+      </c>
+      <c r="X603" s="1" t="s">
+        <v>7301</v>
+      </c>
+      <c r="Z603" s="24" t="s">
+        <v>7303</v>
+      </c>
+      <c r="AA603" s="24" t="s">
+        <v>7304</v>
+      </c>
+      <c r="AB603" s="1" t="s">
+        <v>7299</v>
       </c>
     </row>
   </sheetData>
@@ -49794,10 +49880,10 @@
   <dimension ref="A1:S230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="P187" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S2" sqref="S2:S230"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/private/INDIVIDUAL_LOCALIZATIONS_UI_7.xlsx
+++ b/private/INDIVIDUAL_LOCALIZATIONS_UI_7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\lolvvv\Assets\private\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97ABD9D9-0EA0-4EED-8622-8CAE9B6D0861}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7862F9-8CD8-4186-B028-113AD42E3AFB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20040" yWindow="210" windowWidth="27825" windowHeight="20100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6795" yWindow="255" windowWidth="27825" windowHeight="20100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INTL" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12301" uniqueCount="7789">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12369" uniqueCount="7857">
   <si>
     <t>en_US</t>
   </si>
@@ -23022,9 +23022,6 @@
     <t>Unsealed Spellbook</t>
   </si>
   <si>
-    <t>This keystone rune slows enemy champion by your first basic attack. This slow can by followed up by a skill shot of {championName} to force the opponent in a dangerous situation.</t>
-  </si>
-  <si>
     <t>GlacialAugment</t>
   </si>
   <si>
@@ -23235,9 +23232,6 @@
     <t>Ingenious Hunter</t>
   </si>
   <si>
-    <t>{RavenousHunter} is the final rune on the {Domination} tree. This rune gives some sustain during skirmishes and small damage trades. The additional health is nothing to scoff at and can mean the difference between winning or losing a trade.</t>
-  </si>
-  <si>
     <t>RavenousHunter</t>
   </si>
   <si>
@@ -23295,9 +23289,6 @@
     <t>Cheap Shot</t>
   </si>
   <si>
-    <t>This keystone rune helps you to win short trades in your lane by increasing your attackspeed at the beginning of a skirmish.</t>
-  </si>
-  <si>
     <t>HailOfBlades</t>
   </si>
   <si>
@@ -23331,9 +23322,6 @@
     <t>Last Stand</t>
   </si>
   <si>
-    <t>If the enemy team consists of multiple tanks, then {CutDown} is the best rune choice.</t>
-  </si>
-  <si>
     <t>CutDown</t>
   </si>
   <si>
@@ -23412,9 +23400,6 @@
     <t>Fleet Footwork</t>
   </si>
   <si>
-    <t>It gives {championName} a nice head start in team fights and allows to put out more damage in that time window.</t>
-  </si>
-  <si>
     <t>LethalTempo</t>
   </si>
   <si>
@@ -23433,10 +23418,230 @@
     <t>Type</t>
   </si>
   <si>
-    <t>{SuddenImpact} increases your damage after using a dash or being invisible. This is due to how easy it is to use on {championName} with the amount of ways he has to dash, blink or stealth. The additional lethality helps to take down the priority targets that much easier.</t>
-  </si>
-  <si>
     <t>{TimeWarpTonic} gives you additional sustain by boosting your {Item2003} and {Item2010}.</t>
+  </si>
+  <si>
+    <t>{RavenousHunter} is the final rune on the {Domination} tree. This rune gives some survivability during short fights and damage trades during the laning phase. The additional health is nothing to scoff at and can mean the difference between winning or losing a battle.</t>
+  </si>
+  <si>
+    <t>This keystone rune helps you to win short trades in your lane by increasing your attackspeed at the beginning of a fight.</t>
+  </si>
+  <si>
+    <t>Diese Keystone-Rune generiert Ihnen eine Menge Sustain und erhöht Ihre Überlebensfähigkeit gegen Poke-Champions in der Lane.</t>
+  </si>
+  <si>
+    <t>{Overheal} wandelt Heilung, die über die maximale Gesundheit von {championName} hinausgeht, in einen Schild um, der zusätzliche Sicherheit und Tankiness bietet.</t>
+  </si>
+  <si>
+    <t>{PresenceOfMind} hilft {championName} bei Manaproblemen, indem es Mana wiederherstellt und den maximalen Manapool von {championName} erhöht.</t>
+  </si>
+  <si>
+    <t>{RavenousHunter} ist die letzte Rune auf dem {Domination} Baum. Diese Rune verleiht etwas Überlebensfähigkeit während kurzer Kämpfe und Schadenstrades in der Laning-Phase. Die zusätzlichen Lebenspunkte sind nicht zu verachten und können den Unterschied zwischen Sieg oder Niederlage in einem Kampf ausmachen.</t>
+  </si>
+  <si>
+    <t>{MagicalFootwear} ermöglicht es Spielern, sich auf die wesentlichen Kerngegenstände zu konzentrieren, ohne die zusätzlichen 300 Gold für Stiefel ausgeben zu müssen.</t>
+  </si>
+  <si>
+    <t>Du kannst Schulden machen, um Gegenstände zu kaufen, was als negatives Gold in Deiner Schatzkammer angezeigt wird. Eine kleine Leihgebühr wird auf den Goldbetrag, den Du nach Verlassen des Ladens schulden, aufgeschlagen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{MinionDematerializer} hilft Ihnen, die Phase der Minion-Welle zu kontrollieren. </t>
+  </si>
+  <si>
+    <t>{BiscuitDelivery} ist eine großartige Rune für das Laning, da sie sowohl Gesundheit als auch Mana erhält, was in aggressiveren Lanes helfen kann.</t>
+  </si>
+  <si>
+    <t>{CosmicInsight} gewährt Beschwörerzauber- und Gegenstands-Eile.</t>
+  </si>
+  <si>
+    <t>{championName} kann diese Rune sehr leicht mit Grundangriffen aktivieren, was gut mit der Schadenserhöhung von {PressTheAttack} synergiert, sobald diese aktiviert ist.</t>
+  </si>
+  <si>
+    <t>{Triumph} stellt auf {championName} einen Teil der fehlenden Gesundheit wieder her und gewährt Bonusgold, wenn ein Champion getötet wird.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{LegendAlacrity} gewährt {championName} zusätzliches Angriffstempo. </t>
+  </si>
+  <si>
+    <t>{championName} erhält zusätzliche Zähigkeit mit jedem Stapel von {LegendTenacity}.</t>
+  </si>
+  <si>
+    <t>{championName} verursacht mit {CoupDeGrace} mehr Schaden an Zielen mit niedriger Gesundheit.</t>
+  </si>
+  <si>
+    <t>{PhaseRush} bietet mehr Flexibilität und Optionen, um in und aus der Gefahr zu weben, was hilfreich sein kann, da dies im Wesentlichen der Haupt-Spielstil von {championName} ist.</t>
+  </si>
+  <si>
+    <t>{Waterwalking} gewährt Bewegungstempo im Fluss, was {championName} hilft, sich schneller auf der Karte zu bewegen. Der zusätzliche Schaden hilft auch in den so wichtigen Drachen- und Baronkämpfen.</t>
+  </si>
+  <si>
+    <t>{Knochenpanzerung} macht {championName} insgesamt tanker, indem es die Menge an Poke-Schaden im frühen Spiel vermindert.</t>
+  </si>
+  <si>
+    <t>{Präzision} verbessert den Angriffs- und Dauerschaden von {championName} während des gesamten Matches.</t>
+  </si>
+  <si>
+    <t>Beherrschung} verbessert den Burst-Schaden und die Attentatswerkzeuge von {championName}.</t>
+  </si>
+  <si>
+    <t>{Sorcery} stärkt die Fähigkeiten von {championName} und erhöht die verfügbaren Champion-Ressourcen.</t>
+  </si>
+  <si>
+    <t>{Resolve} stärkt die Haltbarkeit von {championName} und erhöht die Tankiness.</t>
+  </si>
+  <si>
+    <t>{Inspiration} eröffnet {championName} im Laufe des Matches kreative Möglichkeiten.</t>
+  </si>
+  <si>
+    <t>This keystone rune gives {championName} a nice head start in team fights and allows to put out more damage in that time window.</t>
+  </si>
+  <si>
+    <t>Diese Keystone-Rune verschafft {ChampionName} einen schönen Vorsprung in Teamkämpfen und ermöglicht es, in diesem Zeitfenster mehr Schaden zu verursachen.</t>
+  </si>
+  <si>
+    <t>Diese Keystone-Rune sorgt für zusätzliche Power in den späteren Phasen eines Spiels. Sobald {Conqueror} vollständig gestapelt ist, verursacht {championName} zusätzlichen Schaden und erhält Lebenserhaltung.</t>
+  </si>
+  <si>
+    <t>{LegendBloodline} gibt Lebensraub, was später beim Gewinnen von Trades und Kämpfen hilft.</t>
+  </si>
+  <si>
+    <t>If the enemy team consists of multiple tanks, then the rune {CutDown} is the best choice.</t>
+  </si>
+  <si>
+    <t>Wenn das gegnerische Team aus mehreren Tanks besteht, dann ist die Rune {CutDown} die beste Wahl.</t>
+  </si>
+  <si>
+    <t>Diese Keystone-Rune sorgt für Burst-Schaden und hilft Dir dabei, die gegnerischen Carrys niederzustrecken.</t>
+  </si>
+  <si>
+    <t>Mit {LastStand} teilst Du mehr Schaden aus, während Du bei niedriger Gesundheit bist.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sobald Du Stiefel kaufst, kannst Du die aktive Fähigkeit von {Predator} verwenden. Nach einer kurzen Wirkzeit erhält {championName} einen Bonus an Bewegungsgeschwindigkeit, während er sich auf gegnerische Champions zubewegt. </t>
+  </si>
+  <si>
+    <t>Diese Keystone-Rune ist perfekt für Roaming und Ganking.
+Diese Keystone-Rune verleiht Dir während des gesamten Matches zusätzlichen Schaden.</t>
+  </si>
+  <si>
+    <t>Diese Keystone-Rune hilft Dir, kurze Trades in Deiner Lane zu gewinnen, indem sie Dein Angriffstempo zu Beginn eines Kampfes erhöht.</t>
+  </si>
+  <si>
+    <t>{CheapShot} sorgt dafür, dass Du Gegnern mit eingeschränkter Bewegung mehr Schaden zufügen, was eine großartige Synergie mit dem Setup von {championName} darstellt.</t>
+  </si>
+  <si>
+    <t>{TasteOfBlood} heilt {championName}, sobald Du einem gegnerischen Champion Schaden zufügst.</t>
+  </si>
+  <si>
+    <t>{SuddenImpact} increases your damage after dashing or being invisible. This is due to how easy it is to use on {championName} with the amount of ways he has to dash, blink or stealth. The additional lethality helps to take down the priority targets that much easier.</t>
+  </si>
+  <si>
+    <t>{ZombieWard} hilft Dir, Deine Sicht auf der Karte zu erweitern. Die Sicht ist in LoL sehr wirkungsvoll und hilft Dir, unnötige Tode zu vermeiden.</t>
+  </si>
+  <si>
+    <t>{SuddenImpact} erhöht Deinen Schaden, nachdem Du gesprungen bist oder unsichtbar warst. Das liegt daran, dass es bei {championName} so einfach zu verwenden ist, da der Champion so viele Möglichkeiten hat, zu flitzen, zu blinken oder sich zu tarnen. Die zusätzliche Tödlichkeit hilft dabei, die vorrangigen Ziele viel leichter auszuschalten.</t>
+  </si>
+  <si>
+    <t>{GhostPoro} hilft Dir, Deine Sicht für einen längeren Zeitraum auf der Karte zu behalten. Vision ist in LoL sehr wirkungsvoll und hilft Dir, unnötige Tode zu vermeiden.</t>
+  </si>
+  <si>
+    <t>{EyeballCollection} ist als nächstes dran. Diese gewährt dem Anwender zusätzlichen Schaden mit jeder Tötung, die er erzielt.</t>
+  </si>
+  <si>
+    <t>{IngeniousHunter} gibt Dir bei jeder einzigartigen Champion-Tötung Gegenstands-Eile.</t>
+  </si>
+  <si>
+    <t>{RelentlessHunter} erhöht Deine Bewegungsgeschwindigkeit außerhalb des Kampfes bei jeder einzigartigen Champion-Tötung.</t>
+  </si>
+  <si>
+    <t>{UltimateHunter} erhöht bei jeder einzigartigen Champion-Tötung die ultimative Eile von {championName}.</t>
+  </si>
+  <si>
+    <t>Diese Keystone-Rune fügt Deinen Fähigkeiten mehr Poke-Schaden zu. Und gewährt zusätzlich einen zusätzlichen Schild, wenn {championName} einen Verbündeten mit Fähigkeiten befähigt oder schützt.</t>
+  </si>
+  <si>
+    <t>Diese Keystone-Rune fügt Deinen Fähigkeiten mehr Schaden zu und erhöht Ihre Kraft in der Laning-Phase.</t>
+  </si>
+  <si>
+    <t>{NullifyingOrb} gewährt Dir einen Schild, sobald {championName} durch magischen Schaden in Mitleidenschaft gezogen wird. Diese Rune wird Dir sehr helfen, gegen Fähigkeitsstärke-Champions mit viel Burst zu überleben.</t>
+  </si>
+  <si>
+    <t>Im Anschluss daran nimmst Du normalerweise {ManaflowBand} für zusätzliches Mana und Mana-Sustain.</t>
+  </si>
+  <si>
+    <t>{Transcendence} für etwas mehr Fähigkeits-Eile.</t>
+  </si>
+  <si>
+    <t>{NimbusCloak}, der beim Wirken eines Beschwörerzaubers Bewegungstempo gewährt, funktioniert insbesondere bei Junglern erstaunlich gut, da sie den Beschwörerzauber mit der kürzesten Abklingzeit, {SummonerSmite}, nehmen.</t>
+  </si>
+  <si>
+    <t>{Celerity} erhöht alle Boni auf die Bewegungsgeschwindigkeit von {championName}.</t>
+  </si>
+  <si>
+    <t>{AbsoluteFocus} gewährt zusätzlichen Schaden, solange {championName} noch nicht volle Gesundheit hat.</t>
+  </si>
+  <si>
+    <t>{Scorch} erhöht Deine frühe Spielkontrolle.</t>
+  </si>
+  <si>
+    <t>{GatheringStorm} erhöht Deine Late-Game-Versicherung.</t>
+  </si>
+  <si>
+    <t>Diese Keystone-Rune gibt {championName} viel Sustain und hilft, Deinen gegnerischen Champion aus der Lane zu drängen.</t>
+  </si>
+  <si>
+    <t>Diese Keystone-Rune stärkt Dich und erhöht sowohl Deine Rüstung als auch Deine Magieresistenz, wenn Sie einen Champion bewegungsunfähig machen. {AfterShock} synergiert sowohl mit der schieren Menge an Crowd Control, die {championName} besitzt, als auch mit der Notwendigkeit, tanky zu sein, sobald Du angreifst.</t>
+  </si>
+  <si>
+    <t>Diese Keystone-Rune gewährt Deinem Teamkollegen und Dir selbst einen Schild, sobald einer von Euch durch einen gegnerischen Champion Schaden erleidet.</t>
+  </si>
+  <si>
+    <t>{Demolish} erhöht Deinen Druck auf die gegnerischen Türme. Diese Keystone-Rune hilft Dir, schlechte Roams oder Backtimings Deines Lane-Gegners zu bestrafen.</t>
+  </si>
+  <si>
+    <t>{FontOfLife} versorgt Deinen Botlaner mit mehr Sustain, indem es ihn immer dann heilt, wenn er einen Champion angreift, dessen Bewegung Du gerade beeinträchtigt hast.</t>
+  </si>
+  <si>
+    <t>{ShieldBash} steigert Deine Tankfähigkeit und stärkt Deinen nächsten Basisangriff, während Du abgeschirmt bist.</t>
+  </si>
+  <si>
+    <t>{Conditioning} erhöht die Tankfähigkeit von {championName} nach der Laning-Phase.</t>
+  </si>
+  <si>
+    <t>{SecondWind} erhöht Ihre Durchhaltefähigkeit in der Lane durch Heilung, nachdem Du von einem gegnerischen Champion Schaden genommen haben.</t>
+  </si>
+  <si>
+    <t>{Overgrowth} erhöht Deine maximalen Lebenspunktezahl.</t>
+  </si>
+  <si>
+    <t>{Revitalize} erhöht die Heilungen und Schilde, die Du wirkst oder erhältst.</t>
+  </si>
+  <si>
+    <t>{Unflinching} erhöht die Zähigkeit von {championName} basierend auf Deiner fehlenden Gesundheit.</t>
+  </si>
+  <si>
+    <t>This keystone rune slows enemy champion on your first basic attack. This slow can by followed up by a skill shot of {championName} to force the opponent in a dangerous situation.</t>
+  </si>
+  <si>
+    <t>Diese Keystone-Rune verlangsamt den gegnerischen Champion bei Deinem ersten Grundangriff. Diese Verlangsamung kann durch einen Fertigkeitshieb von {ChampionName} fortgesetzt werden, um den Gegner in eine gefährliche Situation zu zwingen.</t>
+  </si>
+  <si>
+    <t>Mit dieser Keystone-Rune kannst Du einen Beschwörerzauber für den einmaligen Gebrauch erstellen. Der neue Beschwörerzauber ersetzt einen Deiner aktuellen Beschwörerzauber und bleibt verfügbar, bis er verwendet oder ersetzt wird. {UnsealedSpellbook} hat einige einzigartige Regeln, die besagen, dass ein bestimmter Beschwörerzauber nicht wieder ausgewählt werden kann, bis drei andere einzigartige Zauber genommen wurden. LoL-Profispieler werden {UnsealedSpellbook} oft verwenden, um sich in ihrer aktuellen oder bevorstehenden Situation zu helfen. Stehst Du kurz davor, den letzten Drachen für einen Seelen-Buff zu bekämpfen? Dank {UnsealedSpellbook} kann {championName} {SummonerSmite} aufheben, um seinem Jungler zu helfen, den Drachen für das Team zu sichern. Es gibt zahllose Umstände, unter denen ein bestimmter Beschwörerzauber das Spiel auf den Kopf stellen kann, und genau hier glänzt {UnsealedSpellbook} am meisten.</t>
+  </si>
+  <si>
+    <t>Diese Keystone-Rune gewährt in regelmäßigen Abständen eine einmalige Verwendung einer anderen zufälligen Keystone-Rune. Nachdem Du die gegebene Keystone-Rune nicht verwendet hast, wird eine weitere zufällige Keystone-Rune gewährt, während Du nicht im Kampf bist. Beim Betreten des Spawn-Punktes wird die aktuelle Keystone-Rune neu gewürfelt. Viele unterschiedliche Keystone-Runen passen zum Setup von {championName}, deshalb ist {MasterKey} eine gute Wahl.</t>
+  </si>
+  <si>
+    <t>Wenn Du eine zusätzliche Möglichkeit hast, die Lücke mit der {HextechFlashtraption} zu schließen, wird ein Angriff viel einfacher durchzuführen sein.</t>
+  </si>
+  <si>
+    <t>Du erhälst kostenlos einen {Item2423}, der einen Überraschungsmoment für Dein gegnerisches Team auslösen kann.</t>
+  </si>
+  <si>
+    <t>{championName} erhält durch {ApproachVelocity} zusätzliches Bewegungstempo, während er sich auf gegnerische Champions zubewegt, die bewegungsunfähig oder verlangsamt sind. Diese Rune ist perfekt, um Angriffen Deiner Teamkameraden zu folgen.</t>
+  </si>
+  <si>
+    <t>{TimeWarpTonic} gibt Dir zusätzliche Unterstützung, indem sie Deinen {Item2003} und {Item2010} verstärkt.</t>
   </si>
 </sst>
 </file>
@@ -64426,8 +64631,8 @@
   <dimension ref="A1:Y69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -64445,16 +64650,16 @@
         <v>7605</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>7786</v>
+        <v>7781</v>
       </c>
       <c r="C1" s="29" t="s">
         <v>618</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>7785</v>
+        <v>7780</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>7784</v>
+        <v>7779</v>
       </c>
       <c r="F1" s="26" t="s">
         <v>0</v>
@@ -64517,7 +64722,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7613</v>
       </c>
@@ -64528,16 +64733,19 @@
         <v>7346</v>
       </c>
       <c r="D2" t="s">
-        <v>7783</v>
+        <v>7778</v>
       </c>
       <c r="E2">
         <v>8005</v>
       </c>
       <c r="F2" s="44" t="s">
-        <v>7782</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+        <v>7777</v>
+      </c>
+      <c r="G2" s="41" t="s">
+        <v>7794</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7613</v>
       </c>
@@ -64548,16 +64756,19 @@
         <v>7349</v>
       </c>
       <c r="D3" t="s">
-        <v>7781</v>
+        <v>7776</v>
       </c>
       <c r="E3">
         <v>8008</v>
       </c>
       <c r="F3" s="44" t="s">
-        <v>7780</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+        <v>7807</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>7808</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7613</v>
       </c>
@@ -64565,19 +64776,22 @@
         <v>7646</v>
       </c>
       <c r="C4" t="s">
-        <v>7779</v>
+        <v>7775</v>
       </c>
       <c r="D4" t="s">
-        <v>7778</v>
+        <v>7774</v>
       </c>
       <c r="E4">
         <v>8021</v>
       </c>
       <c r="F4" s="42" t="s">
-        <v>7777</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+        <v>7773</v>
+      </c>
+      <c r="G4" s="41" t="s">
+        <v>7785</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7613</v>
       </c>
@@ -64585,19 +64799,22 @@
         <v>7646</v>
       </c>
       <c r="C5" t="s">
-        <v>7776</v>
+        <v>7772</v>
       </c>
       <c r="D5" t="s">
-        <v>7776</v>
+        <v>7772</v>
       </c>
       <c r="E5">
         <v>8010</v>
       </c>
       <c r="F5" s="42" t="s">
-        <v>7775</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+        <v>7771</v>
+      </c>
+      <c r="G5" s="41" t="s">
+        <v>7809</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7613</v>
       </c>
@@ -64605,19 +64822,22 @@
         <v>7636</v>
       </c>
       <c r="C6" t="s">
-        <v>7774</v>
+        <v>7770</v>
       </c>
       <c r="D6" t="s">
-        <v>7774</v>
+        <v>7770</v>
       </c>
       <c r="E6">
         <v>9101</v>
       </c>
       <c r="F6" s="42" t="s">
-        <v>7773</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+        <v>7769</v>
+      </c>
+      <c r="G6" s="41" t="s">
+        <v>7786</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7613</v>
       </c>
@@ -64625,19 +64845,22 @@
         <v>7636</v>
       </c>
       <c r="C7" t="s">
-        <v>7772</v>
+        <v>7768</v>
       </c>
       <c r="D7" t="s">
-        <v>7772</v>
+        <v>7768</v>
       </c>
       <c r="E7">
         <v>9111</v>
       </c>
       <c r="F7" s="42" t="s">
-        <v>7771</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+        <v>7767</v>
+      </c>
+      <c r="G7" s="41" t="s">
+        <v>7795</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7613</v>
       </c>
@@ -64645,19 +64868,22 @@
         <v>7636</v>
       </c>
       <c r="C8" t="s">
-        <v>7770</v>
+        <v>7766</v>
       </c>
       <c r="D8" t="s">
-        <v>7769</v>
+        <v>7765</v>
       </c>
       <c r="E8">
         <v>8009</v>
       </c>
       <c r="F8" s="44" t="s">
-        <v>7768</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+        <v>7764</v>
+      </c>
+      <c r="G8" s="41" t="s">
+        <v>7787</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7613</v>
       </c>
@@ -64665,19 +64891,22 @@
         <v>7626</v>
       </c>
       <c r="C9" t="s">
-        <v>7767</v>
+        <v>7763</v>
       </c>
       <c r="D9" t="s">
-        <v>7766</v>
+        <v>7762</v>
       </c>
       <c r="E9">
         <v>9104</v>
       </c>
       <c r="F9" s="43" t="s">
-        <v>7765</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+        <v>7761</v>
+      </c>
+      <c r="G9" s="41" t="s">
+        <v>7796</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7613</v>
       </c>
@@ -64685,19 +64914,22 @@
         <v>7626</v>
       </c>
       <c r="C10" t="s">
-        <v>7764</v>
+        <v>7760</v>
       </c>
       <c r="D10" t="s">
-        <v>7763</v>
+        <v>7759</v>
       </c>
       <c r="E10">
         <v>9105</v>
       </c>
       <c r="F10" s="43" t="s">
-        <v>7762</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+        <v>7758</v>
+      </c>
+      <c r="G10" s="41" t="s">
+        <v>7797</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7613</v>
       </c>
@@ -64705,16 +64937,19 @@
         <v>7626</v>
       </c>
       <c r="C11" t="s">
-        <v>7761</v>
+        <v>7757</v>
       </c>
       <c r="D11" t="s">
-        <v>7760</v>
+        <v>7756</v>
       </c>
       <c r="E11">
         <v>9103</v>
       </c>
       <c r="F11" s="44" t="s">
-        <v>7759</v>
+        <v>7755</v>
+      </c>
+      <c r="G11" s="41" t="s">
+        <v>7810</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="30" x14ac:dyDescent="0.25">
@@ -64725,16 +64960,19 @@
         <v>7616</v>
       </c>
       <c r="C12" t="s">
-        <v>7758</v>
+        <v>7754</v>
       </c>
       <c r="D12" t="s">
-        <v>7757</v>
+        <v>7753</v>
       </c>
       <c r="E12">
         <v>8014</v>
       </c>
       <c r="F12" s="42" t="s">
-        <v>7756</v>
+        <v>7752</v>
+      </c>
+      <c r="G12" s="41" t="s">
+        <v>7798</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="30" x14ac:dyDescent="0.25">
@@ -64745,19 +64983,22 @@
         <v>7616</v>
       </c>
       <c r="C13" t="s">
-        <v>7755</v>
+        <v>7751</v>
       </c>
       <c r="D13" t="s">
-        <v>7754</v>
+        <v>7750</v>
       </c>
       <c r="E13">
         <v>8017</v>
       </c>
       <c r="F13" s="42" t="s">
-        <v>7753</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+        <v>7811</v>
+      </c>
+      <c r="G13" s="41" t="s">
+        <v>7812</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7613</v>
       </c>
@@ -64765,16 +65006,19 @@
         <v>7616</v>
       </c>
       <c r="C14" t="s">
-        <v>7752</v>
+        <v>7749</v>
       </c>
       <c r="D14" t="s">
-        <v>7751</v>
+        <v>7748</v>
       </c>
       <c r="E14">
         <v>8299</v>
       </c>
       <c r="F14" s="42" t="s">
-        <v>7750</v>
+        <v>7747</v>
+      </c>
+      <c r="G14" s="41" t="s">
+        <v>7814</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="30" x14ac:dyDescent="0.25">
@@ -64794,10 +65038,13 @@
         <v>8112</v>
       </c>
       <c r="F15" s="44" t="s">
-        <v>7749</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+        <v>7746</v>
+      </c>
+      <c r="G15" s="41" t="s">
+        <v>7813</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7611</v>
       </c>
@@ -64805,19 +65052,22 @@
         <v>7646</v>
       </c>
       <c r="C16" t="s">
-        <v>7748</v>
+        <v>7745</v>
       </c>
       <c r="D16" t="s">
-        <v>7748</v>
+        <v>7745</v>
       </c>
       <c r="E16">
         <v>8124</v>
       </c>
       <c r="F16" s="42" t="s">
-        <v>7747</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>7744</v>
+      </c>
+      <c r="G16" s="41" t="s">
+        <v>7815</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7611</v>
       </c>
@@ -64825,19 +65075,22 @@
         <v>7646</v>
       </c>
       <c r="C17" t="s">
-        <v>7746</v>
+        <v>7743</v>
       </c>
       <c r="D17" t="s">
-        <v>7745</v>
+        <v>7742</v>
       </c>
       <c r="E17">
         <v>8128</v>
       </c>
       <c r="F17" s="42" t="s">
-        <v>7744</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>7741</v>
+      </c>
+      <c r="G17" s="41" t="s">
+        <v>7816</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7611</v>
       </c>
@@ -64845,19 +65098,22 @@
         <v>7646</v>
       </c>
       <c r="C18" t="s">
-        <v>7743</v>
+        <v>7740</v>
       </c>
       <c r="D18" t="s">
-        <v>7742</v>
+        <v>7739</v>
       </c>
       <c r="E18">
         <v>9923</v>
       </c>
       <c r="F18" s="42" t="s">
-        <v>7741</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>7784</v>
+      </c>
+      <c r="G18" s="41" t="s">
+        <v>7817</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7611</v>
       </c>
@@ -64865,18 +65121,20 @@
         <v>7636</v>
       </c>
       <c r="C19" t="s">
-        <v>7740</v>
+        <v>7738</v>
       </c>
       <c r="D19" t="s">
-        <v>7739</v>
+        <v>7737</v>
       </c>
       <c r="E19">
         <v>8126</v>
       </c>
       <c r="F19" s="44" t="s">
-        <v>7738</v>
-      </c>
-      <c r="G19" s="44"/>
+        <v>7736</v>
+      </c>
+      <c r="G19" s="44" t="s">
+        <v>7818</v>
+      </c>
     </row>
     <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -64886,19 +65144,22 @@
         <v>7636</v>
       </c>
       <c r="C20" t="s">
-        <v>7737</v>
+        <v>7735</v>
       </c>
       <c r="D20" t="s">
-        <v>7736</v>
+        <v>7734</v>
       </c>
       <c r="E20">
         <v>8139</v>
       </c>
       <c r="F20" s="42" t="s">
-        <v>7735</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>7733</v>
+      </c>
+      <c r="G20" s="41" t="s">
+        <v>7819</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>7611</v>
       </c>
@@ -64906,19 +65167,22 @@
         <v>7636</v>
       </c>
       <c r="C21" t="s">
-        <v>7734</v>
+        <v>7732</v>
       </c>
       <c r="D21" t="s">
-        <v>7733</v>
+        <v>7731</v>
       </c>
       <c r="E21">
         <v>8143</v>
       </c>
       <c r="F21" s="44" t="s">
-        <v>7787</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>7820</v>
+      </c>
+      <c r="G21" s="41" t="s">
+        <v>7822</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>7611</v>
       </c>
@@ -64926,19 +65190,22 @@
         <v>7626</v>
       </c>
       <c r="C22" t="s">
-        <v>7732</v>
+        <v>7730</v>
       </c>
       <c r="D22" t="s">
-        <v>7731</v>
+        <v>7729</v>
       </c>
       <c r="E22">
         <v>8136</v>
       </c>
       <c r="F22" s="42" t="s">
-        <v>7730</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>7728</v>
+      </c>
+      <c r="G22" s="41" t="s">
+        <v>7821</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>7611</v>
       </c>
@@ -64946,19 +65213,22 @@
         <v>7626</v>
       </c>
       <c r="C23" t="s">
-        <v>7729</v>
+        <v>7727</v>
       </c>
       <c r="D23" t="s">
-        <v>7728</v>
+        <v>7726</v>
       </c>
       <c r="E23">
         <v>8120</v>
       </c>
       <c r="F23" s="42" t="s">
-        <v>7727</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>7725</v>
+      </c>
+      <c r="G23" s="41" t="s">
+        <v>7823</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>7611</v>
       </c>
@@ -64966,19 +65236,22 @@
         <v>7626</v>
       </c>
       <c r="C24" t="s">
-        <v>7726</v>
+        <v>7724</v>
       </c>
       <c r="D24" t="s">
-        <v>7725</v>
+        <v>7723</v>
       </c>
       <c r="E24">
         <v>8138</v>
       </c>
       <c r="F24" s="44" t="s">
-        <v>7724</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>7722</v>
+      </c>
+      <c r="G24" s="41" t="s">
+        <v>7824</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>7611</v>
       </c>
@@ -64986,19 +65259,22 @@
         <v>7616</v>
       </c>
       <c r="C25" t="s">
-        <v>7723</v>
+        <v>7721</v>
       </c>
       <c r="D25" t="s">
-        <v>7722</v>
+        <v>7720</v>
       </c>
       <c r="E25">
         <v>8135</v>
       </c>
       <c r="F25" s="44" t="s">
-        <v>7721</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>7783</v>
+      </c>
+      <c r="G25" s="41" t="s">
+        <v>7788</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7611</v>
       </c>
@@ -65006,19 +65282,22 @@
         <v>7616</v>
       </c>
       <c r="C26" t="s">
-        <v>7720</v>
+        <v>7719</v>
       </c>
       <c r="D26" t="s">
-        <v>7719</v>
+        <v>7718</v>
       </c>
       <c r="E26">
         <v>8134</v>
       </c>
       <c r="F26" s="42" t="s">
-        <v>7718</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>7717</v>
+      </c>
+      <c r="G26" s="41" t="s">
+        <v>7825</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>7611</v>
       </c>
@@ -65026,18 +65305,20 @@
         <v>7616</v>
       </c>
       <c r="C27" t="s">
-        <v>7717</v>
+        <v>7716</v>
       </c>
       <c r="D27" t="s">
-        <v>7716</v>
+        <v>7715</v>
       </c>
       <c r="E27">
         <v>8105</v>
       </c>
       <c r="F27" s="42" t="s">
-        <v>7715</v>
-      </c>
-      <c r="G27" s="44"/>
+        <v>7714</v>
+      </c>
+      <c r="G27" s="44" t="s">
+        <v>7826</v>
+      </c>
     </row>
     <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -65047,19 +65328,22 @@
         <v>7616</v>
       </c>
       <c r="C28" t="s">
-        <v>7714</v>
+        <v>7713</v>
       </c>
       <c r="D28" t="s">
-        <v>7713</v>
+        <v>7712</v>
       </c>
       <c r="E28">
         <v>8106</v>
       </c>
       <c r="F28" s="42" t="s">
-        <v>7712</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>7711</v>
+      </c>
+      <c r="G28" s="41" t="s">
+        <v>7827</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>7609</v>
       </c>
@@ -65067,16 +65351,19 @@
         <v>7646</v>
       </c>
       <c r="C29" t="s">
-        <v>7711</v>
+        <v>7710</v>
       </c>
       <c r="D29" t="s">
-        <v>7710</v>
+        <v>7709</v>
       </c>
       <c r="E29">
         <v>8214</v>
       </c>
       <c r="F29" s="42" t="s">
-        <v>7709</v>
+        <v>7708</v>
+      </c>
+      <c r="G29" s="41" t="s">
+        <v>7828</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -65087,19 +65374,22 @@
         <v>7646</v>
       </c>
       <c r="C30" t="s">
-        <v>7708</v>
+        <v>7707</v>
       </c>
       <c r="D30" t="s">
-        <v>7707</v>
+        <v>7706</v>
       </c>
       <c r="E30">
         <v>8229</v>
       </c>
       <c r="F30" s="42" t="s">
-        <v>7706</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>7705</v>
+      </c>
+      <c r="G30" s="41" t="s">
+        <v>7829</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>7609</v>
       </c>
@@ -65110,16 +65400,19 @@
         <v>7303</v>
       </c>
       <c r="D31" t="s">
-        <v>7705</v>
+        <v>7704</v>
       </c>
       <c r="E31">
         <v>8230</v>
       </c>
       <c r="F31" s="44" t="s">
-        <v>7704</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>7703</v>
+      </c>
+      <c r="G31" s="41" t="s">
+        <v>7799</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>7609</v>
       </c>
@@ -65127,19 +65420,22 @@
         <v>7636</v>
       </c>
       <c r="C32" t="s">
-        <v>7703</v>
+        <v>7702</v>
       </c>
       <c r="D32" t="s">
-        <v>7702</v>
+        <v>7701</v>
       </c>
       <c r="E32">
         <v>8224</v>
       </c>
       <c r="F32" s="42" t="s">
-        <v>7701</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>7700</v>
+      </c>
+      <c r="G32" s="41" t="s">
+        <v>7830</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>7609</v>
       </c>
@@ -65147,19 +65443,22 @@
         <v>7636</v>
       </c>
       <c r="C33" t="s">
-        <v>7700</v>
+        <v>7699</v>
       </c>
       <c r="D33" t="s">
-        <v>7699</v>
+        <v>7698</v>
       </c>
       <c r="E33">
         <v>8226</v>
       </c>
       <c r="F33" s="44" t="s">
-        <v>7698</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>7697</v>
+      </c>
+      <c r="G33" s="41" t="s">
+        <v>7831</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>7609</v>
       </c>
@@ -65167,19 +65466,22 @@
         <v>7636</v>
       </c>
       <c r="C34" t="s">
-        <v>7697</v>
+        <v>7696</v>
       </c>
       <c r="D34" t="s">
-        <v>7696</v>
+        <v>7695</v>
       </c>
       <c r="E34">
         <v>8275</v>
       </c>
       <c r="F34" s="44" t="s">
-        <v>7695</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7694</v>
+      </c>
+      <c r="G34" s="41" t="s">
+        <v>7833</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>7609</v>
       </c>
@@ -65187,19 +65489,22 @@
         <v>7626</v>
       </c>
       <c r="C35" t="s">
-        <v>7694</v>
+        <v>7693</v>
       </c>
       <c r="D35" t="s">
-        <v>7694</v>
+        <v>7693</v>
       </c>
       <c r="E35">
         <v>8210</v>
       </c>
       <c r="F35" s="44" t="s">
-        <v>7693</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7692</v>
+      </c>
+      <c r="G35" s="41" t="s">
+        <v>7832</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>7609</v>
       </c>
@@ -65207,19 +65512,22 @@
         <v>7626</v>
       </c>
       <c r="C36" t="s">
-        <v>7692</v>
+        <v>7691</v>
       </c>
       <c r="D36" t="s">
-        <v>7692</v>
+        <v>7691</v>
       </c>
       <c r="E36">
         <v>8234</v>
       </c>
       <c r="F36" s="42" t="s">
-        <v>7691</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>7690</v>
+      </c>
+      <c r="G36" s="41" t="s">
+        <v>7834</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>7609</v>
       </c>
@@ -65227,19 +65535,22 @@
         <v>7626</v>
       </c>
       <c r="C37" t="s">
-        <v>7690</v>
+        <v>7689</v>
       </c>
       <c r="D37" t="s">
-        <v>7689</v>
+        <v>7688</v>
       </c>
       <c r="E37">
         <v>8233</v>
       </c>
       <c r="F37" s="42" t="s">
-        <v>7688</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7687</v>
+      </c>
+      <c r="G37" s="41" t="s">
+        <v>7835</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>7609</v>
       </c>
@@ -65247,19 +65558,22 @@
         <v>7616</v>
       </c>
       <c r="C38" t="s">
-        <v>7687</v>
+        <v>7686</v>
       </c>
       <c r="D38" t="s">
-        <v>7687</v>
+        <v>7686</v>
       </c>
       <c r="E38">
         <v>8237</v>
       </c>
       <c r="F38" s="44" t="s">
-        <v>7686</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>7685</v>
+      </c>
+      <c r="G38" s="41" t="s">
+        <v>7836</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>7609</v>
       </c>
@@ -65267,19 +65581,22 @@
         <v>7616</v>
       </c>
       <c r="C39" t="s">
-        <v>7685</v>
+        <v>7684</v>
       </c>
       <c r="D39" t="s">
-        <v>7685</v>
+        <v>7684</v>
       </c>
       <c r="E39">
         <v>8232</v>
       </c>
       <c r="F39" s="44" t="s">
-        <v>7684</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7683</v>
+      </c>
+      <c r="G39" s="41" t="s">
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>7609</v>
       </c>
@@ -65287,19 +65604,22 @@
         <v>7616</v>
       </c>
       <c r="C40" t="s">
-        <v>7683</v>
+        <v>7682</v>
       </c>
       <c r="D40" t="s">
-        <v>7682</v>
+        <v>7681</v>
       </c>
       <c r="E40">
         <v>8236</v>
       </c>
       <c r="F40" s="44" t="s">
-        <v>7681</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>7680</v>
+      </c>
+      <c r="G40" s="41" t="s">
+        <v>7837</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>6050</v>
       </c>
@@ -65307,19 +65627,22 @@
         <v>7646</v>
       </c>
       <c r="C41" t="s">
-        <v>7680</v>
+        <v>7679</v>
       </c>
       <c r="D41" t="s">
-        <v>7679</v>
+        <v>7678</v>
       </c>
       <c r="E41">
         <v>8437</v>
       </c>
       <c r="F41" s="42" t="s">
-        <v>7678</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>7677</v>
+      </c>
+      <c r="G41" s="41" t="s">
+        <v>7838</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>6050</v>
       </c>
@@ -65336,10 +65659,13 @@
         <v>8439</v>
       </c>
       <c r="F42" s="44" t="s">
-        <v>7677</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>7676</v>
+      </c>
+      <c r="G42" s="41" t="s">
+        <v>7839</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>6050</v>
       </c>
@@ -65347,19 +65673,22 @@
         <v>7646</v>
       </c>
       <c r="C43" t="s">
-        <v>7676</v>
+        <v>7675</v>
       </c>
       <c r="D43" t="s">
-        <v>7676</v>
+        <v>7675</v>
       </c>
       <c r="E43">
         <v>8465</v>
       </c>
       <c r="F43" s="42" t="s">
-        <v>7675</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>7674</v>
+      </c>
+      <c r="G43" s="41" t="s">
+        <v>7840</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>6050</v>
       </c>
@@ -65367,19 +65696,22 @@
         <v>7636</v>
       </c>
       <c r="C44" t="s">
-        <v>7674</v>
+        <v>7673</v>
       </c>
       <c r="D44" t="s">
-        <v>7674</v>
+        <v>7673</v>
       </c>
       <c r="E44">
         <v>8446</v>
       </c>
       <c r="F44" s="42" t="s">
-        <v>7673</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>7672</v>
+      </c>
+      <c r="G44" s="41" t="s">
+        <v>7841</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>6050</v>
       </c>
@@ -65387,19 +65719,22 @@
         <v>7636</v>
       </c>
       <c r="C45" t="s">
-        <v>7672</v>
+        <v>7671</v>
       </c>
       <c r="D45" t="s">
-        <v>7671</v>
+        <v>7670</v>
       </c>
       <c r="E45">
         <v>8463</v>
       </c>
       <c r="F45" s="44" t="s">
-        <v>7670</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>7669</v>
+      </c>
+      <c r="G45" s="41" t="s">
+        <v>7842</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>6050</v>
       </c>
@@ -65407,19 +65742,22 @@
         <v>7636</v>
       </c>
       <c r="C46" t="s">
-        <v>7669</v>
+        <v>7668</v>
       </c>
       <c r="D46" t="s">
-        <v>7668</v>
+        <v>7667</v>
       </c>
       <c r="E46">
         <v>8401</v>
       </c>
       <c r="F46" s="42" t="s">
-        <v>7667</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7666</v>
+      </c>
+      <c r="G46" s="41" t="s">
+        <v>7843</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>6050</v>
       </c>
@@ -65427,19 +65765,22 @@
         <v>7626</v>
       </c>
       <c r="C47" t="s">
-        <v>7666</v>
+        <v>7665</v>
       </c>
       <c r="D47" t="s">
-        <v>7666</v>
+        <v>7665</v>
       </c>
       <c r="E47">
         <v>8429</v>
       </c>
       <c r="F47" s="42" t="s">
-        <v>7665</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>7664</v>
+      </c>
+      <c r="G47" s="41" t="s">
+        <v>7844</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>6050</v>
       </c>
@@ -65447,19 +65788,22 @@
         <v>7626</v>
       </c>
       <c r="C48" t="s">
-        <v>7664</v>
+        <v>7663</v>
       </c>
       <c r="D48" t="s">
-        <v>7663</v>
+        <v>7662</v>
       </c>
       <c r="E48">
         <v>8444</v>
       </c>
       <c r="F48" s="42" t="s">
-        <v>7662</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>7661</v>
+      </c>
+      <c r="G48" s="41" t="s">
+        <v>7845</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>6050</v>
       </c>
@@ -65467,16 +65811,19 @@
         <v>7626</v>
       </c>
       <c r="C49" t="s">
-        <v>7661</v>
+        <v>7660</v>
       </c>
       <c r="D49" t="s">
-        <v>7660</v>
+        <v>7659</v>
       </c>
       <c r="E49">
         <v>8473</v>
       </c>
       <c r="F49" s="44" t="s">
-        <v>7659</v>
+        <v>7658</v>
+      </c>
+      <c r="G49" s="41" t="s">
+        <v>7801</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -65487,19 +65834,22 @@
         <v>7616</v>
       </c>
       <c r="C50" t="s">
-        <v>7658</v>
+        <v>7657</v>
       </c>
       <c r="D50" t="s">
-        <v>7658</v>
+        <v>7657</v>
       </c>
       <c r="E50">
         <v>8451</v>
       </c>
       <c r="F50" s="44" t="s">
-        <v>7657</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+        <v>7656</v>
+      </c>
+      <c r="G50" s="41" t="s">
+        <v>7846</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>6050</v>
       </c>
@@ -65507,19 +65857,22 @@
         <v>7616</v>
       </c>
       <c r="C51" t="s">
-        <v>7656</v>
+        <v>7655</v>
       </c>
       <c r="D51" t="s">
-        <v>7656</v>
+        <v>7655</v>
       </c>
       <c r="E51">
         <v>8453</v>
       </c>
       <c r="F51" s="42" t="s">
-        <v>7655</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+        <v>7654</v>
+      </c>
+      <c r="G51" s="41" t="s">
+        <v>7847</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>6050</v>
       </c>
@@ -65527,19 +65880,22 @@
         <v>7616</v>
       </c>
       <c r="C52" t="s">
-        <v>7654</v>
+        <v>7653</v>
       </c>
       <c r="D52" t="s">
-        <v>7654</v>
+        <v>7653</v>
       </c>
       <c r="E52">
         <v>8242</v>
       </c>
       <c r="F52" s="42" t="s">
-        <v>7653</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>7652</v>
+      </c>
+      <c r="G52" s="41" t="s">
+        <v>7848</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>7606</v>
       </c>
@@ -65547,19 +65903,22 @@
         <v>7646</v>
       </c>
       <c r="C53" t="s">
-        <v>7652</v>
+        <v>7651</v>
       </c>
       <c r="D53" t="s">
-        <v>7651</v>
+        <v>7650</v>
       </c>
       <c r="E53">
         <v>8351</v>
       </c>
       <c r="F53" s="42" t="s">
-        <v>7650</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+        <v>7849</v>
+      </c>
+      <c r="G53" s="41" t="s">
+        <v>7850</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="255" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>7606</v>
       </c>
@@ -65578,8 +65937,11 @@
       <c r="F54" s="44" t="s">
         <v>7647</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="G54" s="41" t="s">
+        <v>7851</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>7606</v>
       </c>
@@ -65598,8 +65960,11 @@
       <c r="F55" s="42" t="s">
         <v>7643</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="G55" s="41" t="s">
+        <v>7852</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>7606</v>
       </c>
@@ -65618,9 +65983,11 @@
       <c r="F56" s="42" t="s">
         <v>7640</v>
       </c>
-      <c r="G56" s="44"/>
-    </row>
-    <row r="57" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="G56" s="44" t="s">
+        <v>7853</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>7606</v>
       </c>
@@ -65639,9 +66006,11 @@
       <c r="F57" s="44" t="s">
         <v>7637</v>
       </c>
-      <c r="G57" s="44"/>
-    </row>
-    <row r="58" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="G57" s="44" t="s">
+        <v>7789</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>7606</v>
       </c>
@@ -65660,8 +66029,11 @@
       <c r="F58" s="42" t="s">
         <v>7633</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="G58" s="41" t="s">
+        <v>7854</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>7606</v>
       </c>
@@ -65680,8 +66052,11 @@
       <c r="F59" s="42" t="s">
         <v>7630</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G59" s="41" t="s">
+        <v>7790</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>7606</v>
       </c>
@@ -65700,8 +66075,11 @@
       <c r="F60" s="42" t="s">
         <v>7627</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="G60" s="41" t="s">
+        <v>7791</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>7606</v>
       </c>
@@ -65720,9 +66098,11 @@
       <c r="F61" s="44" t="s">
         <v>7623</v>
       </c>
-      <c r="G61" s="44"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G61" s="44" t="s">
+        <v>7792</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>7606</v>
       </c>
@@ -65741,9 +66121,11 @@
       <c r="F62" s="44" t="s">
         <v>7620</v>
       </c>
-      <c r="G62" s="44"/>
-    </row>
-    <row r="63" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="G62" s="44" t="s">
+        <v>7793</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>7606</v>
       </c>
@@ -65762,8 +66144,11 @@
       <c r="F63" s="42" t="s">
         <v>7617</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G63" s="41" t="s">
+        <v>7855</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>7606</v>
       </c>
@@ -65780,10 +66165,13 @@
         <v>8352</v>
       </c>
       <c r="F64" s="43" t="s">
-        <v>7788</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>7782</v>
+      </c>
+      <c r="G64" s="41" t="s">
+        <v>7856</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>7613</v>
       </c>
@@ -65796,8 +66184,11 @@
       <c r="F65" s="42" t="s">
         <v>7612</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G65" s="41" t="s">
+        <v>7802</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>7611</v>
       </c>
@@ -65810,8 +66201,11 @@
       <c r="F66" s="42" t="s">
         <v>7610</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G66" s="41" t="s">
+        <v>7803</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>7609</v>
       </c>
@@ -65824,8 +66218,11 @@
       <c r="F67" s="42" t="s">
         <v>7608</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G67" s="41" t="s">
+        <v>7804</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>6050</v>
       </c>
@@ -65838,8 +66235,11 @@
       <c r="F68" s="42" t="s">
         <v>7607</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G68" s="41" t="s">
+        <v>7805</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>7606</v>
       </c>
@@ -65851,6 +66251,9 @@
       </c>
       <c r="F69" s="42" t="s">
         <v>7604</v>
+      </c>
+      <c r="G69" s="41" t="s">
+        <v>7806</v>
       </c>
     </row>
   </sheetData>

--- a/private/INDIVIDUAL_LOCALIZATIONS_UI_7.xlsx
+++ b/private/INDIVIDUAL_LOCALIZATIONS_UI_7.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\lolvvv\Assets\private\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\lolvvv1\private\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7862F9-8CD8-4186-B028-113AD42E3AFB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C7313E-E445-4ED0-B3A1-417BCAE55F32}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6795" yWindow="255" windowWidth="27825" windowHeight="20100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INTL" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12369" uniqueCount="7857">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12384" uniqueCount="7866">
   <si>
     <t>en_US</t>
   </si>
@@ -22893,9 +22893,6 @@
     <t>Inspiration</t>
   </si>
   <si>
-    <t>{Resolve} empowers the durability of {championName} and increases the tankiness.</t>
-  </si>
-  <si>
     <t>{Sorcery} empoweres abilities of {championName} and increases the available champion resources.</t>
   </si>
   <si>
@@ -22941,9 +22938,6 @@
     <t>Cosmic Insight</t>
   </si>
   <si>
-    <t>{BiscuitDelivery} is a great rune for laning as it gives sustain to both health and mana, which can help in more aggressive lanes.</t>
-  </si>
-  <si>
     <t>BiscuitDelivery</t>
   </si>
   <si>
@@ -22953,18 +22947,12 @@
     <t>Slot 2</t>
   </si>
   <si>
-    <t xml:space="preserve">{MinionDematerializer} will help you to control the stage of the minion wave. </t>
-  </si>
-  <si>
     <t>MinionDematerializer</t>
   </si>
   <si>
     <t>Minion Dematerializer</t>
   </si>
   <si>
-    <t>You can enter debt to buy items, which is displayed as negative gold in your treasury. A small lending fee is added onto the amount of gold you owe after leaving the shop.</t>
-  </si>
-  <si>
     <t>FuturesMarket</t>
   </si>
   <si>
@@ -22992,18 +22980,12 @@
     <t>Magical Footwear</t>
   </si>
   <si>
-    <t>Having an extra way to close the gap with the {HextechFlashtraption} will make an engage much easier to pull off.</t>
-  </si>
-  <si>
     <t>HextechFlashtraption</t>
   </si>
   <si>
     <t>Hextech Flashtraption</t>
   </si>
   <si>
-    <t>This keystone rune periodically grants a single use of another random keystone rune. After not using the given keystone rune, another random keystone rune is granted while out of combat. Entering the spawn point will re-roll the current keystone rune. A lot of diffent keystone runes fit to {championName} setup, this the reason why {MasterKey} is a great choice.</t>
-  </si>
-  <si>
     <t>MasterKey</t>
   </si>
   <si>
@@ -23013,9 +22995,6 @@
     <t>Keystone</t>
   </si>
   <si>
-    <t>This keystone rune allows you to create a one-time use summoner spell. The new summoner spell replaces one of their current summoner spells and remains available until it is used or replaced. {UnsealedSpellbook} has some unique rules in that a particular summoner spell cannot be selected again until three other unique spells have been taken. LoL pro players will often use {UnsealedSpellbook} to aid them in their current or upcoming situation. Are you about to fight the last dragon for a soul buff? Due to {UnsealedSpellbook}, {championName} can pick up {SummonerSmite} to help their jungler secure the dragon for the team. There are numberless circumstances where a particular summoner spell can turn the game on its head, and that's where {UnsealedSpellbook} shines the most.</t>
-  </si>
-  <si>
     <t>UnsealedSpellbook</t>
   </si>
   <si>
@@ -23034,9 +23013,6 @@
     <t>Unflinching</t>
   </si>
   <si>
-    <t>{Revitalize} inceases heals and shields you cast or receive.</t>
-  </si>
-  <si>
     <t>Revitalize</t>
   </si>
   <si>
@@ -23070,27 +23046,18 @@
     <t>Conditioning</t>
   </si>
   <si>
-    <t>{ShieldBash} powers up your tankiness and empowers your next basic attack while shielded.</t>
-  </si>
-  <si>
     <t>ShieldBash</t>
   </si>
   <si>
     <t>Shield Bash</t>
   </si>
   <si>
-    <t>{FontOfLife} provides your botlaner with more sustain by healing them whenever they attack a champion whose movement you've recently impaired.</t>
-  </si>
-  <si>
     <t>FontOfLife</t>
   </si>
   <si>
     <t>Font of Life</t>
   </si>
   <si>
-    <t>{Demolish} increases your pressure on the enemy turrets. This keystone rune will help you to punish bad roams or backtimings of your lane opponent.</t>
-  </si>
-  <si>
     <t>Demolish</t>
   </si>
   <si>
@@ -23100,9 +23067,6 @@
     <t>Guardian</t>
   </si>
   <si>
-    <t>This keystone rune bulks you up, increasing both armour and magic resistance, whenever you immobilize a champion. {Aftershock} synergises both with the sheer amount of crowd control {championName} possesses and the need to be tanky as soon as you engage.</t>
-  </si>
-  <si>
     <t>This keystone rune gives {championName} alot of sustain and helps to force your opposing champion out of the lane.</t>
   </si>
   <si>
@@ -23112,9 +23076,6 @@
     <t>Grasp of the Undying</t>
   </si>
   <si>
-    <t>{GatheringStorm} increases your late game insurance.</t>
-  </si>
-  <si>
     <t>GatheringStorm</t>
   </si>
   <si>
@@ -23127,9 +23088,6 @@
     <t>Waterwalking</t>
   </si>
   <si>
-    <t>{Scorch} increases your early game control.</t>
-  </si>
-  <si>
     <t>Scorch</t>
   </si>
   <si>
@@ -23154,36 +23112,24 @@
     <t>Transcendence</t>
   </si>
   <si>
-    <t>{NimbusCloak}, which grants movement speed upon casting a summoner spell, works amazingly well with junglers in particular as they take the shortest cooldown summoner spell, {SummonerSmite}.</t>
-  </si>
-  <si>
     <t>NimbusCloak</t>
   </si>
   <si>
     <t>Nimbus Cloak</t>
   </si>
   <si>
-    <t>This is usually followed up by taking {ManaflowBand} for additional mana and mana sustain.</t>
-  </si>
-  <si>
     <t>ManaflowBand</t>
   </si>
   <si>
     <t>Manaflow Band</t>
   </si>
   <si>
-    <t>{NullifyingOrb} grants you a shield, as soon as {championName} gets taking low by magic damage. This rune will help you alot to survive against ability power champions with a lot of burst.</t>
-  </si>
-  <si>
     <t>NullifyingOrb</t>
   </si>
   <si>
     <t>Nullifying Orb</t>
   </si>
   <si>
-    <t>{PhaseRush} offers more flexibility and options to weave in and out of danger, which can be helpful since that's essentially the main playstyle of {championName}.</t>
-  </si>
-  <si>
     <t>PhaseRush</t>
   </si>
   <si>
@@ -23214,9 +23160,6 @@
     <t>Ultimate Hunter</t>
   </si>
   <si>
-    <t>{RelentlessHunter} increases your movement speed out of combat on every unique champion takedown.</t>
-  </si>
-  <si>
     <t>RelentlessHunter</t>
   </si>
   <si>
@@ -23247,18 +23190,12 @@
     <t>Eyeball Collection</t>
   </si>
   <si>
-    <t>{GhostPoro} helps you to keep your vision on the map for a longer period of time. Vision is very impactful in LoL and helps you to avoid unnecessary deaths.</t>
-  </si>
-  <si>
     <t>GhostPoro</t>
   </si>
   <si>
     <t>Ghost Poro</t>
   </si>
   <si>
-    <t>{ZombieWard} helps you to expand your vision on the map. Vision is very impactful in LoL and helps you to avoid unnecessary deaths.</t>
-  </si>
-  <si>
     <t>ZombieWard</t>
   </si>
   <si>
@@ -23337,18 +23274,12 @@
     <t>Coup de Grace</t>
   </si>
   <si>
-    <t>{LegendBloodline} gives life steal, which aids in winning trades and fights later on.</t>
-  </si>
-  <si>
     <t>LegendBloodline</t>
   </si>
   <si>
     <t>Legend: Bloodline</t>
   </si>
   <si>
-    <t>{championName} gains additional Tenacity with every stack of {LegendTenacity}.</t>
-  </si>
-  <si>
     <t>LegendTenacity</t>
   </si>
   <si>
@@ -23364,9 +23295,6 @@
     <t>Legend: Alacrity</t>
   </si>
   <si>
-    <t>{PresenceOfMind} helps {championName} with the mana problems by restoring mana and increasing maximum mana pool of {championName}.</t>
-  </si>
-  <si>
     <t>PresenceOfMind</t>
   </si>
   <si>
@@ -23385,9 +23313,6 @@
     <t>Overheal</t>
   </si>
   <si>
-    <t>This keystone rune provides additional power in the later stages of a game. As soon as {Conqueror} is fully stacked, {championName} deals additional damage and gains lifesteal.</t>
-  </si>
-  <si>
     <t>Conqueror</t>
   </si>
   <si>
@@ -23421,36 +23346,12 @@
     <t>{TimeWarpTonic} gives you additional sustain by boosting your {Item2003} and {Item2010}.</t>
   </si>
   <si>
-    <t>{RavenousHunter} is the final rune on the {Domination} tree. This rune gives some survivability during short fights and damage trades during the laning phase. The additional health is nothing to scoff at and can mean the difference between winning or losing a battle.</t>
-  </si>
-  <si>
-    <t>This keystone rune helps you to win short trades in your lane by increasing your attackspeed at the beginning of a fight.</t>
-  </si>
-  <si>
-    <t>Diese Keystone-Rune generiert Ihnen eine Menge Sustain und erhöht Ihre Überlebensfähigkeit gegen Poke-Champions in der Lane.</t>
-  </si>
-  <si>
     <t>{Overheal} wandelt Heilung, die über die maximale Gesundheit von {championName} hinausgeht, in einen Schild um, der zusätzliche Sicherheit und Tankiness bietet.</t>
   </si>
   <si>
-    <t>{PresenceOfMind} hilft {championName} bei Manaproblemen, indem es Mana wiederherstellt und den maximalen Manapool von {championName} erhöht.</t>
-  </si>
-  <si>
-    <t>{RavenousHunter} ist die letzte Rune auf dem {Domination} Baum. Diese Rune verleiht etwas Überlebensfähigkeit während kurzer Kämpfe und Schadenstrades in der Laning-Phase. Die zusätzlichen Lebenspunkte sind nicht zu verachten und können den Unterschied zwischen Sieg oder Niederlage in einem Kampf ausmachen.</t>
-  </si>
-  <si>
     <t>{MagicalFootwear} ermöglicht es Spielern, sich auf die wesentlichen Kerngegenstände zu konzentrieren, ohne die zusätzlichen 300 Gold für Stiefel ausgeben zu müssen.</t>
   </si>
   <si>
-    <t>Du kannst Schulden machen, um Gegenstände zu kaufen, was als negatives Gold in Deiner Schatzkammer angezeigt wird. Eine kleine Leihgebühr wird auf den Goldbetrag, den Du nach Verlassen des Ladens schulden, aufgeschlagen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{MinionDematerializer} hilft Ihnen, die Phase der Minion-Welle zu kontrollieren. </t>
-  </si>
-  <si>
-    <t>{BiscuitDelivery} ist eine großartige Rune für das Laning, da sie sowohl Gesundheit als auch Mana erhält, was in aggressiveren Lanes helfen kann.</t>
-  </si>
-  <si>
     <t>{CosmicInsight} gewährt Beschwörerzauber- und Gegenstands-Eile.</t>
   </si>
   <si>
@@ -23463,21 +23364,12 @@
     <t xml:space="preserve">{LegendAlacrity} gewährt {championName} zusätzliches Angriffstempo. </t>
   </si>
   <si>
-    <t>{championName} erhält zusätzliche Zähigkeit mit jedem Stapel von {LegendTenacity}.</t>
-  </si>
-  <si>
     <t>{championName} verursacht mit {CoupDeGrace} mehr Schaden an Zielen mit niedriger Gesundheit.</t>
   </si>
   <si>
-    <t>{PhaseRush} bietet mehr Flexibilität und Optionen, um in und aus der Gefahr zu weben, was hilfreich sein kann, da dies im Wesentlichen der Haupt-Spielstil von {championName} ist.</t>
-  </si>
-  <si>
     <t>{Waterwalking} gewährt Bewegungstempo im Fluss, was {championName} hilft, sich schneller auf der Karte zu bewegen. Der zusätzliche Schaden hilft auch in den so wichtigen Drachen- und Baronkämpfen.</t>
   </si>
   <si>
-    <t>{Knochenpanzerung} macht {championName} insgesamt tanker, indem es die Menge an Poke-Schaden im frühen Spiel vermindert.</t>
-  </si>
-  <si>
     <t>{Präzision} verbessert den Angriffs- und Dauerschaden von {championName} während des gesamten Matches.</t>
   </si>
   <si>
@@ -23487,24 +23379,9 @@
     <t>{Sorcery} stärkt die Fähigkeiten von {championName} und erhöht die verfügbaren Champion-Ressourcen.</t>
   </si>
   <si>
-    <t>{Resolve} stärkt die Haltbarkeit von {championName} und erhöht die Tankiness.</t>
-  </si>
-  <si>
     <t>{Inspiration} eröffnet {championName} im Laufe des Matches kreative Möglichkeiten.</t>
   </si>
   <si>
-    <t>This keystone rune gives {championName} a nice head start in team fights and allows to put out more damage in that time window.</t>
-  </si>
-  <si>
-    <t>Diese Keystone-Rune verschafft {ChampionName} einen schönen Vorsprung in Teamkämpfen und ermöglicht es, in diesem Zeitfenster mehr Schaden zu verursachen.</t>
-  </si>
-  <si>
-    <t>Diese Keystone-Rune sorgt für zusätzliche Power in den späteren Phasen eines Spiels. Sobald {Conqueror} vollständig gestapelt ist, verursacht {championName} zusätzlichen Schaden und erhält Lebenserhaltung.</t>
-  </si>
-  <si>
-    <t>{LegendBloodline} gibt Lebensraub, was später beim Gewinnen von Trades und Kämpfen hilft.</t>
-  </si>
-  <si>
     <t>If the enemy team consists of multiple tanks, then the rune {CutDown} is the best choice.</t>
   </si>
   <si>
@@ -23514,97 +23391,27 @@
     <t>Diese Keystone-Rune sorgt für Burst-Schaden und hilft Dir dabei, die gegnerischen Carrys niederzustrecken.</t>
   </si>
   <si>
-    <t>Mit {LastStand} teilst Du mehr Schaden aus, während Du bei niedriger Gesundheit bist.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sobald Du Stiefel kaufst, kannst Du die aktive Fähigkeit von {Predator} verwenden. Nach einer kurzen Wirkzeit erhält {championName} einen Bonus an Bewegungsgeschwindigkeit, während er sich auf gegnerische Champions zubewegt. </t>
-  </si>
-  <si>
-    <t>Diese Keystone-Rune ist perfekt für Roaming und Ganking.
-Diese Keystone-Rune verleiht Dir während des gesamten Matches zusätzlichen Schaden.</t>
-  </si>
-  <si>
-    <t>Diese Keystone-Rune hilft Dir, kurze Trades in Deiner Lane zu gewinnen, indem sie Dein Angriffstempo zu Beginn eines Kampfes erhöht.</t>
-  </si>
-  <si>
-    <t>{CheapShot} sorgt dafür, dass Du Gegnern mit eingeschränkter Bewegung mehr Schaden zufügen, was eine großartige Synergie mit dem Setup von {championName} darstellt.</t>
-  </si>
-  <si>
     <t>{TasteOfBlood} heilt {championName}, sobald Du einem gegnerischen Champion Schaden zufügst.</t>
   </si>
   <si>
-    <t>{SuddenImpact} increases your damage after dashing or being invisible. This is due to how easy it is to use on {championName} with the amount of ways he has to dash, blink or stealth. The additional lethality helps to take down the priority targets that much easier.</t>
-  </si>
-  <si>
-    <t>{ZombieWard} hilft Dir, Deine Sicht auf der Karte zu erweitern. Die Sicht ist in LoL sehr wirkungsvoll und hilft Dir, unnötige Tode zu vermeiden.</t>
-  </si>
-  <si>
-    <t>{SuddenImpact} erhöht Deinen Schaden, nachdem Du gesprungen bist oder unsichtbar warst. Das liegt daran, dass es bei {championName} so einfach zu verwenden ist, da der Champion so viele Möglichkeiten hat, zu flitzen, zu blinken oder sich zu tarnen. Die zusätzliche Tödlichkeit hilft dabei, die vorrangigen Ziele viel leichter auszuschalten.</t>
-  </si>
-  <si>
-    <t>{GhostPoro} hilft Dir, Deine Sicht für einen längeren Zeitraum auf der Karte zu behalten. Vision ist in LoL sehr wirkungsvoll und hilft Dir, unnötige Tode zu vermeiden.</t>
-  </si>
-  <si>
     <t>{EyeballCollection} ist als nächstes dran. Diese gewährt dem Anwender zusätzlichen Schaden mit jeder Tötung, die er erzielt.</t>
   </si>
   <si>
     <t>{IngeniousHunter} gibt Dir bei jeder einzigartigen Champion-Tötung Gegenstands-Eile.</t>
   </si>
   <si>
-    <t>{RelentlessHunter} erhöht Deine Bewegungsgeschwindigkeit außerhalb des Kampfes bei jeder einzigartigen Champion-Tötung.</t>
-  </si>
-  <si>
     <t>{UltimateHunter} erhöht bei jeder einzigartigen Champion-Tötung die ultimative Eile von {championName}.</t>
   </si>
   <si>
-    <t>Diese Keystone-Rune fügt Deinen Fähigkeiten mehr Poke-Schaden zu. Und gewährt zusätzlich einen zusätzlichen Schild, wenn {championName} einen Verbündeten mit Fähigkeiten befähigt oder schützt.</t>
-  </si>
-  <si>
-    <t>Diese Keystone-Rune fügt Deinen Fähigkeiten mehr Schaden zu und erhöht Ihre Kraft in der Laning-Phase.</t>
-  </si>
-  <si>
-    <t>{NullifyingOrb} gewährt Dir einen Schild, sobald {championName} durch magischen Schaden in Mitleidenschaft gezogen wird. Diese Rune wird Dir sehr helfen, gegen Fähigkeitsstärke-Champions mit viel Burst zu überleben.</t>
-  </si>
-  <si>
-    <t>Im Anschluss daran nimmst Du normalerweise {ManaflowBand} für zusätzliches Mana und Mana-Sustain.</t>
-  </si>
-  <si>
     <t>{Transcendence} für etwas mehr Fähigkeits-Eile.</t>
   </si>
   <si>
-    <t>{NimbusCloak}, der beim Wirken eines Beschwörerzaubers Bewegungstempo gewährt, funktioniert insbesondere bei Junglern erstaunlich gut, da sie den Beschwörerzauber mit der kürzesten Abklingzeit, {SummonerSmite}, nehmen.</t>
-  </si>
-  <si>
     <t>{Celerity} erhöht alle Boni auf die Bewegungsgeschwindigkeit von {championName}.</t>
   </si>
   <si>
     <t>{AbsoluteFocus} gewährt zusätzlichen Schaden, solange {championName} noch nicht volle Gesundheit hat.</t>
   </si>
   <si>
-    <t>{Scorch} erhöht Deine frühe Spielkontrolle.</t>
-  </si>
-  <si>
-    <t>{GatheringStorm} erhöht Deine Late-Game-Versicherung.</t>
-  </si>
-  <si>
-    <t>Diese Keystone-Rune gibt {championName} viel Sustain und hilft, Deinen gegnerischen Champion aus der Lane zu drängen.</t>
-  </si>
-  <si>
-    <t>Diese Keystone-Rune stärkt Dich und erhöht sowohl Deine Rüstung als auch Deine Magieresistenz, wenn Sie einen Champion bewegungsunfähig machen. {AfterShock} synergiert sowohl mit der schieren Menge an Crowd Control, die {championName} besitzt, als auch mit der Notwendigkeit, tanky zu sein, sobald Du angreifst.</t>
-  </si>
-  <si>
-    <t>Diese Keystone-Rune gewährt Deinem Teamkollegen und Dir selbst einen Schild, sobald einer von Euch durch einen gegnerischen Champion Schaden erleidet.</t>
-  </si>
-  <si>
-    <t>{Demolish} erhöht Deinen Druck auf die gegnerischen Türme. Diese Keystone-Rune hilft Dir, schlechte Roams oder Backtimings Deines Lane-Gegners zu bestrafen.</t>
-  </si>
-  <si>
-    <t>{FontOfLife} versorgt Deinen Botlaner mit mehr Sustain, indem es ihn immer dann heilt, wenn er einen Champion angreift, dessen Bewegung Du gerade beeinträchtigt hast.</t>
-  </si>
-  <si>
-    <t>{ShieldBash} steigert Deine Tankfähigkeit und stärkt Deinen nächsten Basisangriff, während Du abgeschirmt bist.</t>
-  </si>
-  <si>
     <t>{Conditioning} erhöht die Tankfähigkeit von {championName} nach der Laning-Phase.</t>
   </si>
   <si>
@@ -23614,27 +23421,12 @@
     <t>{Overgrowth} erhöht Deine maximalen Lebenspunktezahl.</t>
   </si>
   <si>
-    <t>{Revitalize} erhöht die Heilungen und Schilde, die Du wirkst oder erhältst.</t>
-  </si>
-  <si>
     <t>{Unflinching} erhöht die Zähigkeit von {championName} basierend auf Deiner fehlenden Gesundheit.</t>
   </si>
   <si>
     <t>This keystone rune slows enemy champion on your first basic attack. This slow can by followed up by a skill shot of {championName} to force the opponent in a dangerous situation.</t>
   </si>
   <si>
-    <t>Diese Keystone-Rune verlangsamt den gegnerischen Champion bei Deinem ersten Grundangriff. Diese Verlangsamung kann durch einen Fertigkeitshieb von {ChampionName} fortgesetzt werden, um den Gegner in eine gefährliche Situation zu zwingen.</t>
-  </si>
-  <si>
-    <t>Mit dieser Keystone-Rune kannst Du einen Beschwörerzauber für den einmaligen Gebrauch erstellen. Der neue Beschwörerzauber ersetzt einen Deiner aktuellen Beschwörerzauber und bleibt verfügbar, bis er verwendet oder ersetzt wird. {UnsealedSpellbook} hat einige einzigartige Regeln, die besagen, dass ein bestimmter Beschwörerzauber nicht wieder ausgewählt werden kann, bis drei andere einzigartige Zauber genommen wurden. LoL-Profispieler werden {UnsealedSpellbook} oft verwenden, um sich in ihrer aktuellen oder bevorstehenden Situation zu helfen. Stehst Du kurz davor, den letzten Drachen für einen Seelen-Buff zu bekämpfen? Dank {UnsealedSpellbook} kann {championName} {SummonerSmite} aufheben, um seinem Jungler zu helfen, den Drachen für das Team zu sichern. Es gibt zahllose Umstände, unter denen ein bestimmter Beschwörerzauber das Spiel auf den Kopf stellen kann, und genau hier glänzt {UnsealedSpellbook} am meisten.</t>
-  </si>
-  <si>
-    <t>Diese Keystone-Rune gewährt in regelmäßigen Abständen eine einmalige Verwendung einer anderen zufälligen Keystone-Rune. Nachdem Du die gegebene Keystone-Rune nicht verwendet hast, wird eine weitere zufällige Keystone-Rune gewährt, während Du nicht im Kampf bist. Beim Betreten des Spawn-Punktes wird die aktuelle Keystone-Rune neu gewürfelt. Viele unterschiedliche Keystone-Runen passen zum Setup von {championName}, deshalb ist {MasterKey} eine gute Wahl.</t>
-  </si>
-  <si>
-    <t>Wenn Du eine zusätzliche Möglichkeit hast, die Lücke mit der {HextechFlashtraption} zu schließen, wird ein Angriff viel einfacher durchzuführen sein.</t>
-  </si>
-  <si>
     <t>Du erhälst kostenlos einen {Item2423}, der einen Überraschungsmoment für Dein gegnerisches Team auslösen kann.</t>
   </si>
   <si>
@@ -23642,13 +23434,1640 @@
   </si>
   <si>
     <t>{TimeWarpTonic} gibt Dir zusätzliche Unterstützung, indem sie Deinen {Item2003} und {Item2010} verstärkt.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This keystone rune gives {championName} a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>great</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> head start in team fights and allows to put out more damage in that time window.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Diese Keystone-Rune verschafft {ChampionName} einen </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>großen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Vorsprung in Teamkämpfen und ermöglicht es, in diesem Zeitfenster mehr Schaden zu verursachen.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Diese Keystone-Rune generiert Ihnen eine Menge </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sustain</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> und erhöht Ihre Überlebensfähigkeit gegen Poke-Champions in der Lane.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This keystone rune provides additional power in the later stages of a game. As soon as {Conqueror} is fully </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>charged</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, {championName} deals additional damage and gains </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{lifesteal}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Diese Keystone-Rune sorgt für zusätzliche Power in den späteren Phasen eines Spiels. Sobald {Conqueror} vollständig </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>aufgeladen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ist, verursacht {championName} zusätzlichen Schaden und erhält </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{Lebensraub}.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{PresenceOfMind} helps {championName} with the mana problems by restoring </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>missing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> mana</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, if a champion is killed.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{PresenceOfMind} hilft {ChampionName} bei den Manaproblemen, indem es </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fehlendes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Mana wiederherstellt, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>wenn ein Champion getötet wird.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{championName} gains </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>extra</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Tenacity with every additional stage of {LegendTenacity}.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{championName} erhält </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>weitere</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Zähigkeit mit jeder </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>zusätzlichen Stufe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> von {LegendTenacity}.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{LegendBloodline} gives life steal, which aids in winning </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>damage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> trades and fights </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>in the later stages of the match</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{LegendBloodline} gibt Lebensraub, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>was dabei hilft, Schadenstrades und Kämpfe in späteren Phasen des Matches zu gewinnen.</t>
+    </r>
+  </si>
+  <si>
+    <t>"Gesundheit"</t>
+  </si>
+  <si>
+    <t>Mit {LastStand} teilst du mehr Schaden aus, während Du bei niedriger Gesundheit bist.</t>
+  </si>
+  <si>
+    <t>Hier kann man eigentlich die normalen Boots verlinken</t>
+  </si>
+  <si>
+    <t>Sobald Du Stiefel kaufst, kannst Du die aktive Fähigkeit von {Predator} verwenden. Nach einer kurzen Wirkzeit erhält {championName} einen Bonus an Bewegungsgeschwindigkeit, während er sich auf gegnerische Champions zubewegt. Diese Keystone-Rune ist perfekt für Roaming und Ganking.</t>
+  </si>
+  <si>
+    <t>Diese Keystone-Rune verleiht Dir während des gesamten Matches zusätzlichen Schaden.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This keystone rune helps you to win short </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>damage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> trades in your lane by increasing your attackspeed at the beginning of a fight.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Diese Keystone-Rune hilft Dir, kurze </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Schadenstrades</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in Deiner Lane zu gewinnen, indem sie Dein Angriffstempo zu Beginn eines Kampfes erhöht.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{CheapShot} sorgt dafür, dass Du Gegnern mit eingeschränkter Bewegung mehr Schaden </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>zufügst</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, was eine großartige Synergie mit dem Setup von {championName} darstellt.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{ZombieWard} helps you to expand your vision on the map. Vision is very
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>crucial</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in LoL and helps you to avoid unnecessary deaths.</t>
+    </r>
+  </si>
+  <si>
+    <t>{ZombieWard} hilft Dir, Deine Sicht auf der Karte zu erweitern. Die Sicht ist in LoL sehr entscheidend und hilft Dir, unnötige Tode zu vermeiden.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{GhostPoro} helps you to keep your vision on the map for a longer period of time. Vision is very </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>crucial</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in LoL and helps you to avoid unnecessary deaths.</t>
+    </r>
+  </si>
+  <si>
+    <t>{GhostPoro} hilft Dir, Deine Sicht für einen längeren Zeitraum auf der Karte zu behalten. Vision ist in LoL sehr entscheidend und hilft Dir, unnötige Tode zu vermeiden.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{RavenousHunter} is the final rune </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>of</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the {Domination} </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>path</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. This rune gives some survivability during short fights and damage trades during the laning phase. The additional health is nothing to scoff at and can mean the difference between winning or losing a battle.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{RavenousHunter} ist die letzte Rune </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>des Pfades {Domination}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Diese Rune verleiht etwas Überlebensfähigkeit während kurzer Kämpfe und Schadenstrades in der Laning-Phase. Die zusätzlichen Lebenspunkte sind nicht zu verachten und können den Unterschied zwischen Sieg oder Niederlage in einem Kampf ausmachen.</t>
+    </r>
+  </si>
+  <si>
+    <t>"Gegenstands-Eile"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{RelentlessHunter} increases your movement speed out of combat </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>due to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> every unique champion takedown.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{RelentlessHunter} erhöht Deine Bewegungsgeschwindigkeit außerhalb des Kampfes </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>durch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> jeder einzigartigen Champion-Tötung.</t>
+    </r>
+  </si>
+  <si>
+    <t>"ultimative Eile"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Diese Keystone-Rune fügt Deinen Fähigkeiten mehr Poke-Schaden zu. Und gewährt </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>außerdem ein zusätzliches Schild</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, wenn {championName} einen Verbündeten mit Fähigkeiten befähigt oder schützt.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Diese Keystone-Rune fügt Deinen Fähigkeiten mehr Schaden zu und erhöht </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Deine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Kraft in der Laning-Phase.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{PhaseRush} offers more flexibility and options to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>betake oneself</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in and out of danger, which can be helpful since that's essentially the main playstyle of {championName}.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{PhaseRush} bietet mehr Flexibilität und Optionen, um sich in und aus der Gefahr </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>zu begeben</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, was hilfreich sein kann, da dies im Wesentlichen der Haupt-Spielstil von {championName} ist.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{NullifyingOrb} gewährt Dir ein Schild, sobald {ChampionName} durch </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>viel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> magischen Schaden </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>verletzt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> wird. Diese Rune wird Dir sehr helfen, gegen Fähigkeitsstärke-Champions mit viel Burst</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>schaden</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> zu überleben.</t>
+    </r>
+  </si>
+  <si>
+    <t>This is usually followed up by taking {ManaflowBand} for additional mana and mana regenaration.</t>
+  </si>
+  <si>
+    <t>Im Anschluss daran nimmst Du normalerweise {ManaflowBand} für zusätzliches Mana und Manaregeneration.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{NimbusCloak}, which grants movement speed upon </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>using</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a summoner spell, works amazingly well with junglers in particular as they take the shortest cooldown summoner spell, {SummonerSmite}.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{NimbusCloak}, der beim </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>benutzen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> eines Beschwörerzaubers Bewegungstempo gewährt, funktioniert insbesondere bei Junglern erstaunlich gut, da sie den Beschwörerzauber mit der kürzesten Abklingzeit, {SummonerSmite}, nehmen.</t>
+    </r>
+  </si>
+  <si>
+    <t>"Fähigkeits-Eile"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{Scorch} increases </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>your control in the early game.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{Scorch} erhöht</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Deine Kontrolle im frühen Spiel.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{GatheringStorm} increases your late game </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>power.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{GatheringStorm} erhöht Deine Late-Game-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Power.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Diese Keystone-Rune gibt {championName} viel </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sustain</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> und hilft, Deinen gegnerischen Champion aus der Lane zu drängen.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This keystone rune bulks you up, increasing both armour and magic resistance, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>once</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> you immobilized a champion. {Aftershock} synergises both with the sheer amount of crowd control {championName} possesses and the need to be tanky as soon as you engage.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Diese Keystone-Rune stärkt Dich und erhöht sowohl Deine Rüstung als auch Deine Magieresistenz, nachdem Du einen Champion bewegungsunfähig </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gemacht hast.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> {AfterShock} synergiert sowohl mit der schieren Menge an Crowd Control, die {championName} besitzt, als auch mit der Notwendigkeit, tanky zu sein, sobald Du angreifst.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Diese Keystone-Rune gewährt Deinem Teamkollegen und Dir selbst </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ein</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Schild, sobald einer von Euch durch einen gegnerischen Champion Schaden erleidet.</t>
+    </r>
+  </si>
+  <si>
+    <t>{Demolish} increases your pressure on the enemy turrets. This rune will help you to punish bad roams or backtimings of your lane opponent.</t>
+  </si>
+  <si>
+    <t>{Demolish} erhöht Deinen Druck auf die gegnerischen Türme. Diese Rune hilft Dir, schlechte Roams oder Backtimings Deines Lane-Gegners zu bestrafen.</t>
+  </si>
+  <si>
+    <r>
+      <t>{FontOfLife} versorgt Deine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Mitspieler</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> mit mehr </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sustain</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, indem es ihn immer dann heilt, wenn er einen Champion angreift, dessen Bewegung Du gerade beeinträchtigt hast.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{FontOfLife} provides your </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>teammates</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> with more sustain by healing them whenever they attack a champion whose movement you've recently impaired.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{ShieldBash} powers up your tankiness and empowers your next basic attack </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>while you have a shield.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{Revitalize} inceases heals and shields you </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>distribute</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or receive.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{Revitalize} erhöht die Heilungen und Schilde, die Du </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>verteilst</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> oder erhältst.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mit dieser Keystone-Rune kannst Du einen Beschwörerzauber für den einmaligen Gebrauch erstellen. Der neue Beschwörerzauber ersetzt einen Deiner aktuellen Beschwörerzauber und bleibt verfügbar, bis er verwendet oder ersetzt wird. {UnsealedSpellbook} hat einige einzigartige Regeln, die besagen, dass ein bestimmter Beschwörerzauber nicht wieder ausgewählt werden kann, bis drei andere einzigartige Zauber genommen wurden. LoL-Profispieler werden {UnsealedSpellbook} oft verwenden, um sich in ihrer aktuellen oder bevorstehenden Situation zu helfen. Stehst Du kurz davor, den letzten Drachen für einen Seelen-Buff zu bekämpfen? Dank {UnsealedSpellbook} kann {championName} {SummonerSmite} </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>auswählen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, um seinem Jungler zu helfen, den Drachen für das Team zu sichern. Es gibt zahllose Umstände, unter denen ein bestimmter Beschwörerzauber das Spiel auf den Kopf stellen kann, und genau hier glänzt {UnsealedSpellbook} am meisten.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This keystone rune periodically grants a single use of another random keystone rune. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>After not using the given keystone rune for a period of time or using, another random keystone rune is assigned while out of combat.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Entering the spawn point will re-roll the current keystone rune. A lot of diffent keystone runes fit to {championName} setup, this the reason why {MasterKey} is a great choice.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Diese Keystone-Rune gewährt in regelmäßigen Abständen eine einmalige Verwendung einer anderen zufälligen Keystone-Rune. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nachdem Sie die gegebene Keystone-Rune eine Zeit lang nicht benutzt haben oder benutzt haben, wird eine andere zufällige Keystone-Rune zugewiesen, während Sie sich außerhalb des Kampfes befinden</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Beim Betreten des Spawn-Punktes wird die aktuelle Keystone-Rune neu gewürfelt. Viele unterschiedliche Keystone-Runen passen zum Setup von {championName}, deshalb ist {MasterKey} eine gute Wahl.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Mit {MinionDematerializer} können Sie die Position der Vasallenwelle steuern. </t>
+  </si>
+  <si>
+    <t>{MinionDematerializer} will help you to control the position of the minion wave.</t>
+  </si>
+  <si>
+    <t>"Beschwörerzauber- und Gegenstands-Eile"</t>
+  </si>
+  <si>
+    <t>"Attentatswerkzeuge"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{Resolve} empowers the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>survivability</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of {championName} and increases the tankiness.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{Resolve} stärkt die </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Überlebensfähigkeit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> von {championName} und erhöht die Tankiness.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{NullifyingOrb} grants you a shield, as soon as {championName} gets </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hurt by alot of</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> magic damage. This rune will help you alot to survive against ability power champions with a lot of burst </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>damage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{ShieldBash} steigert Deine Tankfähigkeit und stärkt Deinen nächsten Basisangriff, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>solange Du ein Schild hast.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{BonePlating} macht {championName} insgesamt </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>robuster</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, indem es die Menge an Poke-Schaden im frühen Spiel vermindert.</t>
+    </r>
+  </si>
+  <si>
+    <t>"tankier"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Diese Keystone-Rune verlangsamt den gegnerischen Champion bei Deinem ersten Grundangriff. Diese Verlangsamung kann durch einen </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Skillshot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> von {ChampionName} fortgesetzt werden, um den Gegner in eine gefährliche Situation zu zwingen.</t>
+    </r>
+  </si>
+  <si>
+    <t>"skill shot"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This keystone rune allows you to create a one-time use summoner spell. The new summoner spell replaces one of their current summoner spells and remains available until it is used or replaced. {UnsealedSpellbook} has some unique rules in that a particular summoner spell cannot be selected again until three other unique spells have been taken. LoL pro players will often use {UnsealedSpellbook} to aid them in their current or upcoming situation. Are you about to fight the last dragon for a soul buff? Due to {UnsealedSpellbook}, {championName} can </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>choose</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> {SummonerSmite} to help their jungler secure the dragon for the team. There are numberless circumstances where a particular summoner spell can turn the game on its head, and that's where {UnsealedSpellbook} shines the most.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Having an extra way to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>decrease</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>distance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> with the {HextechFlashtraption} will make an engage much easier to pull off.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Wenn Du eine zusätzliche Möglichkeit hast, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>den Abstand</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> mit der {HextechFlashtraption} zu </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>verringern</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, wird ein Angriff viel einfacher durchzuführen sein.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{SuddenImpact} increases your damage after dashing or being invisible. This is due to how easy it is to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>activate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> on {championName} with the amount of ways he has to dash, jump or going invisible. The additional lethality helps to take down the priority targets that much easier.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{SuddenImpact} erhöht Deinen Schaden, nachdem Du gesprungen bist oder unsichtbar warst. Dies ist darauf zurückzuführen, wie einfach es bei {ChampionName} zu aktivieren ist, da er so viele Möglichkeiten hat, zu rennen, zu springen oder unsichtbar zu werden. Die zusätzliche </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tödlichkeitfaktor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hilft dabei, die vorrangigen Ziele viel leichter auszuschalten.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">You can enter debt to buy items, which is displayed as negative gold in your </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>inventary</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. A small lending fee is added onto the amount of gold you owe after leaving the shop.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Du kannst Schulden machen, um Gegenstände zu kaufen, was als negatives Gold in Deiner </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Inventar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> angezeigt wird. Eine kleine Leihgebühr wird auf den Goldbetrag, den Du nach Verlassen des Ladens schulden, aufgeschlagen.</t>
+    </r>
+  </si>
+  <si>
+    <t>{BiscuitDelivery} is a great rune for laning as it gives additional health and mana, which can help in more aggressive lanes.</t>
+  </si>
+  <si>
+    <t>{BiscuitDelivery} ist eine großartige Rune für das Laning, da sie zusätzliche Gesundheit und Mana verleiht, was in aggressiveren Lanes hilfreich sein kann.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -23700,8 +25119,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -23732,6 +25172,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -23747,7 +25193,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -23813,6 +25259,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20 % - Akzent4" xfId="1" builtinId="42"/>
@@ -64630,9 +66080,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79F2C518-9214-40F8-9773-A6CB9D7ABBC9}">
   <dimension ref="A1:Y69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G69" sqref="G69"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I63" sqref="I63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -64650,16 +66100,16 @@
         <v>7605</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>7781</v>
+        <v>7756</v>
       </c>
       <c r="C1" s="29" t="s">
         <v>618</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>7780</v>
+        <v>7755</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>7779</v>
+        <v>7754</v>
       </c>
       <c r="F1" s="26" t="s">
         <v>0</v>
@@ -64724,309 +66174,330 @@
     </row>
     <row r="2" spans="1:25" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7613</v>
+        <v>7612</v>
       </c>
       <c r="B2" t="s">
-        <v>7646</v>
+        <v>7640</v>
       </c>
       <c r="C2" t="s">
         <v>7346</v>
       </c>
       <c r="D2" t="s">
-        <v>7778</v>
+        <v>7753</v>
       </c>
       <c r="E2">
         <v>8005</v>
       </c>
       <c r="F2" s="44" t="s">
-        <v>7777</v>
+        <v>7752</v>
       </c>
       <c r="G2" s="41" t="s">
-        <v>7794</v>
-      </c>
+        <v>7761</v>
+      </c>
+      <c r="H2" s="46"/>
     </row>
     <row r="3" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7613</v>
+        <v>7612</v>
       </c>
       <c r="B3" t="s">
-        <v>7646</v>
+        <v>7640</v>
       </c>
       <c r="C3" t="s">
         <v>7349</v>
       </c>
       <c r="D3" t="s">
-        <v>7776</v>
+        <v>7751</v>
       </c>
       <c r="E3">
         <v>8008</v>
       </c>
       <c r="F3" s="44" t="s">
-        <v>7807</v>
+        <v>7788</v>
       </c>
       <c r="G3" s="41" t="s">
-        <v>7808</v>
-      </c>
+        <v>7789</v>
+      </c>
+      <c r="H3" s="46"/>
     </row>
     <row r="4" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7613</v>
+        <v>7612</v>
       </c>
       <c r="B4" t="s">
-        <v>7646</v>
+        <v>7640</v>
       </c>
       <c r="C4" t="s">
-        <v>7775</v>
+        <v>7750</v>
       </c>
       <c r="D4" t="s">
-        <v>7774</v>
+        <v>7749</v>
       </c>
       <c r="E4">
         <v>8021</v>
       </c>
       <c r="F4" s="42" t="s">
-        <v>7773</v>
+        <v>7748</v>
       </c>
       <c r="G4" s="41" t="s">
-        <v>7785</v>
-      </c>
+        <v>7790</v>
+      </c>
+      <c r="H4" s="46"/>
     </row>
     <row r="5" spans="1:25" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7613</v>
+        <v>7612</v>
       </c>
       <c r="B5" t="s">
-        <v>7646</v>
+        <v>7640</v>
       </c>
       <c r="C5" t="s">
-        <v>7772</v>
+        <v>7747</v>
       </c>
       <c r="D5" t="s">
-        <v>7772</v>
+        <v>7747</v>
       </c>
       <c r="E5">
         <v>8010</v>
       </c>
       <c r="F5" s="42" t="s">
-        <v>7771</v>
+        <v>7791</v>
       </c>
       <c r="G5" s="41" t="s">
-        <v>7809</v>
-      </c>
+        <v>7792</v>
+      </c>
+      <c r="H5" s="46"/>
     </row>
     <row r="6" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7613</v>
+        <v>7612</v>
       </c>
       <c r="B6" t="s">
-        <v>7636</v>
+        <v>7632</v>
       </c>
       <c r="C6" t="s">
-        <v>7770</v>
+        <v>7746</v>
       </c>
       <c r="D6" t="s">
-        <v>7770</v>
+        <v>7746</v>
       </c>
       <c r="E6">
         <v>9101</v>
       </c>
       <c r="F6" s="42" t="s">
-        <v>7769</v>
+        <v>7745</v>
       </c>
       <c r="G6" s="41" t="s">
-        <v>7786</v>
+        <v>7758</v>
+      </c>
+      <c r="H6" t="s">
+        <v>7799</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7613</v>
+        <v>7612</v>
       </c>
       <c r="B7" t="s">
-        <v>7636</v>
+        <v>7632</v>
       </c>
       <c r="C7" t="s">
-        <v>7768</v>
+        <v>7744</v>
       </c>
       <c r="D7" t="s">
-        <v>7768</v>
+        <v>7744</v>
       </c>
       <c r="E7">
         <v>9111</v>
       </c>
       <c r="F7" s="42" t="s">
-        <v>7767</v>
+        <v>7743</v>
       </c>
       <c r="G7" s="41" t="s">
-        <v>7795</v>
+        <v>7762</v>
+      </c>
+      <c r="H7" t="s">
+        <v>7799</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7613</v>
+        <v>7612</v>
       </c>
       <c r="B8" t="s">
-        <v>7636</v>
+        <v>7632</v>
       </c>
       <c r="C8" t="s">
-        <v>7766</v>
+        <v>7742</v>
       </c>
       <c r="D8" t="s">
-        <v>7765</v>
+        <v>7741</v>
       </c>
       <c r="E8">
         <v>8009</v>
       </c>
       <c r="F8" s="44" t="s">
-        <v>7764</v>
+        <v>7793</v>
       </c>
       <c r="G8" s="41" t="s">
-        <v>7787</v>
-      </c>
+        <v>7794</v>
+      </c>
+      <c r="H8" s="46"/>
     </row>
     <row r="9" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7613</v>
+        <v>7612</v>
       </c>
       <c r="B9" t="s">
-        <v>7626</v>
+        <v>7624</v>
       </c>
       <c r="C9" t="s">
-        <v>7763</v>
+        <v>7740</v>
       </c>
       <c r="D9" t="s">
-        <v>7762</v>
+        <v>7739</v>
       </c>
       <c r="E9">
         <v>9104</v>
       </c>
       <c r="F9" s="43" t="s">
-        <v>7761</v>
+        <v>7738</v>
       </c>
       <c r="G9" s="41" t="s">
-        <v>7796</v>
-      </c>
+        <v>7763</v>
+      </c>
+      <c r="H9" s="46"/>
     </row>
     <row r="10" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7613</v>
+        <v>7612</v>
       </c>
       <c r="B10" t="s">
-        <v>7626</v>
+        <v>7624</v>
       </c>
       <c r="C10" t="s">
-        <v>7760</v>
+        <v>7737</v>
       </c>
       <c r="D10" t="s">
-        <v>7759</v>
+        <v>7736</v>
       </c>
       <c r="E10">
         <v>9105</v>
       </c>
       <c r="F10" s="43" t="s">
-        <v>7758</v>
+        <v>7795</v>
       </c>
       <c r="G10" s="41" t="s">
-        <v>7797</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+        <v>7796</v>
+      </c>
+      <c r="H10" s="46"/>
+    </row>
+    <row r="11" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>7613</v>
+        <v>7612</v>
       </c>
       <c r="B11" t="s">
-        <v>7626</v>
+        <v>7624</v>
       </c>
       <c r="C11" t="s">
-        <v>7757</v>
+        <v>7735</v>
       </c>
       <c r="D11" t="s">
-        <v>7756</v>
+        <v>7734</v>
       </c>
       <c r="E11">
         <v>9103</v>
       </c>
       <c r="F11" s="44" t="s">
-        <v>7755</v>
+        <v>7797</v>
       </c>
       <c r="G11" s="41" t="s">
-        <v>7810</v>
-      </c>
+        <v>7798</v>
+      </c>
+      <c r="H11" s="46"/>
     </row>
     <row r="12" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>7613</v>
+        <v>7612</v>
       </c>
       <c r="B12" t="s">
-        <v>7616</v>
+        <v>7615</v>
       </c>
       <c r="C12" t="s">
-        <v>7754</v>
+        <v>7733</v>
       </c>
       <c r="D12" t="s">
-        <v>7753</v>
+        <v>7732</v>
       </c>
       <c r="E12">
         <v>8014</v>
       </c>
       <c r="F12" s="42" t="s">
-        <v>7752</v>
+        <v>7731</v>
       </c>
       <c r="G12" s="41" t="s">
-        <v>7798</v>
+        <v>7764</v>
+      </c>
+      <c r="H12" t="s">
+        <v>7799</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>7613</v>
+        <v>7612</v>
       </c>
       <c r="B13" t="s">
-        <v>7616</v>
+        <v>7615</v>
       </c>
       <c r="C13" t="s">
-        <v>7751</v>
+        <v>7730</v>
       </c>
       <c r="D13" t="s">
-        <v>7750</v>
+        <v>7729</v>
       </c>
       <c r="E13">
         <v>8017</v>
       </c>
       <c r="F13" s="42" t="s">
-        <v>7811</v>
+        <v>7770</v>
       </c>
       <c r="G13" s="41" t="s">
-        <v>7812</v>
-      </c>
+        <v>7771</v>
+      </c>
+      <c r="H13" s="46"/>
     </row>
     <row r="14" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>7613</v>
+        <v>7612</v>
       </c>
       <c r="B14" t="s">
-        <v>7616</v>
+        <v>7615</v>
       </c>
       <c r="C14" t="s">
-        <v>7749</v>
+        <v>7728</v>
       </c>
       <c r="D14" t="s">
-        <v>7748</v>
+        <v>7727</v>
       </c>
       <c r="E14">
         <v>8299</v>
       </c>
       <c r="F14" s="42" t="s">
-        <v>7747</v>
+        <v>7726</v>
       </c>
       <c r="G14" s="41" t="s">
-        <v>7814</v>
+        <v>7800</v>
+      </c>
+      <c r="H14" t="s">
+        <v>7799</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>7611</v>
+        <v>7610</v>
       </c>
       <c r="B15" t="s">
-        <v>7646</v>
+        <v>7640</v>
       </c>
       <c r="C15" t="s">
         <v>7294</v>
@@ -65038,616 +66509,653 @@
         <v>8112</v>
       </c>
       <c r="F15" s="44" t="s">
-        <v>7746</v>
+        <v>7725</v>
       </c>
       <c r="G15" s="41" t="s">
-        <v>7813</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" ht="75" x14ac:dyDescent="0.25">
+        <v>7772</v>
+      </c>
+      <c r="H15" s="46"/>
+    </row>
+    <row r="16" spans="1:25" ht="90" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>7611</v>
+        <v>7610</v>
       </c>
       <c r="B16" t="s">
-        <v>7646</v>
+        <v>7640</v>
       </c>
       <c r="C16" t="s">
-        <v>7745</v>
+        <v>7724</v>
       </c>
       <c r="D16" t="s">
-        <v>7745</v>
+        <v>7724</v>
       </c>
       <c r="E16">
         <v>8124</v>
       </c>
       <c r="F16" s="42" t="s">
-        <v>7744</v>
+        <v>7723</v>
       </c>
       <c r="G16" s="41" t="s">
-        <v>7815</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>7802</v>
+      </c>
+      <c r="H16" s="46" t="s">
+        <v>7801</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>7611</v>
+        <v>7610</v>
       </c>
       <c r="B17" t="s">
-        <v>7646</v>
+        <v>7640</v>
       </c>
       <c r="C17" t="s">
-        <v>7743</v>
+        <v>7722</v>
       </c>
       <c r="D17" t="s">
-        <v>7742</v>
+        <v>7721</v>
       </c>
       <c r="E17">
         <v>8128</v>
       </c>
       <c r="F17" s="42" t="s">
-        <v>7741</v>
+        <v>7720</v>
       </c>
       <c r="G17" s="41" t="s">
-        <v>7816</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>7803</v>
+      </c>
+      <c r="H17" s="46"/>
+    </row>
+    <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>7611</v>
+        <v>7610</v>
       </c>
       <c r="B18" t="s">
-        <v>7646</v>
+        <v>7640</v>
       </c>
       <c r="C18" t="s">
-        <v>7740</v>
+        <v>7719</v>
       </c>
       <c r="D18" t="s">
-        <v>7739</v>
+        <v>7718</v>
       </c>
       <c r="E18">
         <v>9923</v>
       </c>
       <c r="F18" s="42" t="s">
-        <v>7784</v>
+        <v>7804</v>
       </c>
       <c r="G18" s="41" t="s">
-        <v>7817</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>7805</v>
+      </c>
+      <c r="H18" s="46"/>
+    </row>
+    <row r="19" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>7611</v>
+        <v>7610</v>
       </c>
       <c r="B19" t="s">
-        <v>7636</v>
+        <v>7632</v>
       </c>
       <c r="C19" t="s">
-        <v>7738</v>
+        <v>7717</v>
       </c>
       <c r="D19" t="s">
-        <v>7737</v>
+        <v>7716</v>
       </c>
       <c r="E19">
         <v>8126</v>
       </c>
       <c r="F19" s="44" t="s">
-        <v>7736</v>
+        <v>7715</v>
       </c>
       <c r="G19" s="44" t="s">
-        <v>7818</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>7806</v>
+      </c>
+      <c r="H19" s="46"/>
+    </row>
+    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>7611</v>
+        <v>7610</v>
       </c>
       <c r="B20" t="s">
-        <v>7636</v>
+        <v>7632</v>
       </c>
       <c r="C20" t="s">
-        <v>7735</v>
+        <v>7714</v>
       </c>
       <c r="D20" t="s">
-        <v>7734</v>
+        <v>7713</v>
       </c>
       <c r="E20">
         <v>8139</v>
       </c>
       <c r="F20" s="42" t="s">
-        <v>7733</v>
+        <v>7712</v>
       </c>
       <c r="G20" s="41" t="s">
-        <v>7819</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+        <v>7773</v>
+      </c>
+      <c r="H20" s="46"/>
+    </row>
+    <row r="21" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>7611</v>
+        <v>7610</v>
       </c>
       <c r="B21" t="s">
-        <v>7636</v>
+        <v>7632</v>
       </c>
       <c r="C21" t="s">
-        <v>7732</v>
+        <v>7711</v>
       </c>
       <c r="D21" t="s">
-        <v>7731</v>
+        <v>7710</v>
       </c>
       <c r="E21">
         <v>8143</v>
       </c>
       <c r="F21" s="44" t="s">
-        <v>7820</v>
+        <v>7860</v>
       </c>
       <c r="G21" s="41" t="s">
-        <v>7822</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>7861</v>
+      </c>
+      <c r="H21" s="46"/>
+    </row>
+    <row r="22" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>7611</v>
+        <v>7610</v>
       </c>
       <c r="B22" t="s">
-        <v>7626</v>
+        <v>7624</v>
       </c>
       <c r="C22" t="s">
-        <v>7730</v>
+        <v>7709</v>
       </c>
       <c r="D22" t="s">
-        <v>7729</v>
+        <v>7708</v>
       </c>
       <c r="E22">
         <v>8136</v>
       </c>
       <c r="F22" s="42" t="s">
-        <v>7728</v>
+        <v>7807</v>
       </c>
       <c r="G22" s="41" t="s">
-        <v>7821</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>7808</v>
+      </c>
+      <c r="H22" s="46"/>
+    </row>
+    <row r="23" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>7611</v>
+        <v>7610</v>
       </c>
       <c r="B23" t="s">
-        <v>7626</v>
+        <v>7624</v>
       </c>
       <c r="C23" t="s">
-        <v>7727</v>
+        <v>7707</v>
       </c>
       <c r="D23" t="s">
-        <v>7726</v>
+        <v>7706</v>
       </c>
       <c r="E23">
         <v>8120</v>
       </c>
       <c r="F23" s="42" t="s">
-        <v>7725</v>
+        <v>7809</v>
       </c>
       <c r="G23" s="41" t="s">
-        <v>7823</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>7810</v>
+      </c>
+      <c r="H23" s="46"/>
+    </row>
+    <row r="24" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>7611</v>
+        <v>7610</v>
       </c>
       <c r="B24" t="s">
-        <v>7626</v>
+        <v>7624</v>
       </c>
       <c r="C24" t="s">
-        <v>7724</v>
+        <v>7705</v>
       </c>
       <c r="D24" t="s">
-        <v>7723</v>
+        <v>7704</v>
       </c>
       <c r="E24">
         <v>8138</v>
       </c>
       <c r="F24" s="44" t="s">
-        <v>7722</v>
+        <v>7703</v>
       </c>
       <c r="G24" s="41" t="s">
-        <v>7824</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+        <v>7774</v>
+      </c>
+      <c r="H24" s="46"/>
+    </row>
+    <row r="25" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>7611</v>
+        <v>7610</v>
       </c>
       <c r="B25" t="s">
-        <v>7616</v>
+        <v>7615</v>
       </c>
       <c r="C25" t="s">
-        <v>7721</v>
+        <v>7702</v>
       </c>
       <c r="D25" t="s">
-        <v>7720</v>
+        <v>7701</v>
       </c>
       <c r="E25">
         <v>8135</v>
       </c>
       <c r="F25" s="44" t="s">
-        <v>7783</v>
+        <v>7811</v>
       </c>
       <c r="G25" s="41" t="s">
-        <v>7788</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>7812</v>
+      </c>
+      <c r="H25" s="46"/>
+    </row>
+    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>7611</v>
+        <v>7610</v>
       </c>
       <c r="B26" t="s">
-        <v>7616</v>
+        <v>7615</v>
       </c>
       <c r="C26" t="s">
-        <v>7719</v>
+        <v>7700</v>
       </c>
       <c r="D26" t="s">
-        <v>7718</v>
+        <v>7699</v>
       </c>
       <c r="E26">
         <v>8134</v>
       </c>
       <c r="F26" s="42" t="s">
-        <v>7717</v>
+        <v>7698</v>
       </c>
       <c r="G26" s="41" t="s">
-        <v>7825</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>7775</v>
+      </c>
+      <c r="H26" s="46" t="s">
+        <v>7813</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>7611</v>
+        <v>7610</v>
       </c>
       <c r="B27" t="s">
-        <v>7616</v>
+        <v>7615</v>
       </c>
       <c r="C27" t="s">
-        <v>7716</v>
+        <v>7697</v>
       </c>
       <c r="D27" t="s">
-        <v>7715</v>
+        <v>7696</v>
       </c>
       <c r="E27">
         <v>8105</v>
       </c>
       <c r="F27" s="42" t="s">
-        <v>7714</v>
+        <v>7814</v>
       </c>
       <c r="G27" s="44" t="s">
-        <v>7826</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>7815</v>
+      </c>
+      <c r="H27" s="46"/>
+    </row>
+    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>7611</v>
+        <v>7610</v>
       </c>
       <c r="B28" t="s">
-        <v>7616</v>
+        <v>7615</v>
       </c>
       <c r="C28" t="s">
-        <v>7713</v>
+        <v>7695</v>
       </c>
       <c r="D28" t="s">
-        <v>7712</v>
+        <v>7694</v>
       </c>
       <c r="E28">
         <v>8106</v>
       </c>
       <c r="F28" s="42" t="s">
-        <v>7711</v>
+        <v>7693</v>
       </c>
       <c r="G28" s="41" t="s">
-        <v>7827</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>7776</v>
+      </c>
+      <c r="H28" t="s">
+        <v>7816</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>7609</v>
+        <v>7608</v>
       </c>
       <c r="B29" t="s">
-        <v>7646</v>
+        <v>7640</v>
       </c>
       <c r="C29" t="s">
-        <v>7710</v>
+        <v>7692</v>
       </c>
       <c r="D29" t="s">
-        <v>7709</v>
+        <v>7691</v>
       </c>
       <c r="E29">
         <v>8214</v>
       </c>
       <c r="F29" s="42" t="s">
-        <v>7708</v>
+        <v>7690</v>
       </c>
       <c r="G29" s="41" t="s">
-        <v>7828</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>7817</v>
+      </c>
+      <c r="H29" s="46"/>
+    </row>
+    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>7609</v>
+        <v>7608</v>
       </c>
       <c r="B30" t="s">
-        <v>7646</v>
+        <v>7640</v>
       </c>
       <c r="C30" t="s">
-        <v>7707</v>
+        <v>7689</v>
       </c>
       <c r="D30" t="s">
-        <v>7706</v>
+        <v>7688</v>
       </c>
       <c r="E30">
         <v>8229</v>
       </c>
       <c r="F30" s="42" t="s">
-        <v>7705</v>
+        <v>7687</v>
       </c>
       <c r="G30" s="41" t="s">
-        <v>7829</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>7818</v>
+      </c>
+      <c r="H30" s="46"/>
+    </row>
+    <row r="31" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>7609</v>
+        <v>7608</v>
       </c>
       <c r="B31" t="s">
-        <v>7646</v>
+        <v>7640</v>
       </c>
       <c r="C31" t="s">
         <v>7303</v>
       </c>
       <c r="D31" t="s">
-        <v>7704</v>
+        <v>7686</v>
       </c>
       <c r="E31">
         <v>8230</v>
       </c>
       <c r="F31" s="44" t="s">
-        <v>7703</v>
+        <v>7819</v>
       </c>
       <c r="G31" s="41" t="s">
-        <v>7799</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>7820</v>
+      </c>
+      <c r="H31" s="46"/>
+    </row>
+    <row r="32" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>7609</v>
+        <v>7608</v>
       </c>
       <c r="B32" t="s">
-        <v>7636</v>
+        <v>7632</v>
       </c>
       <c r="C32" t="s">
-        <v>7702</v>
+        <v>7685</v>
       </c>
       <c r="D32" t="s">
-        <v>7701</v>
+        <v>7684</v>
       </c>
       <c r="E32">
         <v>8224</v>
       </c>
       <c r="F32" s="42" t="s">
-        <v>7700</v>
+        <v>7851</v>
       </c>
       <c r="G32" s="41" t="s">
-        <v>7830</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>7821</v>
+      </c>
+      <c r="H32" s="46"/>
+    </row>
+    <row r="33" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>7609</v>
+        <v>7608</v>
       </c>
       <c r="B33" t="s">
-        <v>7636</v>
+        <v>7632</v>
       </c>
       <c r="C33" t="s">
-        <v>7699</v>
+        <v>7683</v>
       </c>
       <c r="D33" t="s">
-        <v>7698</v>
+        <v>7682</v>
       </c>
       <c r="E33">
         <v>8226</v>
       </c>
       <c r="F33" s="44" t="s">
-        <v>7697</v>
+        <v>7822</v>
       </c>
       <c r="G33" s="41" t="s">
-        <v>7831</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>7823</v>
+      </c>
+      <c r="H33" s="46"/>
+    </row>
+    <row r="34" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>7609</v>
+        <v>7608</v>
       </c>
       <c r="B34" t="s">
-        <v>7636</v>
+        <v>7632</v>
       </c>
       <c r="C34" t="s">
-        <v>7696</v>
+        <v>7681</v>
       </c>
       <c r="D34" t="s">
-        <v>7695</v>
+        <v>7680</v>
       </c>
       <c r="E34">
         <v>8275</v>
       </c>
       <c r="F34" s="44" t="s">
-        <v>7694</v>
+        <v>7824</v>
       </c>
       <c r="G34" s="41" t="s">
-        <v>7833</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+        <v>7825</v>
+      </c>
+      <c r="H34" s="46"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>7609</v>
+        <v>7608</v>
       </c>
       <c r="B35" t="s">
-        <v>7626</v>
+        <v>7624</v>
       </c>
       <c r="C35" t="s">
-        <v>7693</v>
+        <v>7679</v>
       </c>
       <c r="D35" t="s">
-        <v>7693</v>
+        <v>7679</v>
       </c>
       <c r="E35">
         <v>8210</v>
       </c>
       <c r="F35" s="44" t="s">
-        <v>7692</v>
+        <v>7678</v>
       </c>
       <c r="G35" s="41" t="s">
-        <v>7832</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>7777</v>
+      </c>
+      <c r="H35" t="s">
+        <v>7826</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>7609</v>
+        <v>7608</v>
       </c>
       <c r="B36" t="s">
-        <v>7626</v>
+        <v>7624</v>
       </c>
       <c r="C36" t="s">
-        <v>7691</v>
+        <v>7677</v>
       </c>
       <c r="D36" t="s">
-        <v>7691</v>
+        <v>7677</v>
       </c>
       <c r="E36">
         <v>8234</v>
       </c>
       <c r="F36" s="42" t="s">
-        <v>7690</v>
+        <v>7676</v>
       </c>
       <c r="G36" s="41" t="s">
-        <v>7834</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>7778</v>
+      </c>
+      <c r="H36" s="46"/>
+    </row>
+    <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>7609</v>
+        <v>7608</v>
       </c>
       <c r="B37" t="s">
-        <v>7626</v>
+        <v>7624</v>
       </c>
       <c r="C37" t="s">
-        <v>7689</v>
+        <v>7675</v>
       </c>
       <c r="D37" t="s">
-        <v>7688</v>
+        <v>7674</v>
       </c>
       <c r="E37">
         <v>8233</v>
       </c>
       <c r="F37" s="42" t="s">
-        <v>7687</v>
+        <v>7673</v>
       </c>
       <c r="G37" s="41" t="s">
-        <v>7835</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+        <v>7779</v>
+      </c>
+      <c r="H37" t="s">
+        <v>7799</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>7609</v>
+        <v>7608</v>
       </c>
       <c r="B38" t="s">
-        <v>7616</v>
+        <v>7615</v>
       </c>
       <c r="C38" t="s">
-        <v>7686</v>
+        <v>7672</v>
       </c>
       <c r="D38" t="s">
-        <v>7686</v>
+        <v>7672</v>
       </c>
       <c r="E38">
         <v>8237</v>
       </c>
       <c r="F38" s="44" t="s">
-        <v>7685</v>
+        <v>7827</v>
       </c>
       <c r="G38" s="41" t="s">
-        <v>7836</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>7828</v>
+      </c>
+      <c r="H38" s="46"/>
+    </row>
+    <row r="39" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>7609</v>
+        <v>7608</v>
       </c>
       <c r="B39" t="s">
-        <v>7616</v>
+        <v>7615</v>
       </c>
       <c r="C39" t="s">
-        <v>7684</v>
+        <v>7671</v>
       </c>
       <c r="D39" t="s">
-        <v>7684</v>
+        <v>7671</v>
       </c>
       <c r="E39">
         <v>8232</v>
       </c>
       <c r="F39" s="44" t="s">
-        <v>7683</v>
+        <v>7670</v>
       </c>
       <c r="G39" s="41" t="s">
-        <v>7800</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+        <v>7765</v>
+      </c>
+      <c r="H39" s="46"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>7609</v>
+        <v>7608</v>
       </c>
       <c r="B40" t="s">
-        <v>7616</v>
+        <v>7615</v>
       </c>
       <c r="C40" t="s">
-        <v>7682</v>
+        <v>7669</v>
       </c>
       <c r="D40" t="s">
-        <v>7681</v>
+        <v>7668</v>
       </c>
       <c r="E40">
         <v>8236</v>
       </c>
       <c r="F40" s="44" t="s">
-        <v>7680</v>
+        <v>7829</v>
       </c>
       <c r="G40" s="41" t="s">
-        <v>7837</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>7830</v>
+      </c>
+      <c r="H40" s="46"/>
+    </row>
+    <row r="41" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>6050</v>
       </c>
       <c r="B41" t="s">
-        <v>7646</v>
+        <v>7640</v>
       </c>
       <c r="C41" t="s">
-        <v>7679</v>
+        <v>7667</v>
       </c>
       <c r="D41" t="s">
-        <v>7678</v>
+        <v>7666</v>
       </c>
       <c r="E41">
         <v>8437</v>
       </c>
       <c r="F41" s="42" t="s">
-        <v>7677</v>
+        <v>7665</v>
       </c>
       <c r="G41" s="41" t="s">
-        <v>7838</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+        <v>7831</v>
+      </c>
+      <c r="H41" s="46"/>
+    </row>
+    <row r="42" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>6050</v>
       </c>
       <c r="B42" t="s">
-        <v>7646</v>
+        <v>7640</v>
       </c>
       <c r="C42" t="s">
         <v>7293</v>
@@ -65659,521 +67167,554 @@
         <v>8439</v>
       </c>
       <c r="F42" s="44" t="s">
-        <v>7676</v>
+        <v>7832</v>
       </c>
       <c r="G42" s="41" t="s">
-        <v>7839</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>7833</v>
+      </c>
+      <c r="H42" s="46"/>
+    </row>
+    <row r="43" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>6050</v>
       </c>
       <c r="B43" t="s">
-        <v>7646</v>
+        <v>7640</v>
       </c>
       <c r="C43" t="s">
-        <v>7675</v>
+        <v>7664</v>
       </c>
       <c r="D43" t="s">
-        <v>7675</v>
+        <v>7664</v>
       </c>
       <c r="E43">
         <v>8465</v>
       </c>
       <c r="F43" s="42" t="s">
-        <v>7674</v>
+        <v>7663</v>
       </c>
       <c r="G43" s="41" t="s">
-        <v>7840</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>7834</v>
+      </c>
+      <c r="H43" s="46"/>
+    </row>
+    <row r="44" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>6050</v>
       </c>
       <c r="B44" t="s">
-        <v>7636</v>
+        <v>7632</v>
       </c>
       <c r="C44" t="s">
-        <v>7673</v>
+        <v>7662</v>
       </c>
       <c r="D44" t="s">
-        <v>7673</v>
+        <v>7662</v>
       </c>
       <c r="E44">
         <v>8446</v>
       </c>
       <c r="F44" s="42" t="s">
-        <v>7672</v>
+        <v>7835</v>
       </c>
       <c r="G44" s="41" t="s">
-        <v>7841</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>7836</v>
+      </c>
+      <c r="H44" s="46"/>
+    </row>
+    <row r="45" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>6050</v>
       </c>
       <c r="B45" t="s">
-        <v>7636</v>
+        <v>7632</v>
       </c>
       <c r="C45" t="s">
-        <v>7671</v>
+        <v>7661</v>
       </c>
       <c r="D45" t="s">
-        <v>7670</v>
+        <v>7660</v>
       </c>
       <c r="E45">
         <v>8463</v>
       </c>
       <c r="F45" s="44" t="s">
-        <v>7669</v>
+        <v>7838</v>
       </c>
       <c r="G45" s="41" t="s">
-        <v>7842</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>7837</v>
+      </c>
+      <c r="H45" s="46"/>
+    </row>
+    <row r="46" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>6050</v>
       </c>
       <c r="B46" t="s">
-        <v>7636</v>
+        <v>7632</v>
       </c>
       <c r="C46" t="s">
-        <v>7668</v>
+        <v>7659</v>
       </c>
       <c r="D46" t="s">
-        <v>7667</v>
+        <v>7658</v>
       </c>
       <c r="E46">
         <v>8401</v>
       </c>
       <c r="F46" s="42" t="s">
-        <v>7666</v>
+        <v>7839</v>
       </c>
       <c r="G46" s="41" t="s">
-        <v>7843</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>7852</v>
+      </c>
+      <c r="H46" s="46"/>
+    </row>
+    <row r="47" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>6050</v>
       </c>
       <c r="B47" t="s">
-        <v>7626</v>
+        <v>7624</v>
       </c>
       <c r="C47" t="s">
-        <v>7665</v>
+        <v>7657</v>
       </c>
       <c r="D47" t="s">
-        <v>7665</v>
+        <v>7657</v>
       </c>
       <c r="E47">
         <v>8429</v>
       </c>
       <c r="F47" s="42" t="s">
-        <v>7664</v>
+        <v>7656</v>
       </c>
       <c r="G47" s="41" t="s">
-        <v>7844</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>7780</v>
+      </c>
+      <c r="H47" s="46"/>
+    </row>
+    <row r="48" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>6050</v>
       </c>
       <c r="B48" t="s">
-        <v>7626</v>
+        <v>7624</v>
       </c>
       <c r="C48" t="s">
-        <v>7663</v>
+        <v>7655</v>
       </c>
       <c r="D48" t="s">
-        <v>7662</v>
+        <v>7654</v>
       </c>
       <c r="E48">
         <v>8444</v>
       </c>
       <c r="F48" s="42" t="s">
-        <v>7661</v>
+        <v>7653</v>
       </c>
       <c r="G48" s="41" t="s">
-        <v>7845</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>7781</v>
+      </c>
+      <c r="H48" s="46"/>
+    </row>
+    <row r="49" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>6050</v>
       </c>
       <c r="B49" t="s">
-        <v>7626</v>
+        <v>7624</v>
       </c>
       <c r="C49" t="s">
-        <v>7660</v>
+        <v>7652</v>
       </c>
       <c r="D49" t="s">
-        <v>7659</v>
+        <v>7651</v>
       </c>
       <c r="E49">
         <v>8473</v>
       </c>
       <c r="F49" s="44" t="s">
-        <v>7658</v>
+        <v>7650</v>
       </c>
       <c r="G49" s="41" t="s">
-        <v>7801</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+        <v>7853</v>
+      </c>
+      <c r="H49" t="s">
+        <v>7854</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>6050</v>
       </c>
       <c r="B50" t="s">
-        <v>7616</v>
+        <v>7615</v>
       </c>
       <c r="C50" t="s">
-        <v>7657</v>
+        <v>7649</v>
       </c>
       <c r="D50" t="s">
-        <v>7657</v>
+        <v>7649</v>
       </c>
       <c r="E50">
         <v>8451</v>
       </c>
       <c r="F50" s="44" t="s">
-        <v>7656</v>
+        <v>7648</v>
       </c>
       <c r="G50" s="41" t="s">
-        <v>7846</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>7782</v>
+      </c>
+      <c r="H50" s="46"/>
+    </row>
+    <row r="51" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>6050</v>
       </c>
       <c r="B51" t="s">
-        <v>7616</v>
+        <v>7615</v>
       </c>
       <c r="C51" t="s">
-        <v>7655</v>
+        <v>7647</v>
       </c>
       <c r="D51" t="s">
-        <v>7655</v>
+        <v>7647</v>
       </c>
       <c r="E51">
         <v>8453</v>
       </c>
       <c r="F51" s="42" t="s">
-        <v>7654</v>
+        <v>7840</v>
       </c>
       <c r="G51" s="41" t="s">
-        <v>7847</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>7841</v>
+      </c>
+      <c r="H51" s="46"/>
+    </row>
+    <row r="52" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>6050</v>
       </c>
       <c r="B52" t="s">
-        <v>7616</v>
+        <v>7615</v>
       </c>
       <c r="C52" t="s">
-        <v>7653</v>
+        <v>7646</v>
       </c>
       <c r="D52" t="s">
-        <v>7653</v>
+        <v>7646</v>
       </c>
       <c r="E52">
         <v>8242</v>
       </c>
       <c r="F52" s="42" t="s">
-        <v>7652</v>
+        <v>7645</v>
       </c>
       <c r="G52" s="41" t="s">
-        <v>7848</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>7783</v>
+      </c>
+      <c r="H52" t="s">
+        <v>7799</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>7606</v>
       </c>
       <c r="B53" t="s">
-        <v>7646</v>
+        <v>7640</v>
       </c>
       <c r="C53" t="s">
-        <v>7651</v>
+        <v>7644</v>
       </c>
       <c r="D53" t="s">
-        <v>7650</v>
+        <v>7643</v>
       </c>
       <c r="E53">
         <v>8351</v>
       </c>
       <c r="F53" s="42" t="s">
-        <v>7849</v>
+        <v>7784</v>
       </c>
       <c r="G53" s="41" t="s">
-        <v>7850</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="255" x14ac:dyDescent="0.25">
+        <v>7855</v>
+      </c>
+      <c r="H53" t="s">
+        <v>7856</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="255" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>7606</v>
       </c>
       <c r="B54" t="s">
-        <v>7646</v>
+        <v>7640</v>
       </c>
       <c r="C54" t="s">
-        <v>7649</v>
+        <v>7642</v>
       </c>
       <c r="D54" t="s">
-        <v>7648</v>
+        <v>7641</v>
       </c>
       <c r="E54">
         <v>8360</v>
       </c>
       <c r="F54" s="44" t="s">
-        <v>7647</v>
+        <v>7857</v>
       </c>
       <c r="G54" s="41" t="s">
-        <v>7851</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+        <v>7842</v>
+      </c>
+      <c r="H54" s="46"/>
+    </row>
+    <row r="55" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>7606</v>
       </c>
       <c r="B55" t="s">
-        <v>7646</v>
+        <v>7640</v>
       </c>
       <c r="C55" t="s">
-        <v>7645</v>
+        <v>7639</v>
       </c>
       <c r="D55" t="s">
-        <v>7644</v>
+        <v>7638</v>
       </c>
       <c r="E55">
         <v>8358</v>
       </c>
       <c r="F55" s="42" t="s">
-        <v>7643</v>
+        <v>7843</v>
       </c>
       <c r="G55" s="41" t="s">
-        <v>7852</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>7844</v>
+      </c>
+      <c r="H55" s="46"/>
+    </row>
+    <row r="56" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>7606</v>
       </c>
       <c r="B56" t="s">
+        <v>7632</v>
+      </c>
+      <c r="C56" t="s">
+        <v>7637</v>
+      </c>
+      <c r="D56" t="s">
         <v>7636</v>
-      </c>
-      <c r="C56" t="s">
-        <v>7642</v>
-      </c>
-      <c r="D56" t="s">
-        <v>7641</v>
       </c>
       <c r="E56">
         <v>8306</v>
       </c>
       <c r="F56" s="42" t="s">
-        <v>7640</v>
+        <v>7858</v>
       </c>
       <c r="G56" s="44" t="s">
-        <v>7853</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>7859</v>
+      </c>
+      <c r="H56" s="46"/>
+    </row>
+    <row r="57" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>7606</v>
       </c>
       <c r="B57" t="s">
-        <v>7636</v>
+        <v>7632</v>
       </c>
       <c r="C57" t="s">
-        <v>7639</v>
+        <v>7635</v>
       </c>
       <c r="D57" t="s">
-        <v>7638</v>
+        <v>7634</v>
       </c>
       <c r="E57">
         <v>8304</v>
       </c>
       <c r="F57" s="44" t="s">
-        <v>7637</v>
+        <v>7633</v>
       </c>
       <c r="G57" s="44" t="s">
-        <v>7789</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>7759</v>
+      </c>
+      <c r="H57" s="46"/>
+    </row>
+    <row r="58" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>7606</v>
       </c>
       <c r="B58" t="s">
-        <v>7636</v>
+        <v>7632</v>
       </c>
       <c r="C58" t="s">
-        <v>7635</v>
+        <v>7631</v>
       </c>
       <c r="D58" t="s">
-        <v>7634</v>
+        <v>7630</v>
       </c>
       <c r="E58">
         <v>8313</v>
       </c>
       <c r="F58" s="42" t="s">
-        <v>7633</v>
+        <v>7629</v>
       </c>
       <c r="G58" s="41" t="s">
-        <v>7854</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>7785</v>
+      </c>
+      <c r="H58" s="46"/>
+    </row>
+    <row r="59" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>7606</v>
       </c>
       <c r="B59" t="s">
-        <v>7626</v>
+        <v>7624</v>
       </c>
       <c r="C59" t="s">
-        <v>7632</v>
+        <v>7628</v>
       </c>
       <c r="D59" t="s">
-        <v>7631</v>
+        <v>7627</v>
       </c>
       <c r="E59">
         <v>8321</v>
       </c>
       <c r="F59" s="42" t="s">
-        <v>7630</v>
+        <v>7862</v>
       </c>
       <c r="G59" s="41" t="s">
-        <v>7790</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>7863</v>
+      </c>
+      <c r="H59" s="46"/>
+    </row>
+    <row r="60" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>7606</v>
       </c>
       <c r="B60" t="s">
+        <v>7624</v>
+      </c>
+      <c r="C60" t="s">
         <v>7626</v>
       </c>
-      <c r="C60" t="s">
-        <v>7629</v>
-      </c>
       <c r="D60" t="s">
-        <v>7628</v>
+        <v>7625</v>
       </c>
       <c r="E60">
         <v>8316</v>
       </c>
-      <c r="F60" s="42" t="s">
-        <v>7627</v>
-      </c>
-      <c r="G60" s="41" t="s">
-        <v>7791</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="F60" s="45" t="s">
+        <v>7846</v>
+      </c>
+      <c r="G60" s="45" t="s">
+        <v>7845</v>
+      </c>
+      <c r="H60" s="46"/>
+    </row>
+    <row r="61" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>7606</v>
       </c>
       <c r="B61" t="s">
-        <v>7626</v>
+        <v>7624</v>
       </c>
       <c r="C61" t="s">
-        <v>7625</v>
+        <v>7623</v>
       </c>
       <c r="D61" t="s">
-        <v>7624</v>
+        <v>7622</v>
       </c>
       <c r="E61">
         <v>8345</v>
       </c>
       <c r="F61" s="44" t="s">
-        <v>7623</v>
+        <v>7864</v>
       </c>
       <c r="G61" s="44" t="s">
-        <v>7792</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>7865</v>
+      </c>
+      <c r="H61" t="s">
+        <v>7799</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>7606</v>
       </c>
       <c r="B62" t="s">
-        <v>7616</v>
+        <v>7615</v>
       </c>
       <c r="C62" t="s">
-        <v>7622</v>
+        <v>7621</v>
       </c>
       <c r="D62" t="s">
-        <v>7621</v>
+        <v>7620</v>
       </c>
       <c r="E62">
         <v>8347</v>
       </c>
       <c r="F62" s="44" t="s">
-        <v>7620</v>
+        <v>7619</v>
       </c>
       <c r="G62" s="44" t="s">
-        <v>7793</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>7760</v>
+      </c>
+      <c r="H62" t="s">
+        <v>7847</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>7606</v>
       </c>
       <c r="B63" t="s">
-        <v>7616</v>
+        <v>7615</v>
       </c>
       <c r="C63" t="s">
-        <v>7619</v>
+        <v>7618</v>
       </c>
       <c r="D63" t="s">
-        <v>7618</v>
+        <v>7617</v>
       </c>
       <c r="E63">
         <v>8410</v>
       </c>
       <c r="F63" s="42" t="s">
-        <v>7617</v>
+        <v>7616</v>
       </c>
       <c r="G63" s="41" t="s">
-        <v>7855</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>7786</v>
+      </c>
+      <c r="H63" s="46"/>
+    </row>
+    <row r="64" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>7606</v>
       </c>
       <c r="B64" t="s">
-        <v>7616</v>
+        <v>7615</v>
       </c>
       <c r="C64" t="s">
-        <v>7615</v>
+        <v>7614</v>
       </c>
       <c r="D64" t="s">
-        <v>7614</v>
+        <v>7613</v>
       </c>
       <c r="E64">
         <v>8352</v>
       </c>
       <c r="F64" s="43" t="s">
-        <v>7782</v>
+        <v>7757</v>
       </c>
       <c r="G64" s="41" t="s">
-        <v>7856</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>7787</v>
+      </c>
+      <c r="H64" s="46"/>
+    </row>
+    <row r="65" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>7613</v>
+        <v>7612</v>
       </c>
       <c r="B65" t="s">
         <v>7605</v>
@@ -66182,15 +67723,16 @@
         <v>8000</v>
       </c>
       <c r="F65" s="42" t="s">
-        <v>7612</v>
+        <v>7611</v>
       </c>
       <c r="G65" s="41" t="s">
-        <v>7802</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>7766</v>
+      </c>
+      <c r="H65" s="46"/>
+    </row>
+    <row r="66" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>7611</v>
+        <v>7610</v>
       </c>
       <c r="B66" t="s">
         <v>7605</v>
@@ -66199,15 +67741,18 @@
         <v>8100</v>
       </c>
       <c r="F66" s="42" t="s">
-        <v>7610</v>
+        <v>7609</v>
       </c>
       <c r="G66" s="41" t="s">
-        <v>7803</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>7767</v>
+      </c>
+      <c r="H66" t="s">
+        <v>7848</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>7609</v>
+        <v>7608</v>
       </c>
       <c r="B67" t="s">
         <v>7605</v>
@@ -66216,13 +67761,14 @@
         <v>8200</v>
       </c>
       <c r="F67" s="42" t="s">
-        <v>7608</v>
+        <v>7607</v>
       </c>
       <c r="G67" s="41" t="s">
-        <v>7804</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>7768</v>
+      </c>
+      <c r="H67" s="46"/>
+    </row>
+    <row r="68" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>6050</v>
       </c>
@@ -66233,13 +67779,14 @@
         <v>8400</v>
       </c>
       <c r="F68" s="42" t="s">
-        <v>7607</v>
+        <v>7849</v>
       </c>
       <c r="G68" s="41" t="s">
-        <v>7805</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>7850</v>
+      </c>
+      <c r="H68" s="46"/>
+    </row>
+    <row r="69" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>7606</v>
       </c>
@@ -66253,8 +67800,9 @@
         <v>7604</v>
       </c>
       <c r="G69" s="41" t="s">
-        <v>7806</v>
-      </c>
+        <v>7769</v>
+      </c>
+      <c r="H69" s="46"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:Y69" xr:uid="{C4BD9998-A7B5-45A0-857E-BCC076D214D8}"/>

--- a/private/INDIVIDUAL_LOCALIZATIONS_UI_7.xlsx
+++ b/private/INDIVIDUAL_LOCALIZATIONS_UI_7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\lolvvv\Assets\private\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE179E3-D65E-45AA-9837-FB649D30B0F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BFE2CDB-BFCB-4B58-B814-0222836394B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22485" yWindow="885" windowWidth="27285" windowHeight="20100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1500" windowWidth="27285" windowHeight="20100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INTL" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">CHAMPIONS!$A$1:$V$48</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">INTL!$A$1:$AB$599</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">INTL!$A$1:$AB$601</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">OFFICIAL!$A$1:$S$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">RUNES!$A$1:$Y$69</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">RUNES_OLD!$A$1:$X$23</definedName>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12445" uniqueCount="7908">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12483" uniqueCount="7946">
   <si>
     <t>en_US</t>
   </si>
@@ -20716,9 +20716,6 @@
     <t xml:space="preserve">Le meilleur et le plus rapide site de Runes. Trouvez les Runes de League of Legends avec les taux de victoire les plus élevés. </t>
   </si>
   <si>
-    <t>Probuilds de {championName}</t>
-  </si>
-  <si>
     <t>Les meilleurs Runes de {championName} en {position} pour le {patch}. Trouvez les Probuilds du gagnant {championName} !</t>
   </si>
   <si>
@@ -20728,9 +20725,6 @@
     <t>Le meilleur et le plus rapide site de Probuilds. Trouvez exactement les Probuilds de League of Legends dont vous avez besoin pour gagner.</t>
   </si>
   <si>
-    <t xml:space="preserve">Probuilds de {championName} </t>
-  </si>
-  <si>
     <t>Counter de {championName} en {position} {patch}.  Ici, les Counter de légendes.</t>
   </si>
   <si>
@@ -20768,9 +20762,6 @@
   </si>
   <si>
     <t>https://www.lolvvv.com/fr/champion/{championKey}/counter</t>
-  </si>
-  <si>
-    <t>https://www.lolvvv.com/fr/champion/{championKey}/probuilds</t>
   </si>
   <si>
     <t>Exclusions recommandées</t>
@@ -22627,9 +22618,6 @@
   </si>
   <si>
     <t>{championName} Build – As melhores build {championName} | lolvvv</t>
-  </si>
-  <si>
-    <t>{championName} Pro Builds – As melhores probuilds {championName} | lolvvv</t>
   </si>
   <si>
     <t>Clips de {championName} – Les points forts des pièces de théâtre pro | lolvvv</t>
@@ -25187,6 +25175,132 @@
   </si>
   <si>
     <t>Bảng Ngọc {championName} {position} – Bảng {championName} mua 11 LoL [{patch} ĐÃ CẬP NHẬT]</t>
+  </si>
+  <si>
+    <t>label|probuildsExplained</t>
+  </si>
+  <si>
+    <t>label|probuildsExplainedChampion</t>
+  </si>
+  <si>
+    <t>Probuilds explained</t>
+  </si>
+  <si>
+    <t>{championName} Probuilds explained</t>
+  </si>
+  <si>
+    <t>Probuilds erklärt</t>
+  </si>
+  <si>
+    <t>{championName} Probuilds erklärt</t>
+  </si>
+  <si>
+    <t>Probuilds explicadas</t>
+  </si>
+  <si>
+    <t>{championName} Probuilds explicadas</t>
+  </si>
+  <si>
+    <t>Probuild expliqué</t>
+  </si>
+  <si>
+    <t>{championName} Probuild expliqué</t>
+  </si>
+  <si>
+    <t>Probuild spiegate</t>
+  </si>
+  <si>
+    <t>Probuilds objaśnione</t>
+  </si>
+  <si>
+    <t>{championName} Probuilds objaśnione</t>
+  </si>
+  <si>
+    <t>Probuilds explicou</t>
+  </si>
+  <si>
+    <t>{championName} Probuilds explicou</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Probuild de {championName} </t>
+  </si>
+  <si>
+    <t>Probuild de {championName}</t>
+  </si>
+  <si>
+    <t>https://www.lolvvv.com/fr/champion/{championKey}/probuild</t>
+  </si>
+  <si>
+    <t>{championName} Probuild spiegate</t>
+  </si>
+  <si>
+    <t>{championName} Probuilds – As melhores pro builds {championName} | lolvvv</t>
+  </si>
+  <si>
+    <t>プロビルドの説明</t>
+  </si>
+  <si>
+    <t>ルーンの説明</t>
+  </si>
+  <si>
+    <t>{championName} ルーンの説明</t>
+  </si>
+  <si>
+    <t>{championName} プロビルドの説明</t>
+  </si>
+  <si>
+    <t>label|championTips</t>
+  </si>
+  <si>
+    <t>{championName} Tips</t>
+  </si>
+  <si>
+    <t>{championName} Tipps</t>
+  </si>
+  <si>
+    <t>Consejos de {championName}</t>
+  </si>
+  <si>
+    <t>Tipy společnosti {championName}</t>
+  </si>
+  <si>
+    <t>Συμβουλές {championName}</t>
+  </si>
+  <si>
+    <t>Conseils de  {championName}</t>
+  </si>
+  <si>
+    <t>{championName} Tippek</t>
+  </si>
+  <si>
+    <t>Consigli su  {championName}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {championName}のヒント</t>
+  </si>
+  <si>
+    <t>{championName} 도움말</t>
+  </si>
+  <si>
+    <t>Wskazówki {championName}</t>
+  </si>
+  <si>
+    <t>Dicas de {championName}</t>
+  </si>
+  <si>
+    <t>Sfaturi {championName}</t>
+  </si>
+  <si>
+    <t>{championName} Советы</t>
+  </si>
+  <si>
+    <t>{championName} Tüyolar</t>
+  </si>
+  <si>
+    <t>{championName}小技巧</t>
+  </si>
+  <si>
+    <t>Mẹo {championName}</t>
   </si>
 </sst>
 </file>
@@ -25722,11 +25836,11 @@
   <sheetPr codeName="Tabelle1" filterMode="1">
     <outlinePr summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB599"/>
+  <dimension ref="A1:AB602"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA412" sqref="AA412"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A269" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A602" sqref="A602"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -25776,7 +25890,7 @@
         <v>1183</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>802</v>
+        <v>1396</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>2575</v>
@@ -25904,7 +26018,7 @@
         <v>1887</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>7170</v>
+        <v>7167</v>
       </c>
       <c r="Q3" s="4" t="s">
         <v>1480</v>
@@ -25945,7 +26059,7 @@
         <v>1888</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>7171</v>
+        <v>7168</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>1356</v>
@@ -26030,7 +26144,7 @@
         <v>2708</v>
       </c>
       <c r="N6" s="27" t="s">
-        <v>7179</v>
+        <v>7176</v>
       </c>
       <c r="Q6" s="4"/>
       <c r="R6" s="5"/>
@@ -26092,7 +26206,7 @@
       </c>
       <c r="AB7" s="5"/>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -26115,7 +26229,7 @@
         <v>2709</v>
       </c>
       <c r="N8" s="27" t="s">
-        <v>7223</v>
+        <v>7220</v>
       </c>
       <c r="Q8" s="4" t="s">
         <v>1481</v>
@@ -26165,7 +26279,7 @@
         <v>1008</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>7172</v>
+        <v>7169</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>1357</v>
@@ -26224,7 +26338,7 @@
         <v>6663</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -26247,7 +26361,7 @@
         <v>2702</v>
       </c>
       <c r="N11" s="27" t="s">
-        <v>7180</v>
+        <v>7177</v>
       </c>
       <c r="Q11" s="4"/>
       <c r="R11" s="5" t="s">
@@ -26257,7 +26371,7 @@
         <v>931</v>
       </c>
       <c r="U11" s="4" t="s">
-        <v>7531</v>
+        <v>7527</v>
       </c>
       <c r="V11" s="5" t="s">
         <v>964</v>
@@ -26295,7 +26409,7 @@
         <v>1018</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>7113</v>
+        <v>7110</v>
       </c>
       <c r="Q12" s="1" t="s">
         <v>1358</v>
@@ -26319,7 +26433,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -26342,7 +26456,7 @@
         <v>2699</v>
       </c>
       <c r="N13" s="27" t="s">
-        <v>7181</v>
+        <v>7178</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>1359</v>
@@ -26392,7 +26506,7 @@
         <v>1889</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>7173</v>
+        <v>7170</v>
       </c>
       <c r="Q14" s="1" t="s">
         <v>251</v>
@@ -26536,7 +26650,7 @@
         <v>1891</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>7165</v>
+        <v>7162</v>
       </c>
       <c r="Q17" s="1" t="s">
         <v>1362</v>
@@ -26577,7 +26691,7 @@
         <v>1892</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>7166</v>
+        <v>7163</v>
       </c>
       <c r="Q18" s="1" t="s">
         <v>1363</v>
@@ -26601,7 +26715,7 @@
         <v>1549</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -26662,7 +26776,7 @@
         <v>1894</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>7167</v>
+        <v>7164</v>
       </c>
       <c r="Q20" s="1" t="s">
         <v>1365</v>
@@ -26703,7 +26817,7 @@
         <v>1895</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>7168</v>
+        <v>7165</v>
       </c>
       <c r="Q21" s="4" t="s">
         <v>1366</v>
@@ -26744,7 +26858,7 @@
         <v>1896</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>7169</v>
+        <v>7166</v>
       </c>
       <c r="Q22" s="1" t="s">
         <v>1367</v>
@@ -26953,7 +27067,7 @@
         <v>1898</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>7159</v>
+        <v>7156</v>
       </c>
       <c r="Q26" s="1" t="s">
         <v>1368</v>
@@ -26985,19 +27099,19 @@
         <v>2484</v>
       </c>
       <c r="I27" s="5" t="s">
+        <v>7441</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>7442</v>
+      </c>
+      <c r="M27" s="27" t="s">
         <v>7444</v>
       </c>
-      <c r="J27" s="5" t="s">
+      <c r="N27" s="27" t="s">
+        <v>7443</v>
+      </c>
+      <c r="Q27" s="27" t="s">
         <v>7445</v>
-      </c>
-      <c r="M27" s="27" t="s">
-        <v>7447</v>
-      </c>
-      <c r="N27" s="27" t="s">
-        <v>7446</v>
-      </c>
-      <c r="Q27" s="27" t="s">
-        <v>7448</v>
       </c>
       <c r="S27" s="1" t="s">
         <v>1757</v>
@@ -27006,7 +27120,7 @@
         <v>1836</v>
       </c>
       <c r="V27" s="27" t="s">
-        <v>7449</v>
+        <v>7446</v>
       </c>
       <c r="X27" s="1" t="s">
         <v>1239</v>
@@ -27035,7 +27149,7 @@
         <v>1899</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>7160</v>
+        <v>7157</v>
       </c>
       <c r="Q28" s="1" t="s">
         <v>1369</v>
@@ -27076,7 +27190,7 @@
         <v>1003</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>7030</v>
+        <v>7027</v>
       </c>
       <c r="Q29" s="1" t="s">
         <v>1370</v>
@@ -27123,7 +27237,7 @@
         <v>1900</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>7161</v>
+        <v>7158</v>
       </c>
       <c r="Q30" s="1" t="s">
         <v>1371</v>
@@ -27164,7 +27278,7 @@
         <v>1901</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>7162</v>
+        <v>7159</v>
       </c>
       <c r="Q31" s="1" t="s">
         <v>1372</v>
@@ -27205,7 +27319,7 @@
         <v>1902</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>7163</v>
+        <v>7160</v>
       </c>
       <c r="Q32" s="1" t="s">
         <v>1373</v>
@@ -27249,7 +27363,7 @@
         <v>1903</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>7164</v>
+        <v>7161</v>
       </c>
       <c r="Q33" s="1" t="s">
         <v>1374</v>
@@ -27352,7 +27466,7 @@
         <v>1904</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>7151</v>
+        <v>7148</v>
       </c>
       <c r="Q35" s="1" t="s">
         <v>1375</v>
@@ -27393,7 +27507,7 @@
         <v>1905</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>7152</v>
+        <v>7149</v>
       </c>
       <c r="Q36" s="1" t="s">
         <v>1376</v>
@@ -27434,7 +27548,7 @@
         <v>1906</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>7153</v>
+        <v>7150</v>
       </c>
       <c r="Q37" s="1" t="s">
         <v>1377</v>
@@ -27475,7 +27589,7 @@
         <v>1907</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>7154</v>
+        <v>7151</v>
       </c>
       <c r="Q38" s="1" t="s">
         <v>1378</v>
@@ -27516,7 +27630,7 @@
         <v>1908</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>7155</v>
+        <v>7152</v>
       </c>
       <c r="Q39" s="1" t="s">
         <v>1379</v>
@@ -27556,7 +27670,7 @@
         <v>6142</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>7156</v>
+        <v>7153</v>
       </c>
       <c r="Q40" s="24" t="s">
         <v>6144</v>
@@ -27602,7 +27716,7 @@
         <v>6143</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>7157</v>
+        <v>7154</v>
       </c>
       <c r="Q41" s="24" t="s">
         <v>6145</v>
@@ -27655,7 +27769,7 @@
         <v>1909</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>7158</v>
+        <v>7155</v>
       </c>
       <c r="Q42" s="1" t="s">
         <v>1380</v>
@@ -27826,7 +27940,7 @@
         <v>1910</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>7149</v>
+        <v>7146</v>
       </c>
       <c r="Q45" s="1" t="s">
         <v>1383</v>
@@ -27861,7 +27975,7 @@
         <v>2224</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>7537</v>
+        <v>7533</v>
       </c>
       <c r="M46" s="5" t="s">
         <v>2224</v>
@@ -27873,7 +27987,7 @@
         <v>2224</v>
       </c>
       <c r="R46" s="24" t="s">
-        <v>7824</v>
+        <v>7820</v>
       </c>
       <c r="S46" s="5" t="s">
         <v>2256</v>
@@ -27917,7 +28031,7 @@
         <v>2061</v>
       </c>
       <c r="R47" s="24" t="s">
-        <v>7857</v>
+        <v>7853</v>
       </c>
       <c r="S47" s="5" t="s">
         <v>2881</v>
@@ -27938,7 +28052,7 @@
         <v>2061</v>
       </c>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>45</v>
       </c>
@@ -28005,7 +28119,7 @@
         <v>1911</v>
       </c>
       <c r="N49" s="5" t="s">
-        <v>7150</v>
+        <v>7147</v>
       </c>
       <c r="O49" s="5" t="s">
         <v>1017</v>
@@ -28049,13 +28163,13 @@
         <v>2587</v>
       </c>
       <c r="J50" s="27" t="s">
-        <v>7422</v>
+        <v>7419</v>
       </c>
       <c r="M50" s="4" t="s">
         <v>2725</v>
       </c>
       <c r="N50" s="4" t="s">
-        <v>7146</v>
+        <v>7143</v>
       </c>
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
@@ -28092,7 +28206,7 @@
         <v>1117</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>7147</v>
+        <v>7144</v>
       </c>
       <c r="Q51" s="1" t="s">
         <v>1117</v>
@@ -28136,13 +28250,13 @@
         <v>1912</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>7148</v>
+        <v>7145</v>
       </c>
       <c r="Q52" s="1" t="s">
         <v>1118</v>
       </c>
       <c r="R52" s="24" t="s">
-        <v>7872</v>
+        <v>7868</v>
       </c>
       <c r="S52" s="5" t="s">
         <v>2883</v>
@@ -28240,7 +28354,7 @@
         <v>1913</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>7177</v>
+        <v>7174</v>
       </c>
       <c r="Q54" s="1" t="s">
         <v>1386</v>
@@ -28343,7 +28457,7 @@
         <v>1914</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>7174</v>
+        <v>7171</v>
       </c>
       <c r="Q56" s="1" t="s">
         <v>272</v>
@@ -28384,7 +28498,7 @@
         <v>1915</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>7175</v>
+        <v>7172</v>
       </c>
       <c r="Q57" s="1" t="s">
         <v>662</v>
@@ -28425,7 +28539,7 @@
         <v>1916</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>7176</v>
+        <v>7173</v>
       </c>
       <c r="Q58" s="1" t="s">
         <v>1387</v>
@@ -28655,7 +28769,7 @@
         <v>1917</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>7144</v>
+        <v>7141</v>
       </c>
       <c r="Q62" s="1" t="s">
         <v>1390</v>
@@ -28696,7 +28810,7 @@
         <v>1918</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>7145</v>
+        <v>7142</v>
       </c>
       <c r="Q63" s="1" t="s">
         <v>1391</v>
@@ -28923,7 +29037,7 @@
         <v>1919</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>7139</v>
+        <v>7136</v>
       </c>
       <c r="Q67" s="1" t="s">
         <v>1392</v>
@@ -28964,7 +29078,7 @@
         <v>1920</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>7140</v>
+        <v>7137</v>
       </c>
       <c r="Q68" s="1" t="s">
         <v>1393</v>
@@ -29005,7 +29119,7 @@
         <v>1921</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>7141</v>
+        <v>7138</v>
       </c>
       <c r="S69" s="1" t="s">
         <v>1765</v>
@@ -29043,7 +29157,7 @@
         <v>1922</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>7142</v>
+        <v>7139</v>
       </c>
       <c r="Q70" s="1" t="s">
         <v>1394</v>
@@ -29084,7 +29198,7 @@
         <v>1923</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>7143</v>
+        <v>7140</v>
       </c>
       <c r="Q71" s="1" t="s">
         <v>1395</v>
@@ -29158,7 +29272,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="73" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>70</v>
       </c>
@@ -29221,7 +29335,7 @@
         <v>1396</v>
       </c>
       <c r="J74" s="5" t="s">
-        <v>7538</v>
+        <v>7534</v>
       </c>
       <c r="M74" s="1" t="s">
         <v>1396</v>
@@ -29319,7 +29433,7 @@
         <v>1687</v>
       </c>
       <c r="R76" s="24" t="s">
-        <v>7856</v>
+        <v>7852</v>
       </c>
       <c r="S76" s="5" t="s">
         <v>2889</v>
@@ -29327,7 +29441,7 @@
       <c r="U76" s="5" t="s">
         <v>1685</v>
       </c>
-      <c r="V76" s="1" t="s">
+      <c r="V76" s="27" t="s">
         <v>1685</v>
       </c>
       <c r="X76" s="5"/>
@@ -29463,7 +29577,7 @@
         <v>1114</v>
       </c>
       <c r="R79" s="28" t="s">
-        <v>7870</v>
+        <v>7866</v>
       </c>
       <c r="S79" s="5" t="s">
         <v>1769</v>
@@ -29493,13 +29607,13 @@
         <v>2592</v>
       </c>
       <c r="J80" s="27" t="s">
-        <v>7423</v>
+        <v>7420</v>
       </c>
       <c r="M80" s="4" t="s">
         <v>2726</v>
       </c>
       <c r="N80" s="4" t="s">
-        <v>7128</v>
+        <v>7125</v>
       </c>
       <c r="Q80" s="4"/>
       <c r="R80" s="4"/>
@@ -29580,7 +29694,7 @@
         <v>1928</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>7129</v>
+        <v>7126</v>
       </c>
       <c r="Q82" s="1" t="s">
         <v>1400</v>
@@ -29618,16 +29732,16 @@
         <v>1696</v>
       </c>
       <c r="M83" s="27" t="s">
-        <v>7509</v>
+        <v>7506</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>7130</v>
+        <v>7127</v>
       </c>
       <c r="Q83" s="4" t="s">
-        <v>7825</v>
+        <v>7821</v>
       </c>
       <c r="R83" s="24" t="s">
-        <v>7858</v>
+        <v>7854</v>
       </c>
       <c r="S83" s="1" t="s">
         <v>2891</v>
@@ -29635,7 +29749,7 @@
       <c r="U83" s="4" t="s">
         <v>6459</v>
       </c>
-      <c r="V83" s="1" t="s">
+      <c r="V83" s="27" t="s">
         <v>6211</v>
       </c>
       <c r="X83" s="4" t="s">
@@ -29656,22 +29770,22 @@
         <v>1522</v>
       </c>
       <c r="I84" s="5" t="s">
-        <v>7255</v>
+        <v>7252</v>
       </c>
       <c r="J84" s="5" t="s">
-        <v>7539</v>
+        <v>7535</v>
       </c>
       <c r="M84" s="1" t="s">
         <v>1929</v>
       </c>
       <c r="N84" s="27" t="s">
-        <v>7210</v>
+        <v>7207</v>
       </c>
       <c r="Q84" s="4" t="s">
         <v>1692</v>
       </c>
       <c r="R84" s="24" t="s">
-        <v>7859</v>
+        <v>7855</v>
       </c>
       <c r="S84" s="1" t="s">
         <v>2892</v>
@@ -29707,13 +29821,13 @@
         <v>1930</v>
       </c>
       <c r="N85" s="27" t="s">
-        <v>7209</v>
+        <v>7206</v>
       </c>
       <c r="Q85" s="4" t="s">
-        <v>7826</v>
+        <v>7822</v>
       </c>
       <c r="R85" s="24" t="s">
-        <v>7860</v>
+        <v>7856</v>
       </c>
       <c r="S85" s="1" t="s">
         <v>2893</v>
@@ -29748,7 +29862,7 @@
         <v>2544</v>
       </c>
       <c r="N86" s="27" t="s">
-        <v>7211</v>
+        <v>7208</v>
       </c>
       <c r="Q86" s="4" t="s">
         <v>1512</v>
@@ -29789,7 +29903,7 @@
         <v>1931</v>
       </c>
       <c r="N87" s="1" t="s">
-        <v>7131</v>
+        <v>7128</v>
       </c>
       <c r="Q87" s="1" t="s">
         <v>1401</v>
@@ -29827,7 +29941,7 @@
         <v>2010</v>
       </c>
       <c r="N88" s="1" t="s">
-        <v>7132</v>
+        <v>7129</v>
       </c>
       <c r="S88" s="1" t="s">
         <v>2896</v>
@@ -29850,16 +29964,16 @@
         <v>1044</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>7450</v>
+        <v>7447</v>
       </c>
       <c r="J89" s="5" t="s">
-        <v>7452</v>
+        <v>7449</v>
       </c>
       <c r="M89" s="1" t="s">
         <v>1933</v>
       </c>
       <c r="N89" s="1" t="s">
-        <v>7133</v>
+        <v>7130</v>
       </c>
       <c r="Q89" s="1" t="s">
         <v>1403</v>
@@ -29900,7 +30014,7 @@
         <v>1934</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>7134</v>
+        <v>7131</v>
       </c>
       <c r="Q90" s="4" t="s">
         <v>1513</v>
@@ -29941,7 +30055,7 @@
         <v>1935</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>7135</v>
+        <v>7132</v>
       </c>
       <c r="Q91" s="1" t="s">
         <v>1404</v>
@@ -29982,7 +30096,7 @@
         <v>1936</v>
       </c>
       <c r="N92" s="1" t="s">
-        <v>7136</v>
+        <v>7133</v>
       </c>
       <c r="Q92" s="1" t="s">
         <v>1405</v>
@@ -30023,7 +30137,7 @@
         <v>1937</v>
       </c>
       <c r="N93" s="1" t="s">
-        <v>7137</v>
+        <v>7134</v>
       </c>
       <c r="Q93" s="1" t="s">
         <v>1406</v>
@@ -30064,7 +30178,7 @@
         <v>1938</v>
       </c>
       <c r="N94" s="1" t="s">
-        <v>7138</v>
+        <v>7135</v>
       </c>
       <c r="Q94" s="1" t="s">
         <v>1407</v>
@@ -30096,28 +30210,28 @@
         <v>1693</v>
       </c>
       <c r="I95" s="4" t="s">
-        <v>7453</v>
+        <v>7450</v>
       </c>
       <c r="J95" s="4" t="s">
-        <v>7454</v>
+        <v>7451</v>
       </c>
       <c r="M95" s="4" t="s">
-        <v>7510</v>
+        <v>7507</v>
       </c>
       <c r="N95" s="4" t="s">
-        <v>7532</v>
+        <v>7528</v>
       </c>
       <c r="Q95" s="4" t="s">
-        <v>7511</v>
+        <v>7508</v>
       </c>
       <c r="S95" s="1" t="s">
         <v>2903</v>
       </c>
       <c r="U95" s="4" t="s">
-        <v>7533</v>
+        <v>7529</v>
       </c>
       <c r="V95" s="27" t="s">
-        <v>7534</v>
+        <v>7530</v>
       </c>
       <c r="X95" s="4" t="s">
         <v>2445</v>
@@ -30137,31 +30251,31 @@
         <v>1523</v>
       </c>
       <c r="I96" s="5" t="s">
-        <v>7440</v>
+        <v>7437</v>
       </c>
       <c r="J96" s="5" t="s">
-        <v>7540</v>
+        <v>7536</v>
       </c>
       <c r="M96" s="5" t="s">
-        <v>7508</v>
+        <v>7505</v>
       </c>
       <c r="N96" s="27" t="s">
-        <v>7512</v>
+        <v>7509</v>
       </c>
       <c r="Q96" s="5" t="s">
-        <v>7528</v>
+        <v>7524</v>
       </c>
       <c r="R96" s="5" t="s">
-        <v>7852</v>
+        <v>7848</v>
       </c>
       <c r="S96" s="5" t="s">
         <v>2260</v>
       </c>
       <c r="U96" s="5" t="s">
-        <v>7529</v>
+        <v>7525</v>
       </c>
       <c r="V96" s="27" t="s">
-        <v>7518</v>
+        <v>7515</v>
       </c>
       <c r="X96" s="5" t="s">
         <v>2261</v>
@@ -30179,19 +30293,19 @@
         <v>1691</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>7441</v>
+        <v>7438</v>
       </c>
       <c r="J97" s="5" t="s">
-        <v>7442</v>
+        <v>7439</v>
       </c>
       <c r="M97" s="5" t="s">
-        <v>7507</v>
+        <v>7504</v>
       </c>
       <c r="N97" s="5" t="s">
-        <v>7514</v>
+        <v>7511</v>
       </c>
       <c r="Q97" s="5" t="s">
-        <v>7827</v>
+        <v>7823</v>
       </c>
       <c r="R97" s="5" t="s">
         <v>2446</v>
@@ -30200,10 +30314,10 @@
         <v>2904</v>
       </c>
       <c r="U97" s="5" t="s">
-        <v>7513</v>
+        <v>7510</v>
       </c>
       <c r="V97" s="27" t="s">
-        <v>7519</v>
+        <v>7923</v>
       </c>
       <c r="X97" s="5"/>
       <c r="Z97" s="5"/>
@@ -30219,19 +30333,19 @@
         <v>1050</v>
       </c>
       <c r="I98" s="5" t="s">
-        <v>7439</v>
+        <v>7436</v>
       </c>
       <c r="J98" s="5" t="s">
-        <v>7505</v>
+        <v>7502</v>
       </c>
       <c r="M98" s="4" t="s">
-        <v>7506</v>
+        <v>7503</v>
       </c>
       <c r="N98" s="4" t="s">
-        <v>7515</v>
+        <v>7512</v>
       </c>
       <c r="Q98" s="5" t="s">
-        <v>7516</v>
+        <v>7513</v>
       </c>
       <c r="R98" s="5" t="s">
         <v>2448</v>
@@ -30240,10 +30354,10 @@
         <v>2449</v>
       </c>
       <c r="U98" s="5" t="s">
-        <v>7517</v>
+        <v>7514</v>
       </c>
       <c r="V98" s="5" t="s">
-        <v>7875</v>
+        <v>7871</v>
       </c>
       <c r="X98" s="5" t="s">
         <v>2450</v>
@@ -30263,34 +30377,34 @@
         <v>1113</v>
       </c>
       <c r="I99" s="5" t="s">
-        <v>7556</v>
+        <v>7552</v>
       </c>
       <c r="J99" s="5" t="s">
-        <v>7443</v>
+        <v>7440</v>
       </c>
       <c r="L99" s="5"/>
       <c r="M99" s="5" t="s">
-        <v>7522</v>
+        <v>7518</v>
       </c>
       <c r="N99" s="5" t="s">
-        <v>7520</v>
+        <v>7516</v>
       </c>
       <c r="O99" s="5"/>
       <c r="Q99" s="5" t="s">
-        <v>7521</v>
+        <v>7517</v>
       </c>
       <c r="R99" s="5"/>
       <c r="S99" s="5" t="s">
         <v>2150</v>
       </c>
       <c r="U99" s="5" t="s">
-        <v>7523</v>
+        <v>7519</v>
       </c>
       <c r="V99" s="5" t="s">
-        <v>7530</v>
+        <v>7526</v>
       </c>
       <c r="X99" s="5" t="s">
-        <v>7868</v>
+        <v>7864</v>
       </c>
       <c r="Z99" s="5"/>
       <c r="AA99" s="6" t="s">
@@ -30315,7 +30429,7 @@
         <v>2011</v>
       </c>
       <c r="N100" s="1" t="s">
-        <v>7119</v>
+        <v>7116</v>
       </c>
       <c r="S100" s="1" t="s">
         <v>2905</v>
@@ -30324,7 +30438,7 @@
         <v>6464</v>
       </c>
       <c r="V100" s="27" t="s">
-        <v>7878</v>
+        <v>7874</v>
       </c>
       <c r="AA100" s="6" t="s">
         <v>1678</v>
@@ -30338,34 +30452,34 @@
         <v>1051</v>
       </c>
       <c r="I101" s="5" t="s">
-        <v>7451</v>
+        <v>7448</v>
       </c>
       <c r="J101" s="5" t="s">
+        <v>7460</v>
+      </c>
+      <c r="M101" s="27" t="s">
+        <v>7461</v>
+      </c>
+      <c r="N101" s="27" t="s">
+        <v>7462</v>
+      </c>
+      <c r="Q101" s="27" t="s">
         <v>7463</v>
-      </c>
-      <c r="M101" s="27" t="s">
-        <v>7464</v>
-      </c>
-      <c r="N101" s="27" t="s">
-        <v>7465</v>
-      </c>
-      <c r="Q101" s="27" t="s">
-        <v>7466</v>
       </c>
       <c r="S101" s="1" t="s">
         <v>2155</v>
       </c>
       <c r="U101" s="5" t="s">
-        <v>7467</v>
+        <v>7464</v>
       </c>
       <c r="V101" s="27" t="s">
-        <v>7468</v>
+        <v>7465</v>
       </c>
       <c r="X101" s="27" t="s">
-        <v>7311</v>
+        <v>7308</v>
       </c>
       <c r="Z101" s="27" t="s">
-        <v>7469</v>
+        <v>7466</v>
       </c>
       <c r="AA101" s="6" t="s">
         <v>2156</v>
@@ -30382,37 +30496,37 @@
         <v>2030</v>
       </c>
       <c r="I102" s="5" t="s">
-        <v>7258</v>
+        <v>7255</v>
       </c>
       <c r="J102" s="28" t="s">
-        <v>7257</v>
+        <v>7254</v>
       </c>
       <c r="M102" s="24" t="s">
-        <v>7256</v>
+        <v>7253</v>
       </c>
       <c r="N102" s="1" t="s">
-        <v>7120</v>
+        <v>7117</v>
       </c>
       <c r="Q102" s="24" t="s">
-        <v>7256</v>
+        <v>7253</v>
       </c>
       <c r="S102" s="27" t="s">
-        <v>7876</v>
+        <v>7872</v>
       </c>
       <c r="U102" s="24" t="s">
-        <v>7256</v>
+        <v>7253</v>
       </c>
       <c r="V102" s="24" t="s">
-        <v>7256</v>
+        <v>7253</v>
       </c>
       <c r="X102" s="24" t="s">
-        <v>7256</v>
+        <v>7253</v>
       </c>
       <c r="Z102" s="24" t="s">
-        <v>7256</v>
+        <v>7253</v>
       </c>
       <c r="AA102" s="24" t="s">
-        <v>7256</v>
+        <v>7253</v>
       </c>
     </row>
     <row r="103" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
@@ -30432,7 +30546,7 @@
         <v>2159</v>
       </c>
       <c r="N103" s="1" t="s">
-        <v>7121</v>
+        <v>7118</v>
       </c>
       <c r="Q103" s="1" t="s">
         <v>2160</v>
@@ -30473,7 +30587,7 @@
         <v>2166</v>
       </c>
       <c r="N104" s="1" t="s">
-        <v>7122</v>
+        <v>7119</v>
       </c>
       <c r="Q104" s="1" t="s">
         <v>2167</v>
@@ -30482,7 +30596,7 @@
         <v>2907</v>
       </c>
       <c r="U104" s="4" t="s">
-        <v>7182</v>
+        <v>7179</v>
       </c>
       <c r="V104" s="1" t="s">
         <v>6224</v>
@@ -30514,7 +30628,7 @@
         <v>2171</v>
       </c>
       <c r="N105" s="1" t="s">
-        <v>7123</v>
+        <v>7120</v>
       </c>
       <c r="Q105" s="1" t="s">
         <v>2171</v>
@@ -30696,7 +30810,7 @@
         <v>1940</v>
       </c>
       <c r="N109" s="1" t="s">
-        <v>7124</v>
+        <v>7121</v>
       </c>
       <c r="Q109" s="4" t="s">
         <v>1506</v>
@@ -30737,7 +30851,7 @@
         <v>1941</v>
       </c>
       <c r="N110" s="1" t="s">
-        <v>7125</v>
+        <v>7122</v>
       </c>
       <c r="Q110" s="1" t="s">
         <v>1408</v>
@@ -30778,7 +30892,7 @@
         <v>1942</v>
       </c>
       <c r="N111" s="1" t="s">
-        <v>7126</v>
+        <v>7123</v>
       </c>
       <c r="Q111" s="1" t="s">
         <v>1409</v>
@@ -30819,7 +30933,7 @@
         <v>1943</v>
       </c>
       <c r="N112" s="1" t="s">
-        <v>7127</v>
+        <v>7124</v>
       </c>
       <c r="Q112" s="1" t="s">
         <v>969</v>
@@ -31057,7 +31171,7 @@
         <v>1944</v>
       </c>
       <c r="N116" s="1" t="s">
-        <v>7103</v>
+        <v>7100</v>
       </c>
       <c r="O116" s="1"/>
       <c r="P116" s="1"/>
@@ -31113,7 +31227,7 @@
         <v>1945</v>
       </c>
       <c r="N117" s="1" t="s">
-        <v>7104</v>
+        <v>7101</v>
       </c>
       <c r="O117" s="1"/>
       <c r="P117" s="1"/>
@@ -31169,7 +31283,7 @@
         <v>1946</v>
       </c>
       <c r="N118" s="1" t="s">
-        <v>7105</v>
+        <v>7102</v>
       </c>
       <c r="O118" s="1"/>
       <c r="P118" s="1"/>
@@ -31225,7 +31339,7 @@
         <v>1947</v>
       </c>
       <c r="N119" s="1" t="s">
-        <v>7106</v>
+        <v>7103</v>
       </c>
       <c r="O119" s="1"/>
       <c r="P119" s="1"/>
@@ -31281,7 +31395,7 @@
         <v>1948</v>
       </c>
       <c r="N120" s="1" t="s">
-        <v>7107</v>
+        <v>7104</v>
       </c>
       <c r="O120" s="1"/>
       <c r="P120" s="1"/>
@@ -31337,7 +31451,7 @@
         <v>1949</v>
       </c>
       <c r="N121" s="1" t="s">
-        <v>7108</v>
+        <v>7105</v>
       </c>
       <c r="O121" s="1"/>
       <c r="P121" s="1"/>
@@ -31393,7 +31507,7 @@
         <v>1950</v>
       </c>
       <c r="N122" s="1" t="s">
-        <v>7109</v>
+        <v>7106</v>
       </c>
       <c r="O122" s="1"/>
       <c r="P122" s="1"/>
@@ -31449,7 +31563,7 @@
         <v>1951</v>
       </c>
       <c r="N123" s="1" t="s">
-        <v>7110</v>
+        <v>7107</v>
       </c>
       <c r="O123" s="1"/>
       <c r="P123" s="1"/>
@@ -31505,7 +31619,7 @@
         <v>2538</v>
       </c>
       <c r="N124" s="1" t="s">
-        <v>7111</v>
+        <v>7108</v>
       </c>
       <c r="O124" s="1"/>
       <c r="P124" s="1"/>
@@ -31561,7 +31675,7 @@
         <v>1008</v>
       </c>
       <c r="N125" s="1" t="s">
-        <v>7112</v>
+        <v>7109</v>
       </c>
       <c r="O125" s="1"/>
       <c r="P125" s="1"/>
@@ -31675,7 +31789,7 @@
         <v>1018</v>
       </c>
       <c r="N127" s="1" t="s">
-        <v>7113</v>
+        <v>7110</v>
       </c>
       <c r="O127" s="1"/>
       <c r="P127" s="1"/>
@@ -31733,7 +31847,7 @@
         <v>1953</v>
       </c>
       <c r="N128" s="1" t="s">
-        <v>7114</v>
+        <v>7111</v>
       </c>
       <c r="O128" s="1"/>
       <c r="P128" s="1"/>
@@ -31789,7 +31903,7 @@
         <v>1954</v>
       </c>
       <c r="N129" s="1" t="s">
-        <v>7115</v>
+        <v>7112</v>
       </c>
       <c r="O129" s="1"/>
       <c r="P129" s="1"/>
@@ -31843,7 +31957,7 @@
         <v>1955</v>
       </c>
       <c r="N130" s="1" t="s">
-        <v>7116</v>
+        <v>7113</v>
       </c>
       <c r="O130" s="1"/>
       <c r="P130" s="1"/>
@@ -31897,7 +32011,7 @@
         <v>1956</v>
       </c>
       <c r="N131" s="1" t="s">
-        <v>7117</v>
+        <v>7114</v>
       </c>
       <c r="O131" s="1"/>
       <c r="P131" s="1"/>
@@ -31982,7 +32096,7 @@
       </c>
       <c r="AB132" s="1"/>
     </row>
-    <row r="133" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:28" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>130</v>
       </c>
@@ -32071,7 +32185,7 @@
         <v>1959</v>
       </c>
       <c r="N134" s="1" t="s">
-        <v>7118</v>
+        <v>7115</v>
       </c>
       <c r="O134" s="1"/>
       <c r="P134" s="1"/>
@@ -32316,7 +32430,7 @@
         <v>1960</v>
       </c>
       <c r="N138" s="1" t="s">
-        <v>7088</v>
+        <v>7085</v>
       </c>
       <c r="O138" s="1"/>
       <c r="P138" s="1"/>
@@ -32372,7 +32486,7 @@
         <v>1961</v>
       </c>
       <c r="N139" s="1" t="s">
-        <v>7089</v>
+        <v>7086</v>
       </c>
       <c r="O139" s="1"/>
       <c r="P139" s="1"/>
@@ -32426,7 +32540,7 @@
         <v>1962</v>
       </c>
       <c r="N140" s="1" t="s">
-        <v>7090</v>
+        <v>7087</v>
       </c>
       <c r="O140" s="1"/>
       <c r="P140" s="1"/>
@@ -32511,7 +32625,7 @@
       </c>
       <c r="AB141" s="1"/>
     </row>
-    <row r="142" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:28" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>139</v>
       </c>
@@ -32573,7 +32687,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="143" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:28" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>140</v>
       </c>
@@ -32603,7 +32717,7 @@
       <c r="K143" s="1"/>
       <c r="L143" s="1"/>
       <c r="M143" s="27" t="s">
-        <v>7344</v>
+        <v>7341</v>
       </c>
       <c r="N143" s="27" t="s">
         <v>314</v>
@@ -32637,7 +32751,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="144" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:28" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>141</v>
       </c>
@@ -32701,7 +32815,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="145" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:28" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>142</v>
       </c>
@@ -32765,7 +32879,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="146" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:28" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>143</v>
       </c>
@@ -32829,7 +32943,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="147" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:28" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>144</v>
       </c>
@@ -32862,7 +32976,7 @@
         <v>1964</v>
       </c>
       <c r="N147" s="1" t="s">
-        <v>7091</v>
+        <v>7088</v>
       </c>
       <c r="O147" s="1"/>
       <c r="P147" s="1"/>
@@ -33009,7 +33123,7 @@
         <v>1966</v>
       </c>
       <c r="N150" s="1" t="s">
-        <v>7092</v>
+        <v>7089</v>
       </c>
       <c r="Q150" s="1" t="s">
         <v>1434</v>
@@ -33050,7 +33164,7 @@
         <v>1967</v>
       </c>
       <c r="N151" s="1" t="s">
-        <v>7029</v>
+        <v>7026</v>
       </c>
       <c r="Q151" s="1" t="s">
         <v>1435</v>
@@ -33091,7 +33205,7 @@
         <v>1968</v>
       </c>
       <c r="N152" s="1" t="s">
-        <v>7093</v>
+        <v>7090</v>
       </c>
       <c r="Q152" s="1" t="s">
         <v>1436</v>
@@ -33132,7 +33246,7 @@
         <v>1437</v>
       </c>
       <c r="N153" s="1" t="s">
-        <v>7094</v>
+        <v>7091</v>
       </c>
       <c r="Q153" s="1" t="s">
         <v>1437</v>
@@ -33173,7 +33287,7 @@
         <v>1969</v>
       </c>
       <c r="N154" s="1" t="s">
-        <v>7095</v>
+        <v>7092</v>
       </c>
       <c r="Q154" s="1" t="s">
         <v>1438</v>
@@ -33217,7 +33331,7 @@
         <v>1970</v>
       </c>
       <c r="N155" s="1" t="s">
-        <v>7096</v>
+        <v>7093</v>
       </c>
       <c r="Q155" s="1" t="s">
         <v>1439</v>
@@ -33258,7 +33372,7 @@
         <v>1971</v>
       </c>
       <c r="N156" s="1" t="s">
-        <v>7097</v>
+        <v>7094</v>
       </c>
       <c r="Q156" s="1" t="s">
         <v>1440</v>
@@ -33299,7 +33413,7 @@
         <v>1972</v>
       </c>
       <c r="N157" s="1" t="s">
-        <v>7098</v>
+        <v>7095</v>
       </c>
       <c r="Q157" s="4" t="s">
         <v>1507</v>
@@ -33323,7 +33437,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="158" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>155</v>
       </c>
@@ -33343,7 +33457,7 @@
         <v>1973</v>
       </c>
       <c r="N158" s="1" t="s">
-        <v>7099</v>
+        <v>7096</v>
       </c>
       <c r="Q158" s="4" t="s">
         <v>1508</v>
@@ -33387,7 +33501,7 @@
         <v>1974</v>
       </c>
       <c r="N159" s="1" t="s">
-        <v>7100</v>
+        <v>7097</v>
       </c>
       <c r="Q159" s="4" t="s">
         <v>1509</v>
@@ -33434,7 +33548,7 @@
         <v>1975</v>
       </c>
       <c r="N160" s="1" t="s">
-        <v>7101</v>
+        <v>7098</v>
       </c>
       <c r="Q160" s="4" t="s">
         <v>1510</v>
@@ -33475,7 +33589,7 @@
         <v>1976</v>
       </c>
       <c r="N161" s="1" t="s">
-        <v>7102</v>
+        <v>7099</v>
       </c>
       <c r="Q161" s="4" t="s">
         <v>1511</v>
@@ -33578,7 +33692,7 @@
         <v>2534</v>
       </c>
       <c r="N163" s="1" t="s">
-        <v>6920</v>
+        <v>6917</v>
       </c>
       <c r="Q163" s="1" t="s">
         <v>1441</v>
@@ -33625,7 +33739,7 @@
         <v>1977</v>
       </c>
       <c r="N164" s="1" t="s">
-        <v>7085</v>
+        <v>7082</v>
       </c>
       <c r="Q164" s="1" t="s">
         <v>1442</v>
@@ -33652,7 +33766,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="165" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>162</v>
       </c>
@@ -33713,7 +33827,7 @@
         <v>1979</v>
       </c>
       <c r="N166" s="1" t="s">
-        <v>7086</v>
+        <v>7083</v>
       </c>
       <c r="Q166" s="1" t="s">
         <v>1444</v>
@@ -33757,7 +33871,7 @@
         <v>1980</v>
       </c>
       <c r="N167" s="1" t="s">
-        <v>7087</v>
+        <v>7084</v>
       </c>
       <c r="Q167" s="1" t="s">
         <v>1445</v>
@@ -33851,7 +33965,7 @@
         <v>1981</v>
       </c>
       <c r="N169" s="1" t="s">
-        <v>7081</v>
+        <v>7078</v>
       </c>
       <c r="Q169" s="1" t="s">
         <v>1446</v>
@@ -33892,7 +34006,7 @@
         <v>1982</v>
       </c>
       <c r="N170" s="1" t="s">
-        <v>7082</v>
+        <v>7079</v>
       </c>
       <c r="Q170" s="1" t="s">
         <v>1447</v>
@@ -33933,7 +34047,7 @@
         <v>1953</v>
       </c>
       <c r="N171" s="1" t="s">
-        <v>6972</v>
+        <v>6969</v>
       </c>
       <c r="Q171" s="1" t="s">
         <v>1448</v>
@@ -33974,7 +34088,7 @@
         <v>2707</v>
       </c>
       <c r="N172" s="1" t="s">
-        <v>7083</v>
+        <v>7080</v>
       </c>
       <c r="Q172" s="4" t="s">
         <v>2562</v>
@@ -34053,7 +34167,7 @@
         <v>1984</v>
       </c>
       <c r="N174" s="1" t="s">
-        <v>7084</v>
+        <v>7081</v>
       </c>
       <c r="Q174" s="4" t="s">
         <v>1450</v>
@@ -34652,7 +34766,7 @@
         <v>1985</v>
       </c>
       <c r="N184" s="1" t="s">
-        <v>7080</v>
+        <v>7077</v>
       </c>
       <c r="Q184" s="1" t="s">
         <v>1451</v>
@@ -34941,7 +35055,7 @@
         <v>1986</v>
       </c>
       <c r="N189" s="1" t="s">
-        <v>7049</v>
+        <v>7046</v>
       </c>
       <c r="Q189" s="1" t="s">
         <v>1452</v>
@@ -34967,45 +35081,45 @@
     </row>
     <row r="190" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="F190" s="26" t="s">
-        <v>7456</v>
+        <v>7453</v>
       </c>
       <c r="G190" s="27"/>
       <c r="H190" s="27"/>
       <c r="I190" s="27" t="s">
-        <v>7459</v>
+        <v>7456</v>
       </c>
       <c r="AA190" s="25"/>
     </row>
     <row r="191" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="F191" s="26" t="s">
-        <v>7455</v>
+        <v>7452</v>
       </c>
       <c r="G191" s="27"/>
       <c r="H191" s="27"/>
       <c r="I191" s="27" t="s">
-        <v>7460</v>
+        <v>7457</v>
       </c>
       <c r="AA191" s="25"/>
     </row>
     <row r="192" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="F192" s="26" t="s">
-        <v>7457</v>
+        <v>7454</v>
       </c>
       <c r="G192" s="27"/>
       <c r="H192" s="27"/>
       <c r="I192" s="27" t="s">
-        <v>7461</v>
+        <v>7458</v>
       </c>
       <c r="AA192" s="25"/>
     </row>
     <row r="193" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="F193" s="26" t="s">
-        <v>7458</v>
+        <v>7455</v>
       </c>
       <c r="G193" s="27"/>
       <c r="H193" s="27"/>
       <c r="I193" s="24" t="s">
-        <v>7462</v>
+        <v>7459</v>
       </c>
       <c r="AA193" s="25"/>
     </row>
@@ -35140,7 +35254,7 @@
         <v>1987</v>
       </c>
       <c r="N197" s="1" t="s">
-        <v>7050</v>
+        <v>7047</v>
       </c>
       <c r="Q197" s="4" t="s">
         <v>1478</v>
@@ -35181,7 +35295,7 @@
         <v>1988</v>
       </c>
       <c r="N198" s="1" t="s">
-        <v>7051</v>
+        <v>7048</v>
       </c>
       <c r="Q198" s="1" t="s">
         <v>1456</v>
@@ -35219,7 +35333,7 @@
         <v>1989</v>
       </c>
       <c r="N199" s="1" t="s">
-        <v>7052</v>
+        <v>7049</v>
       </c>
       <c r="Q199" s="1" t="s">
         <v>1079</v>
@@ -35257,7 +35371,7 @@
         <v>1737</v>
       </c>
       <c r="N200" s="1" t="s">
-        <v>7053</v>
+        <v>7050</v>
       </c>
       <c r="Q200" s="1" t="s">
         <v>1457</v>
@@ -35295,7 +35409,7 @@
         <v>1990</v>
       </c>
       <c r="N201" s="1" t="s">
-        <v>7054</v>
+        <v>7051</v>
       </c>
       <c r="Q201" s="1" t="s">
         <v>1458</v>
@@ -35333,7 +35447,7 @@
         <v>1991</v>
       </c>
       <c r="N202" s="1" t="s">
-        <v>7055</v>
+        <v>7052</v>
       </c>
       <c r="Q202" s="1" t="s">
         <v>1459</v>
@@ -35371,7 +35485,7 @@
         <v>1992</v>
       </c>
       <c r="N203" s="1" t="s">
-        <v>7056</v>
+        <v>7053</v>
       </c>
       <c r="Q203" s="1" t="s">
         <v>1460</v>
@@ -35409,7 +35523,7 @@
         <v>1993</v>
       </c>
       <c r="N204" s="1" t="s">
-        <v>7057</v>
+        <v>7054</v>
       </c>
       <c r="Q204" s="1" t="s">
         <v>1461</v>
@@ -35447,7 +35561,7 @@
         <v>1739</v>
       </c>
       <c r="N205" s="1" t="s">
-        <v>7058</v>
+        <v>7055</v>
       </c>
       <c r="Q205" s="1" t="s">
         <v>1462</v>
@@ -35485,7 +35599,7 @@
         <v>1994</v>
       </c>
       <c r="N206" s="1" t="s">
-        <v>7059</v>
+        <v>7056</v>
       </c>
       <c r="Q206" s="1" t="s">
         <v>1463</v>
@@ -35526,7 +35640,7 @@
         <v>1995</v>
       </c>
       <c r="N207" s="1" t="s">
-        <v>7060</v>
+        <v>7057</v>
       </c>
       <c r="Q207" s="1" t="s">
         <v>1464</v>
@@ -35602,7 +35716,7 @@
         <v>1997</v>
       </c>
       <c r="N209" s="1" t="s">
-        <v>7061</v>
+        <v>7058</v>
       </c>
       <c r="Q209" s="1" t="s">
         <v>1398</v>
@@ -35640,7 +35754,7 @@
         <v>2188</v>
       </c>
       <c r="N210" s="1" t="s">
-        <v>7062</v>
+        <v>7059</v>
       </c>
       <c r="Q210" s="1" t="s">
         <v>2189</v>
@@ -35678,7 +35792,7 @@
         <v>2194</v>
       </c>
       <c r="N211" s="1" t="s">
-        <v>7063</v>
+        <v>7060</v>
       </c>
       <c r="Q211" s="1" t="s">
         <v>2195</v>
@@ -35716,7 +35830,7 @@
         <v>1998</v>
       </c>
       <c r="N212" s="1" t="s">
-        <v>7064</v>
+        <v>7061</v>
       </c>
       <c r="Q212" s="1" t="s">
         <v>1466</v>
@@ -35754,7 +35868,7 @@
         <v>1999</v>
       </c>
       <c r="N213" s="1" t="s">
-        <v>7065</v>
+        <v>7062</v>
       </c>
       <c r="Q213" s="1" t="s">
         <v>1467</v>
@@ -35792,7 +35906,7 @@
         <v>2200</v>
       </c>
       <c r="N214" s="1" t="s">
-        <v>7066</v>
+        <v>7063</v>
       </c>
       <c r="Q214" s="1" t="s">
         <v>2201</v>
@@ -35830,7 +35944,7 @@
         <v>2206</v>
       </c>
       <c r="N215" s="1" t="s">
-        <v>7067</v>
+        <v>7064</v>
       </c>
       <c r="Q215" s="4" t="s">
         <v>2207</v>
@@ -35868,7 +35982,7 @@
         <v>2212</v>
       </c>
       <c r="N216" s="1" t="s">
-        <v>7068</v>
+        <v>7065</v>
       </c>
       <c r="Q216" s="1" t="s">
         <v>2213</v>
@@ -35906,7 +36020,7 @@
         <v>2218</v>
       </c>
       <c r="N217" s="1" t="s">
-        <v>7069</v>
+        <v>7066</v>
       </c>
       <c r="Q217" s="1" t="s">
         <v>2219</v>
@@ -35944,7 +36058,7 @@
         <v>2000</v>
       </c>
       <c r="N218" s="1" t="s">
-        <v>7070</v>
+        <v>7067</v>
       </c>
       <c r="Q218" s="4" t="s">
         <v>1477</v>
@@ -35982,7 +36096,7 @@
         <v>2001</v>
       </c>
       <c r="N219" s="1" t="s">
-        <v>7071</v>
+        <v>7068</v>
       </c>
       <c r="Q219" s="1" t="s">
         <v>1468</v>
@@ -36020,7 +36134,7 @@
         <v>2002</v>
       </c>
       <c r="N220" s="1" t="s">
-        <v>7072</v>
+        <v>7069</v>
       </c>
       <c r="Q220" s="1" t="s">
         <v>1469</v>
@@ -36058,7 +36172,7 @@
         <v>2003</v>
       </c>
       <c r="N221" s="1" t="s">
-        <v>7073</v>
+        <v>7070</v>
       </c>
       <c r="Q221" s="1" t="s">
         <v>1470</v>
@@ -36096,7 +36210,7 @@
         <v>2004</v>
       </c>
       <c r="N222" s="1" t="s">
-        <v>7074</v>
+        <v>7071</v>
       </c>
       <c r="Q222" s="1" t="s">
         <v>1471</v>
@@ -36134,7 +36248,7 @@
         <v>2005</v>
       </c>
       <c r="N223" s="1" t="s">
-        <v>7075</v>
+        <v>7072</v>
       </c>
       <c r="Q223" s="1" t="s">
         <v>1472</v>
@@ -36172,7 +36286,7 @@
         <v>2006</v>
       </c>
       <c r="N224" s="1" t="s">
-        <v>7076</v>
+        <v>7073</v>
       </c>
       <c r="Q224" s="1" t="s">
         <v>1473</v>
@@ -36210,7 +36324,7 @@
         <v>2007</v>
       </c>
       <c r="N225" s="1" t="s">
-        <v>7077</v>
+        <v>7074</v>
       </c>
       <c r="Q225" s="1" t="s">
         <v>1474</v>
@@ -36248,7 +36362,7 @@
         <v>2008</v>
       </c>
       <c r="N226" s="1" t="s">
-        <v>7078</v>
+        <v>7075</v>
       </c>
       <c r="Q226" s="1" t="s">
         <v>1475</v>
@@ -36286,7 +36400,7 @@
         <v>2009</v>
       </c>
       <c r="N227" s="1" t="s">
-        <v>7079</v>
+        <v>7076</v>
       </c>
       <c r="Q227" s="1" t="s">
         <v>1476</v>
@@ -36307,7 +36421,7 @@
         <v>1675</v>
       </c>
     </row>
-    <row r="228" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>221</v>
       </c>
@@ -36368,13 +36482,13 @@
         <v>2590</v>
       </c>
       <c r="J229" s="24" t="s">
-        <v>7424</v>
+        <v>7421</v>
       </c>
       <c r="M229" s="4" t="s">
         <v>2727</v>
       </c>
       <c r="N229" s="4" t="s">
-        <v>7038</v>
+        <v>7035</v>
       </c>
       <c r="Q229" s="4"/>
       <c r="R229" s="4"/>
@@ -36394,7 +36508,7 @@
       </c>
       <c r="AB229" s="4"/>
     </row>
-    <row r="230" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>223</v>
       </c>
@@ -36414,7 +36528,7 @@
         <v>2098</v>
       </c>
       <c r="N230" s="1" t="s">
-        <v>7039</v>
+        <v>7036</v>
       </c>
       <c r="S230" s="1" t="s">
         <v>2936</v>
@@ -36432,7 +36546,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="231" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>224</v>
       </c>
@@ -36452,7 +36566,7 @@
         <v>2099</v>
       </c>
       <c r="N231" s="1" t="s">
-        <v>7040</v>
+        <v>7037</v>
       </c>
       <c r="S231" s="1" t="s">
         <v>2937</v>
@@ -36461,7 +36575,7 @@
         <v>6487</v>
       </c>
       <c r="V231" s="27" t="s">
-        <v>7877</v>
+        <v>7873</v>
       </c>
       <c r="Z231" s="4" t="s">
         <v>2093</v>
@@ -36481,13 +36595,13 @@
         <v>2588</v>
       </c>
       <c r="J232" s="27" t="s">
-        <v>7426</v>
+        <v>7423</v>
       </c>
       <c r="M232" s="4" t="s">
         <v>2728</v>
       </c>
       <c r="N232" s="4" t="s">
-        <v>7041</v>
+        <v>7038</v>
       </c>
       <c r="Q232" s="4"/>
       <c r="R232" s="4"/>
@@ -36518,13 +36632,13 @@
         <v>2594</v>
       </c>
       <c r="J233" s="27" t="s">
-        <v>7425</v>
+        <v>7422</v>
       </c>
       <c r="M233" s="4" t="s">
         <v>2729</v>
       </c>
       <c r="N233" s="4" t="s">
-        <v>7042</v>
+        <v>7039</v>
       </c>
       <c r="Q233" s="4"/>
       <c r="R233" s="4"/>
@@ -36561,7 +36675,7 @@
         <v>2730</v>
       </c>
       <c r="N234" s="1" t="s">
-        <v>7043</v>
+        <v>7040</v>
       </c>
       <c r="S234" s="1" t="s">
         <v>2940</v>
@@ -36617,7 +36731,7 @@
       </c>
       <c r="AB235" s="5"/>
     </row>
-    <row r="236" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>229</v>
       </c>
@@ -36637,7 +36751,7 @@
         <v>2012</v>
       </c>
       <c r="N236" s="1" t="s">
-        <v>7044</v>
+        <v>7041</v>
       </c>
       <c r="S236" s="1" t="s">
         <v>2942</v>
@@ -36666,13 +36780,13 @@
         <v>1530</v>
       </c>
       <c r="J237" s="27" t="s">
-        <v>7541</v>
+        <v>7537</v>
       </c>
       <c r="M237" s="27" t="s">
         <v>2013</v>
       </c>
       <c r="N237" s="27" t="s">
-        <v>7481</v>
+        <v>7478</v>
       </c>
       <c r="S237" s="1" t="s">
         <v>2943</v>
@@ -36698,13 +36812,13 @@
         <v>1528</v>
       </c>
       <c r="J238" s="24" t="s">
-        <v>7545</v>
+        <v>7541</v>
       </c>
       <c r="M238" s="27" t="s">
         <v>2014</v>
       </c>
       <c r="N238" s="1" t="s">
-        <v>7045</v>
+        <v>7042</v>
       </c>
       <c r="S238" s="1" t="s">
         <v>2944</v>
@@ -36730,13 +36844,13 @@
         <v>1532</v>
       </c>
       <c r="J239" s="24" t="s">
-        <v>7546</v>
+        <v>7542</v>
       </c>
       <c r="M239" s="27" t="s">
         <v>2015</v>
       </c>
       <c r="N239" s="1" t="s">
-        <v>7046</v>
+        <v>7043</v>
       </c>
       <c r="S239" s="1" t="s">
         <v>2945</v>
@@ -36768,7 +36882,7 @@
         <v>2016</v>
       </c>
       <c r="N240" s="1" t="s">
-        <v>7047</v>
+        <v>7044</v>
       </c>
       <c r="Q240" s="4" t="s">
         <v>2473</v>
@@ -36794,28 +36908,28 @@
         <v>1699</v>
       </c>
       <c r="I241" s="4" t="s">
-        <v>7217</v>
+        <v>7214</v>
       </c>
       <c r="J241" s="4" t="s">
-        <v>7543</v>
+        <v>7539</v>
       </c>
       <c r="M241" s="27" t="s">
-        <v>7218</v>
+        <v>7215</v>
       </c>
       <c r="N241" s="27" t="s">
-        <v>7219</v>
+        <v>7216</v>
       </c>
       <c r="S241" s="1" t="s">
         <v>2947</v>
       </c>
       <c r="U241" s="27" t="s">
-        <v>7220</v>
+        <v>7217</v>
       </c>
       <c r="V241" s="27" t="s">
-        <v>7221</v>
+        <v>7218</v>
       </c>
       <c r="AA241" s="6" t="s">
-        <v>7222</v>
+        <v>7219</v>
       </c>
     </row>
     <row r="242" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
@@ -36826,25 +36940,25 @@
         <v>1700</v>
       </c>
       <c r="I242" s="4" t="s">
-        <v>7212</v>
+        <v>7209</v>
       </c>
       <c r="J242" s="4" t="s">
-        <v>7544</v>
+        <v>7540</v>
       </c>
       <c r="M242" s="27" t="s">
-        <v>7213</v>
+        <v>7210</v>
       </c>
       <c r="N242" s="27" t="s">
-        <v>7214</v>
+        <v>7211</v>
       </c>
       <c r="S242" s="1" t="s">
         <v>2944</v>
       </c>
       <c r="U242" s="27" t="s">
-        <v>7215</v>
+        <v>7212</v>
       </c>
       <c r="V242" s="27" t="s">
-        <v>7216</v>
+        <v>7213</v>
       </c>
       <c r="AA242" s="6" t="s">
         <v>6670</v>
@@ -36867,7 +36981,7 @@
         <v>2017</v>
       </c>
       <c r="N243" s="1" t="s">
-        <v>7048</v>
+        <v>7045</v>
       </c>
       <c r="S243" s="1" t="s">
         <v>2948</v>
@@ -37007,7 +37121,7 @@
         <v>2019</v>
       </c>
       <c r="N247" s="1" t="s">
-        <v>7034</v>
+        <v>7031</v>
       </c>
       <c r="S247" s="1" t="s">
         <v>2950</v>
@@ -37039,7 +37153,7 @@
         <v>1003</v>
       </c>
       <c r="N248" s="1" t="s">
-        <v>7035</v>
+        <v>7032</v>
       </c>
       <c r="S248" s="1" t="s">
         <v>1002</v>
@@ -37071,7 +37185,7 @@
         <v>2020</v>
       </c>
       <c r="N249" s="1" t="s">
-        <v>7036</v>
+        <v>7033</v>
       </c>
       <c r="S249" s="1" t="s">
         <v>2951</v>
@@ -37103,7 +37217,7 @@
         <v>2021</v>
       </c>
       <c r="N250" s="27" t="s">
-        <v>7037</v>
+        <v>7034</v>
       </c>
       <c r="S250" s="1" t="s">
         <v>2952</v>
@@ -37138,7 +37252,7 @@
         <v>1687</v>
       </c>
       <c r="R251" s="27" t="s">
-        <v>7856</v>
+        <v>7852</v>
       </c>
       <c r="S251" s="1" t="s">
         <v>2889</v>
@@ -37146,7 +37260,7 @@
       <c r="U251" s="27" t="s">
         <v>1685</v>
       </c>
-      <c r="V251" s="1" t="s">
+      <c r="V251" s="27" t="s">
         <v>1685</v>
       </c>
       <c r="AA251" s="4" t="s">
@@ -37205,7 +37319,7 @@
         <v>1114</v>
       </c>
       <c r="R253" s="27" t="s">
-        <v>7870</v>
+        <v>7866</v>
       </c>
       <c r="S253" s="1" t="s">
         <v>1769</v>
@@ -37237,7 +37351,7 @@
         <v>1967</v>
       </c>
       <c r="N254" s="1" t="s">
-        <v>7029</v>
+        <v>7026</v>
       </c>
       <c r="S254" s="1" t="s">
         <v>2954</v>
@@ -37269,7 +37383,7 @@
         <v>1003</v>
       </c>
       <c r="N255" s="1" t="s">
-        <v>7030</v>
+        <v>7027</v>
       </c>
       <c r="S255" s="1" t="s">
         <v>1002</v>
@@ -37301,7 +37415,7 @@
         <v>2023</v>
       </c>
       <c r="N256" s="1" t="s">
-        <v>7031</v>
+        <v>7028</v>
       </c>
       <c r="S256" s="1" t="s">
         <v>2955</v>
@@ -37336,7 +37450,7 @@
         <v>2024</v>
       </c>
       <c r="N257" s="1" t="s">
-        <v>7032</v>
+        <v>7029</v>
       </c>
       <c r="S257" s="1" t="s">
         <v>2956</v>
@@ -37400,7 +37514,7 @@
         <v>2039</v>
       </c>
       <c r="N259" s="1" t="s">
-        <v>7033</v>
+        <v>7030</v>
       </c>
       <c r="S259" s="1" t="s">
         <v>2958</v>
@@ -37438,7 +37552,7 @@
         <v>2043</v>
       </c>
       <c r="N260" s="4" t="s">
-        <v>7178</v>
+        <v>7175</v>
       </c>
       <c r="O260" s="4" t="s">
         <v>2050</v>
@@ -37511,7 +37625,7 @@
         <v>6680</v>
       </c>
     </row>
-    <row r="262" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>255</v>
       </c>
@@ -37531,7 +37645,7 @@
         <v>2085</v>
       </c>
       <c r="N262" s="1" t="s">
-        <v>7009</v>
+        <v>7006</v>
       </c>
       <c r="Q262" s="4" t="s">
         <v>2044</v>
@@ -37566,13 +37680,13 @@
         <v>2582</v>
       </c>
       <c r="J263" s="24" t="s">
-        <v>7427</v>
+        <v>7424</v>
       </c>
       <c r="M263" s="1" t="s">
         <v>2733</v>
       </c>
       <c r="N263" s="1" t="s">
-        <v>7010</v>
+        <v>7007</v>
       </c>
       <c r="S263" s="1" t="s">
         <v>2961</v>
@@ -37598,13 +37712,13 @@
         <v>2638</v>
       </c>
       <c r="J264" s="24" t="s">
-        <v>7428</v>
+        <v>7425</v>
       </c>
       <c r="M264" s="1" t="s">
         <v>2734</v>
       </c>
       <c r="N264" s="1" t="s">
-        <v>7011</v>
+        <v>7008</v>
       </c>
       <c r="S264" s="1" t="s">
         <v>2962</v>
@@ -37630,13 +37744,13 @@
         <v>2580</v>
       </c>
       <c r="J265" s="24" t="s">
-        <v>7480</v>
+        <v>7477</v>
       </c>
       <c r="M265" s="1" t="s">
         <v>2735</v>
       </c>
       <c r="N265" s="1" t="s">
-        <v>7012</v>
+        <v>7009</v>
       </c>
       <c r="S265" s="1" t="s">
         <v>2963</v>
@@ -37651,7 +37765,7 @@
         <v>6683</v>
       </c>
     </row>
-    <row r="266" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>259</v>
       </c>
@@ -37671,7 +37785,7 @@
         <v>2736</v>
       </c>
       <c r="N266" s="1" t="s">
-        <v>7013</v>
+        <v>7010</v>
       </c>
       <c r="S266" s="1" t="s">
         <v>2964</v>
@@ -37689,7 +37803,7 @@
         <v>6684</v>
       </c>
     </row>
-    <row r="267" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>260</v>
       </c>
@@ -37709,7 +37823,7 @@
         <v>2737</v>
       </c>
       <c r="N267" s="1" t="s">
-        <v>7014</v>
+        <v>7011</v>
       </c>
       <c r="Q267" s="4"/>
       <c r="R267" s="5"/>
@@ -37731,7 +37845,7 @@
       </c>
       <c r="AB267" s="5"/>
     </row>
-    <row r="268" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>261</v>
       </c>
@@ -37751,7 +37865,7 @@
         <v>2738</v>
       </c>
       <c r="N268" s="1" t="s">
-        <v>7015</v>
+        <v>7012</v>
       </c>
       <c r="Q268" s="4"/>
       <c r="R268" s="5"/>
@@ -37793,7 +37907,7 @@
         <v>2739</v>
       </c>
       <c r="N269" s="1" t="s">
-        <v>7016</v>
+        <v>7013</v>
       </c>
       <c r="S269" s="1" t="s">
         <v>2967</v>
@@ -37831,7 +37945,7 @@
         <v>2740</v>
       </c>
       <c r="N270" s="1" t="s">
-        <v>7017</v>
+        <v>7014</v>
       </c>
       <c r="S270" s="1" t="s">
         <v>2968</v>
@@ -37849,7 +37963,7 @@
         <v>6688</v>
       </c>
     </row>
-    <row r="271" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>264</v>
       </c>
@@ -37890,7 +38004,7 @@
         <v>6689</v>
       </c>
     </row>
-    <row r="272" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>265</v>
       </c>
@@ -37910,7 +38024,7 @@
         <v>2128</v>
       </c>
       <c r="N272" s="1" t="s">
-        <v>7018</v>
+        <v>7015</v>
       </c>
       <c r="S272" s="1" t="s">
         <v>2970</v>
@@ -37931,7 +38045,7 @@
         <v>2132</v>
       </c>
     </row>
-    <row r="273" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>266</v>
       </c>
@@ -37951,34 +38065,34 @@
         <v>2140</v>
       </c>
       <c r="I273" s="4" t="s">
+        <v>7884</v>
+      </c>
+      <c r="J273" s="4" t="s">
+        <v>7885</v>
+      </c>
+      <c r="M273" s="4" t="s">
+        <v>7886</v>
+      </c>
+      <c r="N273" s="27" t="s">
+        <v>7887</v>
+      </c>
+      <c r="Q273" s="4" t="s">
         <v>7888</v>
       </c>
-      <c r="J273" s="4" t="s">
+      <c r="S273" s="27" t="s">
         <v>7889</v>
       </c>
-      <c r="M273" s="4" t="s">
+      <c r="U273" s="4" t="s">
         <v>7890</v>
       </c>
-      <c r="N273" s="27" t="s">
+      <c r="V273" s="27" t="s">
         <v>7891</v>
       </c>
-      <c r="Q273" s="4" t="s">
+      <c r="Z273" s="4" t="s">
         <v>7892</v>
       </c>
-      <c r="S273" s="27" t="s">
+      <c r="AA273" s="6" t="s">
         <v>7893</v>
-      </c>
-      <c r="U273" s="4" t="s">
-        <v>7894</v>
-      </c>
-      <c r="V273" s="27" t="s">
-        <v>7895</v>
-      </c>
-      <c r="Z273" s="4" t="s">
-        <v>7896</v>
-      </c>
-      <c r="AA273" s="6" t="s">
-        <v>7897</v>
       </c>
       <c r="AB273" s="4" t="s">
         <v>2139</v>
@@ -38001,7 +38115,7 @@
         <v>2741</v>
       </c>
       <c r="N274" s="1" t="s">
-        <v>7019</v>
+        <v>7016</v>
       </c>
       <c r="S274" s="1" t="s">
         <v>2971</v>
@@ -38030,7 +38144,7 @@
         <v>2860</v>
       </c>
       <c r="N275" s="1" t="s">
-        <v>7020</v>
+        <v>7017</v>
       </c>
       <c r="S275" s="1" t="s">
         <v>2972</v>
@@ -38062,7 +38176,7 @@
         <v>2742</v>
       </c>
       <c r="N276" s="1" t="s">
-        <v>7021</v>
+        <v>7018</v>
       </c>
       <c r="S276" s="1" t="s">
         <v>2973</v>
@@ -38094,7 +38208,7 @@
         <v>2743</v>
       </c>
       <c r="N277" s="1" t="s">
-        <v>7022</v>
+        <v>7019</v>
       </c>
       <c r="S277" s="1" t="s">
         <v>2974</v>
@@ -38158,7 +38272,7 @@
         <v>2745</v>
       </c>
       <c r="N279" s="1" t="s">
-        <v>7023</v>
+        <v>7020</v>
       </c>
       <c r="S279" s="1" t="s">
         <v>2976</v>
@@ -38190,7 +38304,7 @@
         <v>2746</v>
       </c>
       <c r="N280" s="1" t="s">
-        <v>7024</v>
+        <v>7021</v>
       </c>
       <c r="S280" s="1" t="s">
         <v>2977</v>
@@ -38222,7 +38336,7 @@
         <v>2747</v>
       </c>
       <c r="N281" s="1" t="s">
-        <v>7025</v>
+        <v>7022</v>
       </c>
       <c r="S281" s="1" t="s">
         <v>2978</v>
@@ -38254,7 +38368,7 @@
         <v>2748</v>
       </c>
       <c r="N282" s="1" t="s">
-        <v>7026</v>
+        <v>7023</v>
       </c>
       <c r="S282" s="1" t="s">
         <v>2979</v>
@@ -38286,7 +38400,7 @@
         <v>2749</v>
       </c>
       <c r="N283" s="1" t="s">
-        <v>7027</v>
+        <v>7024</v>
       </c>
       <c r="S283" s="1" t="s">
         <v>2980</v>
@@ -38312,13 +38426,13 @@
         <v>2395</v>
       </c>
       <c r="J284" s="27" t="s">
-        <v>7420</v>
+        <v>7417</v>
       </c>
       <c r="M284" s="1" t="s">
         <v>2750</v>
       </c>
       <c r="N284" s="1" t="s">
-        <v>7028</v>
+        <v>7025</v>
       </c>
       <c r="S284" s="1" t="s">
         <v>2981</v>
@@ -38392,7 +38506,7 @@
         <v>2751</v>
       </c>
       <c r="N286" s="1" t="s">
-        <v>6968</v>
+        <v>6965</v>
       </c>
       <c r="S286" s="1" t="s">
         <v>2983</v>
@@ -38424,7 +38538,7 @@
         <v>2752</v>
       </c>
       <c r="N287" s="1" t="s">
-        <v>6969</v>
+        <v>6966</v>
       </c>
       <c r="S287" s="1" t="s">
         <v>2984</v>
@@ -38456,7 +38570,7 @@
         <v>2753</v>
       </c>
       <c r="N288" s="1" t="s">
-        <v>6970</v>
+        <v>6967</v>
       </c>
       <c r="S288" s="1" t="s">
         <v>2985</v>
@@ -38482,13 +38596,13 @@
         <v>2270</v>
       </c>
       <c r="J289" s="27" t="s">
-        <v>7421</v>
+        <v>7418</v>
       </c>
       <c r="M289" s="1" t="s">
         <v>2754</v>
       </c>
       <c r="N289" s="1" t="s">
-        <v>6971</v>
+        <v>6968</v>
       </c>
       <c r="S289" s="1" t="s">
         <v>2986</v>
@@ -38520,7 +38634,7 @@
         <v>1953</v>
       </c>
       <c r="N290" s="1" t="s">
-        <v>6972</v>
+        <v>6969</v>
       </c>
       <c r="Q290" s="1" t="s">
         <v>1448</v>
@@ -38608,7 +38722,7 @@
         <v>2274</v>
       </c>
       <c r="N292" s="1" t="s">
-        <v>6973</v>
+        <v>6970</v>
       </c>
       <c r="S292" s="1" t="s">
         <v>2987</v>
@@ -38674,7 +38788,7 @@
         <v>6131</v>
       </c>
       <c r="N294" s="1" t="s">
-        <v>6974</v>
+        <v>6971</v>
       </c>
       <c r="S294" s="27" t="s">
         <v>6133</v>
@@ -38705,7 +38819,7 @@
         <v>6132</v>
       </c>
       <c r="N295" s="1" t="s">
-        <v>6975</v>
+        <v>6972</v>
       </c>
       <c r="S295" s="27" t="s">
         <v>6134</v>
@@ -38836,7 +38950,7 @@
         <v>2755</v>
       </c>
       <c r="N299" s="1" t="s">
-        <v>6976</v>
+        <v>6973</v>
       </c>
       <c r="S299" s="27" t="s">
         <v>2991</v>
@@ -38868,7 +38982,7 @@
         <v>2756</v>
       </c>
       <c r="N300" s="1" t="s">
-        <v>6977</v>
+        <v>6974</v>
       </c>
       <c r="S300" s="1" t="s">
         <v>2992</v>
@@ -38900,7 +39014,7 @@
         <v>2757</v>
       </c>
       <c r="N301" s="1" t="s">
-        <v>6978</v>
+        <v>6975</v>
       </c>
       <c r="S301" s="1" t="s">
         <v>2993</v>
@@ -38932,7 +39046,7 @@
         <v>2758</v>
       </c>
       <c r="N302" s="1" t="s">
-        <v>6979</v>
+        <v>6976</v>
       </c>
       <c r="S302" s="1" t="s">
         <v>2994</v>
@@ -38964,7 +39078,7 @@
         <v>2759</v>
       </c>
       <c r="N303" s="1" t="s">
-        <v>6980</v>
+        <v>6977</v>
       </c>
       <c r="S303" s="1" t="s">
         <v>2995</v>
@@ -38999,7 +39113,7 @@
         <v>2760</v>
       </c>
       <c r="N304" s="1" t="s">
-        <v>6981</v>
+        <v>6978</v>
       </c>
       <c r="S304" s="1" t="s">
         <v>2996</v>
@@ -39031,7 +39145,7 @@
         <v>2761</v>
       </c>
       <c r="N305" s="1" t="s">
-        <v>6982</v>
+        <v>6979</v>
       </c>
       <c r="S305" s="1" t="s">
         <v>2997</v>
@@ -39063,7 +39177,7 @@
         <v>2762</v>
       </c>
       <c r="N306" s="1" t="s">
-        <v>6983</v>
+        <v>6980</v>
       </c>
       <c r="S306" s="1" t="s">
         <v>2998</v>
@@ -39098,7 +39212,7 @@
         <v>2763</v>
       </c>
       <c r="N307" s="1" t="s">
-        <v>6984</v>
+        <v>6981</v>
       </c>
       <c r="S307" s="1" t="s">
         <v>2999</v>
@@ -39191,7 +39305,7 @@
         <v>2765</v>
       </c>
       <c r="N310" s="1" t="s">
-        <v>6985</v>
+        <v>6982</v>
       </c>
       <c r="S310" s="1" t="s">
         <v>3001</v>
@@ -39220,7 +39334,7 @@
         <v>2766</v>
       </c>
       <c r="N311" s="1" t="s">
-        <v>6986</v>
+        <v>6983</v>
       </c>
       <c r="S311" s="1" t="s">
         <v>3002</v>
@@ -39249,7 +39363,7 @@
         <v>2767</v>
       </c>
       <c r="N312" s="1" t="s">
-        <v>6987</v>
+        <v>6984</v>
       </c>
       <c r="S312" s="1" t="s">
         <v>3003</v>
@@ -39278,7 +39392,7 @@
         <v>2768</v>
       </c>
       <c r="N313" s="1" t="s">
-        <v>6988</v>
+        <v>6985</v>
       </c>
       <c r="S313" s="1" t="s">
         <v>3004</v>
@@ -39310,7 +39424,7 @@
         <v>2769</v>
       </c>
       <c r="N314" s="1" t="s">
-        <v>6989</v>
+        <v>6986</v>
       </c>
       <c r="S314" s="1" t="s">
         <v>3005</v>
@@ -39342,7 +39456,7 @@
         <v>2770</v>
       </c>
       <c r="N315" s="1" t="s">
-        <v>6990</v>
+        <v>6987</v>
       </c>
       <c r="S315" s="1" t="s">
         <v>3006</v>
@@ -39374,7 +39488,7 @@
         <v>2771</v>
       </c>
       <c r="N316" s="1" t="s">
-        <v>6991</v>
+        <v>6988</v>
       </c>
       <c r="S316" s="1" t="s">
         <v>3007</v>
@@ -39406,7 +39520,7 @@
         <v>2772</v>
       </c>
       <c r="N317" s="1" t="s">
-        <v>6992</v>
+        <v>6989</v>
       </c>
       <c r="S317" s="1" t="s">
         <v>3008</v>
@@ -39438,7 +39552,7 @@
         <v>2773</v>
       </c>
       <c r="N318" s="1" t="s">
-        <v>6993</v>
+        <v>6990</v>
       </c>
       <c r="S318" s="1" t="s">
         <v>3009</v>
@@ -39470,7 +39584,7 @@
         <v>2774</v>
       </c>
       <c r="N319" s="1" t="s">
-        <v>6994</v>
+        <v>6991</v>
       </c>
       <c r="S319" s="1" t="s">
         <v>3010</v>
@@ -39502,7 +39616,7 @@
         <v>2775</v>
       </c>
       <c r="N320" s="1" t="s">
-        <v>6995</v>
+        <v>6992</v>
       </c>
       <c r="S320" s="1" t="s">
         <v>3011</v>
@@ -39534,7 +39648,7 @@
         <v>2776</v>
       </c>
       <c r="N321" s="1" t="s">
-        <v>6996</v>
+        <v>6993</v>
       </c>
       <c r="S321" s="1" t="s">
         <v>3012</v>
@@ -39557,28 +39671,28 @@
         <v>2636</v>
       </c>
       <c r="I322" s="4" t="s">
+        <v>7875</v>
+      </c>
+      <c r="J322" s="27" t="s">
+        <v>7876</v>
+      </c>
+      <c r="M322" s="27" t="s">
+        <v>7880</v>
+      </c>
+      <c r="N322" s="27" t="s">
         <v>7879</v>
       </c>
-      <c r="J322" s="27" t="s">
-        <v>7880</v>
-      </c>
-      <c r="M322" s="27" t="s">
-        <v>7884</v>
-      </c>
-      <c r="N322" s="27" t="s">
-        <v>7883</v>
-      </c>
       <c r="S322" s="27" t="s">
-        <v>7886</v>
+        <v>7882</v>
       </c>
       <c r="U322" s="27" t="s">
-        <v>7882</v>
+        <v>7878</v>
       </c>
       <c r="V322" s="27" t="s">
+        <v>7877</v>
+      </c>
+      <c r="AA322" s="6" t="s">
         <v>7881</v>
-      </c>
-      <c r="AA322" s="6" t="s">
-        <v>7885</v>
       </c>
     </row>
     <row r="323" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
@@ -39602,7 +39716,7 @@
         <v>2868</v>
       </c>
       <c r="N323" s="1" t="s">
-        <v>6997</v>
+        <v>6994</v>
       </c>
       <c r="S323" s="27" t="s">
         <v>3103</v>
@@ -39637,7 +39751,7 @@
         <v>2869</v>
       </c>
       <c r="N324" s="1" t="s">
-        <v>6998</v>
+        <v>6995</v>
       </c>
       <c r="S324" s="27" t="s">
         <v>3104</v>
@@ -39669,7 +39783,7 @@
         <v>2777</v>
       </c>
       <c r="N325" s="1" t="s">
-        <v>6999</v>
+        <v>6996</v>
       </c>
       <c r="S325" s="1" t="s">
         <v>3013</v>
@@ -39695,13 +39809,13 @@
         <v>2619</v>
       </c>
       <c r="J326" s="27" t="s">
-        <v>7429</v>
+        <v>7426</v>
       </c>
       <c r="M326" s="1" t="s">
         <v>2778</v>
       </c>
       <c r="N326" s="1" t="s">
-        <v>7000</v>
+        <v>6997</v>
       </c>
       <c r="S326" s="1" t="s">
         <v>3014</v>
@@ -39727,13 +39841,13 @@
         <v>2610</v>
       </c>
       <c r="J327" s="27" t="s">
-        <v>7430</v>
+        <v>7427</v>
       </c>
       <c r="M327" s="1" t="s">
         <v>2779</v>
       </c>
       <c r="N327" s="1" t="s">
-        <v>7001</v>
+        <v>6998</v>
       </c>
       <c r="S327" s="1" t="s">
         <v>3015</v>
@@ -39759,13 +39873,13 @@
         <v>2611</v>
       </c>
       <c r="J328" s="27" t="s">
-        <v>7431</v>
+        <v>7428</v>
       </c>
       <c r="M328" s="1" t="s">
         <v>2780</v>
       </c>
       <c r="N328" s="1" t="s">
-        <v>7002</v>
+        <v>6999</v>
       </c>
       <c r="S328" s="1" t="s">
         <v>3016</v>
@@ -39797,7 +39911,7 @@
         <v>2781</v>
       </c>
       <c r="N329" s="1" t="s">
-        <v>7003</v>
+        <v>7000</v>
       </c>
       <c r="S329" s="1" t="s">
         <v>3017</v>
@@ -39829,7 +39943,7 @@
         <v>2782</v>
       </c>
       <c r="N330" s="1" t="s">
-        <v>7004</v>
+        <v>7001</v>
       </c>
       <c r="S330" s="27" t="s">
         <v>3018</v>
@@ -39861,7 +39975,7 @@
         <v>2783</v>
       </c>
       <c r="N331" s="1" t="s">
-        <v>7005</v>
+        <v>7002</v>
       </c>
       <c r="S331" s="1" t="s">
         <v>3019</v>
@@ -39960,7 +40074,7 @@
         <v>2786</v>
       </c>
       <c r="N334" s="1" t="s">
-        <v>7006</v>
+        <v>7003</v>
       </c>
       <c r="S334" s="1" t="s">
         <v>3022</v>
@@ -39992,7 +40106,7 @@
         <v>2787</v>
       </c>
       <c r="N335" s="1" t="s">
-        <v>7007</v>
+        <v>7004</v>
       </c>
       <c r="S335" s="1" t="s">
         <v>3023</v>
@@ -40021,7 +40135,7 @@
         <v>2788</v>
       </c>
       <c r="N336" s="1" t="s">
-        <v>7008</v>
+        <v>7005</v>
       </c>
       <c r="S336" s="27" t="s">
         <v>3105</v>
@@ -40108,27 +40222,27 @@
     </row>
     <row r="339" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="F339" s="26" t="s">
-        <v>7196</v>
+        <v>7193</v>
       </c>
       <c r="G339" s="27"/>
       <c r="H339" s="27"/>
       <c r="I339" s="27" t="s">
-        <v>7197</v>
+        <v>7194</v>
       </c>
       <c r="J339" s="27" t="s">
+        <v>7195</v>
+      </c>
+      <c r="M339" s="27" t="s">
         <v>7198</v>
       </c>
-      <c r="M339" s="27" t="s">
-        <v>7201</v>
-      </c>
       <c r="N339" s="27" t="s">
+        <v>7196</v>
+      </c>
+      <c r="U339" s="27" t="s">
         <v>7199</v>
       </c>
-      <c r="U339" s="27" t="s">
-        <v>7202</v>
-      </c>
       <c r="V339" s="27" t="s">
-        <v>7197</v>
+        <v>7194</v>
       </c>
       <c r="AA339" s="25"/>
     </row>
@@ -40184,7 +40298,7 @@
         <v>2789</v>
       </c>
       <c r="N341" s="1" t="s">
-        <v>6909</v>
+        <v>6906</v>
       </c>
       <c r="S341" s="1" t="s">
         <v>3025</v>
@@ -40216,7 +40330,7 @@
         <v>2790</v>
       </c>
       <c r="N342" s="1" t="s">
-        <v>6910</v>
+        <v>6907</v>
       </c>
       <c r="S342" s="1" t="s">
         <v>3026</v>
@@ -40242,13 +40356,13 @@
         <v>2391</v>
       </c>
       <c r="J343" s="27" t="s">
-        <v>7432</v>
+        <v>7429</v>
       </c>
       <c r="M343" s="1" t="s">
         <v>2791</v>
       </c>
       <c r="N343" s="1" t="s">
-        <v>6911</v>
+        <v>6908</v>
       </c>
       <c r="S343" s="1" t="s">
         <v>3027</v>
@@ -40280,7 +40394,7 @@
         <v>2792</v>
       </c>
       <c r="N344" s="1" t="s">
-        <v>6912</v>
+        <v>6909</v>
       </c>
       <c r="S344" s="1" t="s">
         <v>3028</v>
@@ -40312,7 +40426,7 @@
         <v>2793</v>
       </c>
       <c r="N345" s="1" t="s">
-        <v>6913</v>
+        <v>6910</v>
       </c>
       <c r="S345" s="1" t="s">
         <v>3029</v>
@@ -40338,13 +40452,13 @@
         <v>2390</v>
       </c>
       <c r="J346" s="27" t="s">
-        <v>7433</v>
+        <v>7430</v>
       </c>
       <c r="M346" s="1" t="s">
         <v>2794</v>
       </c>
       <c r="N346" s="1" t="s">
-        <v>6914</v>
+        <v>6911</v>
       </c>
       <c r="S346" s="1" t="s">
         <v>3030</v>
@@ -40376,7 +40490,7 @@
         <v>2795</v>
       </c>
       <c r="N347" s="1" t="s">
-        <v>6915</v>
+        <v>6912</v>
       </c>
       <c r="S347" s="1" t="s">
         <v>3031</v>
@@ -40440,7 +40554,7 @@
         <v>2796</v>
       </c>
       <c r="N349" s="1" t="s">
-        <v>6916</v>
+        <v>6913</v>
       </c>
       <c r="S349" s="1" t="s">
         <v>3032</v>
@@ -40472,7 +40586,7 @@
         <v>2797</v>
       </c>
       <c r="N350" s="1" t="s">
-        <v>6917</v>
+        <v>6914</v>
       </c>
       <c r="S350" s="1" t="s">
         <v>3033</v>
@@ -40536,7 +40650,7 @@
         <v>2799</v>
       </c>
       <c r="N352" s="1" t="s">
-        <v>6918</v>
+        <v>6915</v>
       </c>
       <c r="S352" s="1" t="s">
         <v>3034</v>
@@ -40568,7 +40682,7 @@
         <v>2800</v>
       </c>
       <c r="N353" s="1" t="s">
-        <v>6919</v>
+        <v>6916</v>
       </c>
       <c r="S353" s="1" t="s">
         <v>3035</v>
@@ -40600,7 +40714,7 @@
         <v>2534</v>
       </c>
       <c r="N354" s="1" t="s">
-        <v>6920</v>
+        <v>6917</v>
       </c>
       <c r="Q354" s="1" t="s">
         <v>1441</v>
@@ -40641,7 +40755,7 @@
         <v>2559</v>
       </c>
       <c r="J355" s="28" t="s">
-        <v>7435</v>
+        <v>7432</v>
       </c>
       <c r="M355" s="4" t="s">
         <v>2801</v>
@@ -40676,13 +40790,13 @@
         <v>2423</v>
       </c>
       <c r="J356" s="27" t="s">
-        <v>7434</v>
+        <v>7431</v>
       </c>
       <c r="M356" s="1" t="s">
         <v>2802</v>
       </c>
       <c r="N356" s="1" t="s">
-        <v>6921</v>
+        <v>6918</v>
       </c>
       <c r="S356" s="1" t="s">
         <v>3037</v>
@@ -40711,7 +40825,7 @@
         <v>2803</v>
       </c>
       <c r="N357" s="1" t="s">
-        <v>6922</v>
+        <v>6919</v>
       </c>
       <c r="S357" s="1" t="s">
         <v>3038</v>
@@ -40740,7 +40854,7 @@
         <v>2804</v>
       </c>
       <c r="N358" s="1" t="s">
-        <v>6923</v>
+        <v>6920</v>
       </c>
       <c r="S358" s="1" t="s">
         <v>3039</v>
@@ -40769,7 +40883,7 @@
         <v>2805</v>
       </c>
       <c r="N359" s="1" t="s">
-        <v>6924</v>
+        <v>6921</v>
       </c>
       <c r="S359" s="1" t="s">
         <v>3040</v>
@@ -40827,7 +40941,7 @@
         <v>2807</v>
       </c>
       <c r="N361" s="1" t="s">
-        <v>6925</v>
+        <v>6922</v>
       </c>
       <c r="S361" s="1" t="s">
         <v>3041</v>
@@ -40856,7 +40970,7 @@
         <v>2808</v>
       </c>
       <c r="N362" s="1" t="s">
-        <v>6926</v>
+        <v>6923</v>
       </c>
       <c r="S362" s="1" t="s">
         <v>3042</v>
@@ -40885,7 +40999,7 @@
         <v>2809</v>
       </c>
       <c r="N363" s="1" t="s">
-        <v>6927</v>
+        <v>6924</v>
       </c>
       <c r="S363" s="1" t="s">
         <v>3043</v>
@@ -40914,7 +41028,7 @@
         <v>2810</v>
       </c>
       <c r="N364" s="1" t="s">
-        <v>6928</v>
+        <v>6925</v>
       </c>
       <c r="S364" s="1" t="s">
         <v>3044</v>
@@ -40946,7 +41060,7 @@
         <v>2811</v>
       </c>
       <c r="N365" s="1" t="s">
-        <v>6929</v>
+        <v>6926</v>
       </c>
       <c r="S365" s="1" t="s">
         <v>3045</v>
@@ -40978,7 +41092,7 @@
         <v>2462</v>
       </c>
       <c r="N366" s="1" t="s">
-        <v>6930</v>
+        <v>6927</v>
       </c>
       <c r="Q366" s="4" t="s">
         <v>2465</v>
@@ -41019,7 +41133,7 @@
         <v>2463</v>
       </c>
       <c r="N367" s="1" t="s">
-        <v>6931</v>
+        <v>6928</v>
       </c>
       <c r="Q367" s="4" t="s">
         <v>2466</v>
@@ -41060,7 +41174,7 @@
         <v>2464</v>
       </c>
       <c r="N368" s="1" t="s">
-        <v>6932</v>
+        <v>6929</v>
       </c>
       <c r="Q368" s="4" t="s">
         <v>2472</v>
@@ -41095,7 +41209,7 @@
         <v>2470</v>
       </c>
       <c r="N369" s="1" t="s">
-        <v>6933</v>
+        <v>6930</v>
       </c>
       <c r="Q369" s="4" t="s">
         <v>2471</v>
@@ -41136,7 +41250,7 @@
         <v>1977</v>
       </c>
       <c r="N370" s="1" t="s">
-        <v>6934</v>
+        <v>6931</v>
       </c>
       <c r="S370" s="1" t="s">
         <v>2925</v>
@@ -41203,7 +41317,7 @@
         <v>2852</v>
       </c>
       <c r="N372" s="1" t="s">
-        <v>6935</v>
+        <v>6932</v>
       </c>
       <c r="S372" s="1" t="s">
         <v>3050</v>
@@ -41229,13 +41343,13 @@
         <v>2495</v>
       </c>
       <c r="J373" s="24" t="s">
-        <v>7436</v>
+        <v>7433</v>
       </c>
       <c r="M373" s="24" t="s">
         <v>2853</v>
       </c>
       <c r="N373" s="1" t="s">
-        <v>6936</v>
+        <v>6933</v>
       </c>
       <c r="S373" s="1" t="s">
         <v>3051</v>
@@ -41264,7 +41378,7 @@
         <v>2854</v>
       </c>
       <c r="N374" s="1" t="s">
-        <v>6937</v>
+        <v>6934</v>
       </c>
       <c r="S374" s="1" t="s">
         <v>3052</v>
@@ -41421,7 +41535,7 @@
         <v>2813</v>
       </c>
       <c r="N379" s="1" t="s">
-        <v>6938</v>
+        <v>6935</v>
       </c>
       <c r="S379" s="1" t="s">
         <v>2887</v>
@@ -41450,7 +41564,7 @@
         <v>2814</v>
       </c>
       <c r="N380" s="1" t="s">
-        <v>6939</v>
+        <v>6936</v>
       </c>
       <c r="S380" s="1" t="s">
         <v>3053</v>
@@ -41476,13 +41590,13 @@
         <v>2506</v>
       </c>
       <c r="J381" s="27" t="s">
-        <v>7547</v>
+        <v>7543</v>
       </c>
       <c r="M381" s="1" t="s">
         <v>2815</v>
       </c>
       <c r="N381" s="1" t="s">
-        <v>6940</v>
+        <v>6937</v>
       </c>
       <c r="S381" s="1" t="s">
         <v>3054</v>
@@ -41517,7 +41631,7 @@
         <v>2816</v>
       </c>
       <c r="N382" s="1" t="s">
-        <v>6941</v>
+        <v>6938</v>
       </c>
       <c r="S382" s="1" t="s">
         <v>3055</v>
@@ -41549,7 +41663,7 @@
         <v>2513</v>
       </c>
       <c r="N383" s="1" t="s">
-        <v>6942</v>
+        <v>6939</v>
       </c>
       <c r="Q383" s="4" t="s">
         <v>2511</v>
@@ -41590,7 +41704,7 @@
         <v>2817</v>
       </c>
       <c r="N384" s="1" t="s">
-        <v>6943</v>
+        <v>6940</v>
       </c>
       <c r="S384" s="1" t="s">
         <v>3056</v>
@@ -41622,7 +41736,7 @@
         <v>2818</v>
       </c>
       <c r="N385" s="1" t="s">
-        <v>6944</v>
+        <v>6941</v>
       </c>
       <c r="S385" s="1" t="s">
         <v>3057</v>
@@ -41654,7 +41768,7 @@
         <v>2819</v>
       </c>
       <c r="N386" s="1" t="s">
-        <v>6945</v>
+        <v>6942</v>
       </c>
       <c r="S386" s="1" t="s">
         <v>3058</v>
@@ -41686,7 +41800,7 @@
         <v>2820</v>
       </c>
       <c r="N387" s="1" t="s">
-        <v>6946</v>
+        <v>6943</v>
       </c>
       <c r="S387" s="1" t="s">
         <v>3059</v>
@@ -41718,7 +41832,7 @@
         <v>2821</v>
       </c>
       <c r="N388" s="1" t="s">
-        <v>6947</v>
+        <v>6944</v>
       </c>
       <c r="S388" s="1" t="s">
         <v>3060</v>
@@ -41788,7 +41902,7 @@
         <v>2822</v>
       </c>
       <c r="N390" s="1" t="s">
-        <v>6948</v>
+        <v>6945</v>
       </c>
       <c r="S390" s="1" t="s">
         <v>3062</v>
@@ -41820,7 +41934,7 @@
         <v>2823</v>
       </c>
       <c r="N391" s="1" t="s">
-        <v>6949</v>
+        <v>6946</v>
       </c>
       <c r="S391" s="1" t="s">
         <v>3063</v>
@@ -41849,7 +41963,7 @@
         <v>2824</v>
       </c>
       <c r="N392" s="1" t="s">
-        <v>6950</v>
+        <v>6947</v>
       </c>
       <c r="S392" s="1" t="s">
         <v>3064</v>
@@ -41878,7 +41992,7 @@
         <v>2825</v>
       </c>
       <c r="N393" s="1" t="s">
-        <v>6951</v>
+        <v>6948</v>
       </c>
       <c r="S393" s="1" t="s">
         <v>3065</v>
@@ -41904,13 +42018,13 @@
         <v>2601</v>
       </c>
       <c r="J394" s="24" t="s">
-        <v>7417</v>
+        <v>7414</v>
       </c>
       <c r="M394" s="1" t="s">
         <v>2601</v>
       </c>
       <c r="N394" s="1" t="s">
-        <v>6952</v>
+        <v>6949</v>
       </c>
       <c r="S394" s="1" t="s">
         <v>3066</v>
@@ -41936,13 +42050,13 @@
         <v>2605</v>
       </c>
       <c r="J395" s="24" t="s">
-        <v>7418</v>
+        <v>7415</v>
       </c>
       <c r="M395" s="1" t="s">
         <v>2826</v>
       </c>
       <c r="N395" s="1" t="s">
-        <v>6953</v>
+        <v>6950</v>
       </c>
       <c r="S395" s="1" t="s">
         <v>3067</v>
@@ -41968,13 +42082,13 @@
         <v>2598</v>
       </c>
       <c r="J396" s="24" t="s">
-        <v>7419</v>
+        <v>7416</v>
       </c>
       <c r="M396" s="1" t="s">
         <v>2827</v>
       </c>
       <c r="N396" s="1" t="s">
-        <v>6954</v>
+        <v>6951</v>
       </c>
       <c r="S396" s="1" t="s">
         <v>3068</v>
@@ -42048,7 +42162,7 @@
         <v>1932</v>
       </c>
       <c r="N398" s="1" t="s">
-        <v>6955</v>
+        <v>6952</v>
       </c>
       <c r="Q398" s="1" t="s">
         <v>1402</v>
@@ -42084,7 +42198,7 @@
         <v>2152</v>
       </c>
       <c r="N399" s="5" t="s">
-        <v>6956</v>
+        <v>6953</v>
       </c>
       <c r="O399" s="5"/>
       <c r="Q399" s="5" t="s">
@@ -42118,13 +42232,13 @@
         <v>2613</v>
       </c>
       <c r="J400" s="24" t="s">
-        <v>7410</v>
+        <v>7407</v>
       </c>
       <c r="M400" s="1" t="s">
         <v>2828</v>
       </c>
       <c r="N400" s="1" t="s">
-        <v>6957</v>
+        <v>6954</v>
       </c>
       <c r="S400" s="1" t="s">
         <v>3072</v>
@@ -42156,7 +42270,7 @@
         <v>2829</v>
       </c>
       <c r="N401" s="1" t="s">
-        <v>6958</v>
+        <v>6955</v>
       </c>
       <c r="S401" s="1" t="s">
         <v>3073</v>
@@ -42182,13 +42296,13 @@
         <v>2617</v>
       </c>
       <c r="J402" s="24" t="s">
-        <v>7409</v>
+        <v>7406</v>
       </c>
       <c r="M402" s="27" t="s">
         <v>2830</v>
       </c>
       <c r="N402" s="27" t="s">
-        <v>7200</v>
+        <v>7197</v>
       </c>
       <c r="S402" s="1" t="s">
         <v>3074</v>
@@ -42214,13 +42328,13 @@
         <v>2621</v>
       </c>
       <c r="J403" s="24" t="s">
-        <v>7411</v>
+        <v>7408</v>
       </c>
       <c r="M403" s="1" t="s">
         <v>2831</v>
       </c>
       <c r="N403" s="1" t="s">
-        <v>6959</v>
+        <v>6956</v>
       </c>
       <c r="S403" s="1" t="s">
         <v>3075</v>
@@ -42246,13 +42360,13 @@
         <v>2623</v>
       </c>
       <c r="J404" s="24" t="s">
-        <v>7437</v>
+        <v>7434</v>
       </c>
       <c r="M404" s="1" t="s">
         <v>2832</v>
       </c>
       <c r="N404" s="1" t="s">
-        <v>6960</v>
+        <v>6957</v>
       </c>
       <c r="S404" s="1" t="s">
         <v>3076</v>
@@ -42281,7 +42395,7 @@
         <v>2833</v>
       </c>
       <c r="N405" s="1" t="s">
-        <v>6961</v>
+        <v>6958</v>
       </c>
       <c r="S405" s="1" t="s">
         <v>3077</v>
@@ -42310,7 +42424,7 @@
         <v>2834</v>
       </c>
       <c r="N406" s="1" t="s">
-        <v>6962</v>
+        <v>6959</v>
       </c>
       <c r="S406" s="1" t="s">
         <v>3078</v>
@@ -42336,13 +42450,13 @@
         <v>2629</v>
       </c>
       <c r="J407" s="27" t="s">
-        <v>7416</v>
+        <v>7413</v>
       </c>
       <c r="M407" s="1" t="s">
         <v>2835</v>
       </c>
       <c r="N407" s="1" t="s">
-        <v>6963</v>
+        <v>6960</v>
       </c>
       <c r="S407" s="1" t="s">
         <v>3079</v>
@@ -42368,13 +42482,13 @@
         <v>2632</v>
       </c>
       <c r="J408" s="27" t="s">
-        <v>7412</v>
+        <v>7409</v>
       </c>
       <c r="M408" s="1" t="s">
         <v>2836</v>
       </c>
       <c r="N408" s="1" t="s">
-        <v>6964</v>
+        <v>6961</v>
       </c>
       <c r="S408" s="1" t="s">
         <v>3080</v>
@@ -42400,13 +42514,13 @@
         <v>2633</v>
       </c>
       <c r="J409" s="27" t="s">
-        <v>7413</v>
+        <v>7410</v>
       </c>
       <c r="M409" s="1" t="s">
         <v>2837</v>
       </c>
       <c r="N409" s="1" t="s">
-        <v>6965</v>
+        <v>6962</v>
       </c>
       <c r="S409" s="1" t="s">
         <v>3081</v>
@@ -42432,13 +42546,13 @@
         <v>2635</v>
       </c>
       <c r="J410" s="27" t="s">
-        <v>7414</v>
+        <v>7411</v>
       </c>
       <c r="M410" s="1" t="s">
         <v>2838</v>
       </c>
       <c r="N410" s="1" t="s">
-        <v>6966</v>
+        <v>6963</v>
       </c>
       <c r="S410" s="1" t="s">
         <v>3082</v>
@@ -42464,13 +42578,13 @@
         <v>2640</v>
       </c>
       <c r="J411" s="24" t="s">
-        <v>7415</v>
+        <v>7412</v>
       </c>
       <c r="M411" s="1" t="s">
         <v>2839</v>
       </c>
       <c r="N411" s="1" t="s">
-        <v>6967</v>
+        <v>6964</v>
       </c>
       <c r="S411" s="1" t="s">
         <v>3083</v>
@@ -42485,7 +42599,7 @@
         <v>6805</v>
       </c>
     </row>
-    <row r="412" spans="1:27" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:27" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>403</v>
       </c>
@@ -42501,31 +42615,31 @@
         <v>2670</v>
       </c>
       <c r="J412" s="2" t="s">
-        <v>7906</v>
+        <v>7902</v>
       </c>
       <c r="M412" s="2" t="s">
-        <v>7905</v>
+        <v>7901</v>
       </c>
       <c r="N412" s="2" t="s">
-        <v>7904</v>
+        <v>7900</v>
       </c>
       <c r="S412" s="16" t="s">
         <v>3084</v>
       </c>
       <c r="U412" s="2" t="s">
-        <v>7903</v>
+        <v>7899</v>
       </c>
       <c r="V412" s="2" t="s">
-        <v>7902</v>
+        <v>7898</v>
       </c>
       <c r="Z412" s="2" t="s">
         <v>2149</v>
       </c>
       <c r="AA412" s="48" t="s">
-        <v>7907</v>
-      </c>
-    </row>
-    <row r="413" spans="1:27" s="16" customFormat="1" x14ac:dyDescent="0.25">
+        <v>7903</v>
+      </c>
+    </row>
+    <row r="413" spans="1:27" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>404</v>
       </c>
@@ -42547,7 +42661,7 @@
         <v>2840</v>
       </c>
       <c r="N413" s="2" t="s">
-        <v>7900</v>
+        <v>7896</v>
       </c>
       <c r="S413" s="16" t="s">
         <v>3085</v>
@@ -42565,7 +42679,7 @@
         <v>6843</v>
       </c>
     </row>
-    <row r="414" spans="1:27" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:27" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>405</v>
       </c>
@@ -42596,7 +42710,7 @@
         <v>6624</v>
       </c>
       <c r="V414" s="2" t="s">
-        <v>7887</v>
+        <v>7883</v>
       </c>
       <c r="Z414" s="2" t="s">
         <v>2144</v>
@@ -42605,7 +42719,7 @@
         <v>6806</v>
       </c>
     </row>
-    <row r="415" spans="1:27" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:27" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>406</v>
       </c>
@@ -42645,7 +42759,7 @@
         <v>6844</v>
       </c>
     </row>
-    <row r="416" spans="1:27" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:27" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>407</v>
       </c>
@@ -42667,7 +42781,7 @@
         <v>2721</v>
       </c>
       <c r="N416" s="22" t="s">
-        <v>6905</v>
+        <v>6903</v>
       </c>
       <c r="S416" s="22" t="s">
         <v>3099</v>
@@ -42685,7 +42799,7 @@
         <v>6658</v>
       </c>
     </row>
-    <row r="417" spans="1:27" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:27" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>408</v>
       </c>
@@ -42707,7 +42821,7 @@
         <v>2543</v>
       </c>
       <c r="N417" s="2" t="s">
-        <v>7901</v>
+        <v>7897</v>
       </c>
       <c r="S417" s="16" t="s">
         <v>2063</v>
@@ -42744,8 +42858,8 @@
       <c r="M418" s="16" t="s">
         <v>2055</v>
       </c>
-      <c r="N418" s="16" t="s">
-        <v>6890</v>
+      <c r="N418" s="2" t="s">
+        <v>7920</v>
       </c>
       <c r="S418" s="16" t="s">
         <v>2881</v>
@@ -42781,7 +42895,7 @@
         <v>2843</v>
       </c>
       <c r="N419" s="16" t="s">
-        <v>6891</v>
+        <v>6890</v>
       </c>
       <c r="S419" s="16" t="s">
         <v>3088</v>
@@ -42817,7 +42931,7 @@
         <v>2844</v>
       </c>
       <c r="N420" s="16" t="s">
-        <v>6892</v>
+        <v>6891</v>
       </c>
       <c r="S420" s="16" t="s">
         <v>3089</v>
@@ -42853,7 +42967,7 @@
         <v>2845</v>
       </c>
       <c r="N421" s="16" t="s">
-        <v>6893</v>
+        <v>6892</v>
       </c>
       <c r="S421" s="16" t="s">
         <v>3090</v>
@@ -42889,7 +43003,7 @@
         <v>2722</v>
       </c>
       <c r="N422" s="22" t="s">
-        <v>6908</v>
+        <v>7921</v>
       </c>
       <c r="S422" s="22" t="s">
         <v>3100</v>
@@ -42928,8 +43042,8 @@
       <c r="M423" s="16" t="s">
         <v>2055</v>
       </c>
-      <c r="N423" s="16" t="s">
-        <v>6894</v>
+      <c r="N423" s="2" t="s">
+        <v>7919</v>
       </c>
       <c r="S423" s="16" t="s">
         <v>2881</v>
@@ -42965,7 +43079,7 @@
         <v>2058</v>
       </c>
       <c r="N424" s="16" t="s">
-        <v>6895</v>
+        <v>6893</v>
       </c>
       <c r="S424" s="2" t="s">
         <v>6848</v>
@@ -43001,7 +43115,7 @@
         <v>2846</v>
       </c>
       <c r="N425" s="16" t="s">
-        <v>6896</v>
+        <v>6894</v>
       </c>
       <c r="S425" s="16" t="s">
         <v>3091</v>
@@ -43037,7 +43151,7 @@
         <v>2847</v>
       </c>
       <c r="N426" s="16" t="s">
-        <v>6897</v>
+        <v>6895</v>
       </c>
       <c r="S426" s="16" t="s">
         <v>3092</v>
@@ -43073,7 +43187,7 @@
         <v>2848</v>
       </c>
       <c r="N427" s="16" t="s">
-        <v>6898</v>
+        <v>6896</v>
       </c>
       <c r="S427" s="16" t="s">
         <v>3093</v>
@@ -43109,7 +43223,7 @@
         <v>2723</v>
       </c>
       <c r="N428" s="22" t="s">
-        <v>6907</v>
+        <v>6905</v>
       </c>
       <c r="S428" s="22" t="s">
         <v>3101</v>
@@ -43149,7 +43263,7 @@
         <v>2058</v>
       </c>
       <c r="N429" s="16" t="s">
-        <v>6899</v>
+        <v>6897</v>
       </c>
       <c r="S429" s="16" t="s">
         <v>3094</v>
@@ -43187,7 +43301,7 @@
         <v>2148</v>
       </c>
       <c r="N430" s="16" t="s">
-        <v>6900</v>
+        <v>6898</v>
       </c>
       <c r="S430" s="16" t="s">
         <v>3095</v>
@@ -43225,7 +43339,7 @@
         <v>2849</v>
       </c>
       <c r="N431" s="16" t="s">
-        <v>6901</v>
+        <v>6899</v>
       </c>
       <c r="S431" s="16" t="s">
         <v>3096</v>
@@ -43263,7 +43377,7 @@
         <v>2850</v>
       </c>
       <c r="N432" s="16" t="s">
-        <v>6902</v>
+        <v>6900</v>
       </c>
       <c r="S432" s="16" t="s">
         <v>3097</v>
@@ -43301,7 +43415,7 @@
         <v>2851</v>
       </c>
       <c r="N433" s="16" t="s">
-        <v>6903</v>
+        <v>6901</v>
       </c>
       <c r="S433" s="16" t="s">
         <v>3098</v>
@@ -43339,7 +43453,7 @@
         <v>2724</v>
       </c>
       <c r="N434" s="22" t="s">
-        <v>6906</v>
+        <v>6904</v>
       </c>
       <c r="S434" s="22" t="s">
         <v>3102</v>
@@ -43379,7 +43493,7 @@
         <v>2224</v>
       </c>
       <c r="N435" s="16" t="s">
-        <v>6904</v>
+        <v>6902</v>
       </c>
       <c r="S435" s="16" t="s">
         <v>2256</v>
@@ -46012,7 +46126,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="485" spans="1:28" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A485" s="9">
         <v>1038</v>
       </c>
@@ -51321,49 +51435,49 @@
         <v>452</v>
       </c>
       <c r="F576" s="3" t="s">
+        <v>7180</v>
+      </c>
+      <c r="G576" s="4" t="s">
+        <v>7192</v>
+      </c>
+      <c r="I576" s="24" t="s">
+        <v>7181</v>
+      </c>
+      <c r="J576" s="24" t="s">
+        <v>7181</v>
+      </c>
+      <c r="M576" s="27" t="s">
+        <v>7182</v>
+      </c>
+      <c r="N576" s="24" t="s">
+        <v>7181</v>
+      </c>
+      <c r="Q576" s="27" t="s">
+        <v>7187</v>
+      </c>
+      <c r="R576" s="1" t="s">
+        <v>7185</v>
+      </c>
+      <c r="S576" s="27" t="s">
+        <v>7189</v>
+      </c>
+      <c r="U576" s="24" t="s">
+        <v>7184</v>
+      </c>
+      <c r="V576" s="27" t="s">
         <v>7183</v>
       </c>
-      <c r="G576" s="4" t="s">
-        <v>7195</v>
-      </c>
-      <c r="I576" s="24" t="s">
-        <v>7184</v>
-      </c>
-      <c r="J576" s="24" t="s">
-        <v>7184</v>
-      </c>
-      <c r="M576" s="27" t="s">
-        <v>7185</v>
-      </c>
-      <c r="N576" s="24" t="s">
-        <v>7184</v>
-      </c>
-      <c r="Q576" s="27" t="s">
+      <c r="X576" s="1" t="s">
+        <v>7188</v>
+      </c>
+      <c r="Z576" s="24" t="s">
         <v>7190</v>
       </c>
-      <c r="R576" s="1" t="s">
-        <v>7188</v>
-      </c>
-      <c r="S576" s="27" t="s">
-        <v>7192</v>
-      </c>
-      <c r="U576" s="24" t="s">
-        <v>7187</v>
-      </c>
-      <c r="V576" s="27" t="s">
+      <c r="AA576" s="24" t="s">
+        <v>7191</v>
+      </c>
+      <c r="AB576" s="1" t="s">
         <v>7186</v>
-      </c>
-      <c r="X576" s="1" t="s">
-        <v>7191</v>
-      </c>
-      <c r="Z576" s="24" t="s">
-        <v>7193</v>
-      </c>
-      <c r="AA576" s="24" t="s">
-        <v>7194</v>
-      </c>
-      <c r="AB576" s="1" t="s">
-        <v>7189</v>
       </c>
     </row>
     <row r="577" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
@@ -51371,13 +51485,13 @@
         <v>453</v>
       </c>
       <c r="F577" s="3" t="s">
+        <v>7200</v>
+      </c>
+      <c r="I577" s="24" t="s">
         <v>7203</v>
       </c>
-      <c r="I577" s="24" t="s">
-        <v>7206</v>
-      </c>
       <c r="J577" s="27" t="s">
-        <v>7205</v>
+        <v>7202</v>
       </c>
     </row>
     <row r="578" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
@@ -51385,13 +51499,13 @@
         <v>454</v>
       </c>
       <c r="F578" s="3" t="s">
+        <v>7201</v>
+      </c>
+      <c r="I578" s="24" t="s">
         <v>7204</v>
       </c>
-      <c r="I578" s="24" t="s">
-        <v>7207</v>
-      </c>
       <c r="J578" s="24" t="s">
-        <v>7208</v>
+        <v>7205</v>
       </c>
     </row>
     <row r="579" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
@@ -51399,13 +51513,13 @@
         <v>455</v>
       </c>
       <c r="F579" s="3" t="s">
-        <v>7235</v>
+        <v>7232</v>
       </c>
       <c r="I579" s="24" t="s">
-        <v>7230</v>
+        <v>7227</v>
       </c>
       <c r="J579" s="24" t="s">
-        <v>7237</v>
+        <v>7234</v>
       </c>
     </row>
     <row r="580" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
@@ -51413,13 +51527,13 @@
         <v>456</v>
       </c>
       <c r="F580" s="3" t="s">
-        <v>7236</v>
+        <v>7233</v>
       </c>
       <c r="I580" s="24" t="s">
-        <v>7229</v>
+        <v>7226</v>
       </c>
       <c r="J580" s="24" t="s">
-        <v>7238</v>
+        <v>7235</v>
       </c>
     </row>
     <row r="581" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
@@ -51427,13 +51541,13 @@
         <v>457</v>
       </c>
       <c r="F581" s="26" t="s">
-        <v>7249</v>
+        <v>7246</v>
       </c>
       <c r="I581" s="24" t="s">
-        <v>7251</v>
+        <v>7248</v>
       </c>
       <c r="J581" s="24" t="s">
-        <v>7253</v>
+        <v>7250</v>
       </c>
     </row>
     <row r="582" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
@@ -51441,13 +51555,13 @@
         <v>458</v>
       </c>
       <c r="F582" s="26" t="s">
-        <v>7250</v>
+        <v>7247</v>
       </c>
       <c r="I582" s="24" t="s">
-        <v>7252</v>
+        <v>7249</v>
       </c>
       <c r="J582" s="24" t="s">
-        <v>7254</v>
+        <v>7251</v>
       </c>
     </row>
     <row r="583" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
@@ -51455,37 +51569,37 @@
         <v>459</v>
       </c>
       <c r="F583" s="3" t="s">
+        <v>7300</v>
+      </c>
+      <c r="I583" s="24" t="s">
+        <v>7298</v>
+      </c>
+      <c r="J583" s="24" t="s">
+        <v>7299</v>
+      </c>
+      <c r="M583" s="24" t="s">
+        <v>7307</v>
+      </c>
+      <c r="N583" s="24" t="s">
+        <v>7304</v>
+      </c>
+      <c r="Q583" s="24" t="s">
+        <v>7305</v>
+      </c>
+      <c r="S583" s="24" t="s">
+        <v>7311</v>
+      </c>
+      <c r="U583" s="24" t="s">
+        <v>7306</v>
+      </c>
+      <c r="V583" s="24" t="s">
         <v>7303</v>
       </c>
-      <c r="I583" s="24" t="s">
-        <v>7301</v>
-      </c>
-      <c r="J583" s="24" t="s">
-        <v>7302</v>
-      </c>
-      <c r="M583" s="24" t="s">
+      <c r="X583" s="24" t="s">
+        <v>7309</v>
+      </c>
+      <c r="Z583" s="24" t="s">
         <v>7310</v>
-      </c>
-      <c r="N583" s="24" t="s">
-        <v>7307</v>
-      </c>
-      <c r="Q583" s="24" t="s">
-        <v>7308</v>
-      </c>
-      <c r="S583" s="24" t="s">
-        <v>7314</v>
-      </c>
-      <c r="U583" s="24" t="s">
-        <v>7309</v>
-      </c>
-      <c r="V583" s="24" t="s">
-        <v>7306</v>
-      </c>
-      <c r="X583" s="24" t="s">
-        <v>7312</v>
-      </c>
-      <c r="Z583" s="24" t="s">
-        <v>7313</v>
       </c>
     </row>
     <row r="584" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
@@ -51493,15 +51607,15 @@
         <v>460</v>
       </c>
       <c r="F584" s="26" t="s">
-        <v>7304</v>
+        <v>7301</v>
       </c>
       <c r="G584" s="27"/>
       <c r="H584" s="27"/>
       <c r="I584" s="24" t="s">
-        <v>7305</v>
+        <v>7302</v>
       </c>
       <c r="J584" s="24" t="s">
-        <v>7305</v>
+        <v>7302</v>
       </c>
     </row>
     <row r="585" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
@@ -51509,31 +51623,31 @@
         <v>461</v>
       </c>
       <c r="F585" s="3" t="s">
-        <v>7348</v>
+        <v>7345</v>
       </c>
       <c r="I585" s="24" t="s">
-        <v>7349</v>
+        <v>7346</v>
       </c>
       <c r="J585" s="27" t="s">
-        <v>7542</v>
+        <v>7538</v>
       </c>
       <c r="M585" s="27" t="s">
+        <v>7473</v>
+      </c>
+      <c r="N585" s="24" t="s">
+        <v>7474</v>
+      </c>
+      <c r="Q585" s="27" t="s">
+        <v>7475</v>
+      </c>
+      <c r="U585" s="24" t="s">
+        <v>7471</v>
+      </c>
+      <c r="V585" s="27" t="s">
+        <v>7472</v>
+      </c>
+      <c r="X585" s="1" t="s">
         <v>7476</v>
-      </c>
-      <c r="N585" s="24" t="s">
-        <v>7477</v>
-      </c>
-      <c r="Q585" s="27" t="s">
-        <v>7478</v>
-      </c>
-      <c r="U585" s="24" t="s">
-        <v>7474</v>
-      </c>
-      <c r="V585" s="27" t="s">
-        <v>7475</v>
-      </c>
-      <c r="X585" s="1" t="s">
-        <v>7479</v>
       </c>
     </row>
     <row r="586" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
@@ -51541,31 +51655,31 @@
         <v>462</v>
       </c>
       <c r="F586" s="26" t="s">
-        <v>7404</v>
+        <v>7401</v>
       </c>
       <c r="I586" s="24" t="s">
-        <v>7403</v>
+        <v>7400</v>
       </c>
       <c r="J586" s="27" t="s">
-        <v>7535</v>
+        <v>7531</v>
       </c>
       <c r="M586" s="24" t="s">
+        <v>7489</v>
+      </c>
+      <c r="N586" s="24" t="s">
+        <v>7486</v>
+      </c>
+      <c r="Q586" s="27" t="s">
+        <v>7494</v>
+      </c>
+      <c r="R586" s="24" t="s">
+        <v>7849</v>
+      </c>
+      <c r="U586" s="24" t="s">
+        <v>7490</v>
+      </c>
+      <c r="V586" s="24" t="s">
         <v>7492</v>
-      </c>
-      <c r="N586" s="24" t="s">
-        <v>7489</v>
-      </c>
-      <c r="Q586" s="27" t="s">
-        <v>7497</v>
-      </c>
-      <c r="R586" s="24" t="s">
-        <v>7853</v>
-      </c>
-      <c r="U586" s="24" t="s">
-        <v>7493</v>
-      </c>
-      <c r="V586" s="24" t="s">
-        <v>7495</v>
       </c>
     </row>
     <row r="587" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
@@ -51573,33 +51687,33 @@
         <v>463</v>
       </c>
       <c r="F587" s="26" t="s">
-        <v>7350</v>
+        <v>7347</v>
       </c>
       <c r="G587" s="27"/>
       <c r="H587" s="27"/>
       <c r="I587" s="24" t="s">
-        <v>7438</v>
+        <v>7435</v>
       </c>
       <c r="J587" s="27" t="s">
-        <v>7536</v>
+        <v>7532</v>
       </c>
       <c r="M587" s="24" t="s">
+        <v>7488</v>
+      </c>
+      <c r="N587" s="24" t="s">
+        <v>7487</v>
+      </c>
+      <c r="Q587" s="24" t="s">
+        <v>7824</v>
+      </c>
+      <c r="R587" s="24" t="s">
+        <v>7850</v>
+      </c>
+      <c r="U587" s="24" t="s">
         <v>7491</v>
       </c>
-      <c r="N587" s="24" t="s">
-        <v>7490</v>
-      </c>
-      <c r="Q587" s="24" t="s">
-        <v>7828</v>
-      </c>
-      <c r="R587" s="24" t="s">
-        <v>7854</v>
-      </c>
-      <c r="U587" s="24" t="s">
-        <v>7494</v>
-      </c>
       <c r="V587" s="24" t="s">
-        <v>7496</v>
+        <v>7493</v>
       </c>
       <c r="AA587" s="25"/>
     </row>
@@ -51608,31 +51722,31 @@
         <v>464</v>
       </c>
       <c r="F588" s="26" t="s">
-        <v>7351</v>
+        <v>7348</v>
       </c>
       <c r="I588" s="24" t="s">
-        <v>7352</v>
+        <v>7349</v>
       </c>
       <c r="J588" s="24" t="s">
-        <v>7407</v>
+        <v>7404</v>
       </c>
       <c r="M588" s="27" t="s">
+        <v>7467</v>
+      </c>
+      <c r="N588" s="24" t="s">
+        <v>7468</v>
+      </c>
+      <c r="Q588" s="24" t="s">
+        <v>7825</v>
+      </c>
+      <c r="U588" s="27" t="s">
         <v>7470</v>
       </c>
-      <c r="N588" s="24" t="s">
-        <v>7471</v>
-      </c>
-      <c r="Q588" s="24" t="s">
-        <v>7829</v>
-      </c>
-      <c r="U588" s="27" t="s">
-        <v>7473</v>
-      </c>
       <c r="V588" s="27" t="s">
-        <v>7470</v>
+        <v>7467</v>
       </c>
       <c r="X588" s="27" t="s">
-        <v>7472</v>
+        <v>7469</v>
       </c>
     </row>
     <row r="589" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
@@ -51640,37 +51754,37 @@
         <v>465</v>
       </c>
       <c r="F589" s="3" t="s">
-        <v>7353</v>
+        <v>7350</v>
       </c>
       <c r="I589" s="24" t="s">
-        <v>7354</v>
+        <v>7351</v>
       </c>
       <c r="J589" s="24" t="s">
-        <v>7405</v>
+        <v>7402</v>
       </c>
       <c r="M589" s="27" t="s">
+        <v>7481</v>
+      </c>
+      <c r="N589" s="27" t="s">
+        <v>7351</v>
+      </c>
+      <c r="Q589" s="27" t="s">
         <v>7484</v>
       </c>
-      <c r="N589" s="27" t="s">
-        <v>7354</v>
-      </c>
-      <c r="Q589" s="27" t="s">
-        <v>7487</v>
-      </c>
       <c r="R589" s="27" t="s">
-        <v>7486</v>
+        <v>7483</v>
       </c>
       <c r="U589" s="27" t="s">
+        <v>7479</v>
+      </c>
+      <c r="V589" s="27" t="s">
+        <v>7480</v>
+      </c>
+      <c r="X589" s="27" t="s">
         <v>7482</v>
       </c>
-      <c r="V589" s="27" t="s">
-        <v>7483</v>
-      </c>
-      <c r="X589" s="27" t="s">
+      <c r="AB589" s="27" t="s">
         <v>7485</v>
-      </c>
-      <c r="AB589" s="27" t="s">
-        <v>7488</v>
       </c>
     </row>
     <row r="590" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
@@ -51678,31 +51792,31 @@
         <v>466</v>
       </c>
       <c r="F590" s="3" t="s">
-        <v>7355</v>
+        <v>7352</v>
       </c>
       <c r="I590" s="24" t="s">
-        <v>7356</v>
+        <v>7353</v>
       </c>
       <c r="J590" s="24" t="s">
-        <v>7406</v>
+        <v>7403</v>
       </c>
       <c r="M590" s="27" t="s">
-        <v>7524</v>
+        <v>7520</v>
       </c>
       <c r="N590" s="27" t="s">
-        <v>7524</v>
+        <v>7520</v>
       </c>
       <c r="Q590" s="27" t="s">
-        <v>7525</v>
+        <v>7521</v>
       </c>
       <c r="R590" s="24" t="s">
-        <v>7855</v>
+        <v>7851</v>
       </c>
       <c r="U590" s="27" t="s">
-        <v>7526</v>
+        <v>7522</v>
       </c>
       <c r="V590" s="1" t="s">
-        <v>7527</v>
+        <v>7523</v>
       </c>
     </row>
     <row r="591" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
@@ -51710,34 +51824,34 @@
         <v>467</v>
       </c>
       <c r="F591" s="3" t="s">
-        <v>7358</v>
+        <v>7355</v>
       </c>
       <c r="I591" s="24" t="s">
-        <v>7357</v>
+        <v>7354</v>
       </c>
       <c r="J591" s="24" t="s">
-        <v>7408</v>
+        <v>7405</v>
       </c>
       <c r="M591" s="24" t="s">
+        <v>7496</v>
+      </c>
+      <c r="N591" s="24" t="s">
+        <v>7495</v>
+      </c>
+      <c r="Q591" s="27" t="s">
+        <v>7500</v>
+      </c>
+      <c r="R591" s="24" t="s">
+        <v>7501</v>
+      </c>
+      <c r="U591" s="24" t="s">
+        <v>7497</v>
+      </c>
+      <c r="V591" s="24" t="s">
+        <v>7498</v>
+      </c>
+      <c r="X591" s="27" t="s">
         <v>7499</v>
-      </c>
-      <c r="N591" s="24" t="s">
-        <v>7498</v>
-      </c>
-      <c r="Q591" s="27" t="s">
-        <v>7503</v>
-      </c>
-      <c r="R591" s="24" t="s">
-        <v>7504</v>
-      </c>
-      <c r="U591" s="24" t="s">
-        <v>7500</v>
-      </c>
-      <c r="V591" s="24" t="s">
-        <v>7501</v>
-      </c>
-      <c r="X591" s="27" t="s">
-        <v>7502</v>
       </c>
     </row>
     <row r="592" spans="1:28" s="41" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -51745,184 +51859,190 @@
         <v>468</v>
       </c>
       <c r="F592" s="29" t="s">
-        <v>7548</v>
+        <v>7544</v>
       </c>
       <c r="G592"/>
       <c r="H592"/>
       <c r="I592" t="s">
-        <v>7550</v>
+        <v>7546</v>
       </c>
       <c r="J592" t="s">
-        <v>7551</v>
+        <v>7547</v>
       </c>
       <c r="M592" t="s">
-        <v>7832</v>
+        <v>7828</v>
       </c>
       <c r="N592" t="s">
-        <v>7833</v>
+        <v>7829</v>
       </c>
       <c r="Q592" t="s">
+        <v>7826</v>
+      </c>
+      <c r="R592" s="41" t="s">
+        <v>7925</v>
+      </c>
+      <c r="U592" t="s">
         <v>7830</v>
       </c>
-      <c r="U592" t="s">
-        <v>7834</v>
-      </c>
       <c r="V592" t="s">
-        <v>7835</v>
-      </c>
-    </row>
-    <row r="593" spans="1:27" s="41" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>7831</v>
+      </c>
+    </row>
+    <row r="593" spans="1:28" s="41" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A593" s="41">
         <v>469</v>
       </c>
       <c r="F593" s="29" t="s">
-        <v>7549</v>
+        <v>7545</v>
       </c>
       <c r="G593"/>
       <c r="H593"/>
       <c r="I593" t="s">
-        <v>7558</v>
+        <v>7554</v>
       </c>
       <c r="J593" t="s">
-        <v>7552</v>
+        <v>7548</v>
       </c>
       <c r="M593" t="s">
-        <v>7836</v>
+        <v>7832</v>
       </c>
       <c r="N593" t="s">
-        <v>7837</v>
+        <v>7833</v>
       </c>
       <c r="Q593" t="s">
-        <v>7831</v>
+        <v>7827</v>
+      </c>
+      <c r="R593" s="41" t="s">
+        <v>7926</v>
       </c>
       <c r="U593" t="s">
-        <v>7838</v>
+        <v>7834</v>
       </c>
       <c r="V593" t="s">
-        <v>7839</v>
-      </c>
-    </row>
-    <row r="594" spans="1:27" s="41" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>7835</v>
+      </c>
+    </row>
+    <row r="594" spans="1:28" s="41" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A594" s="41">
         <v>470</v>
       </c>
       <c r="F594" s="29" t="s">
-        <v>7553</v>
+        <v>7549</v>
       </c>
       <c r="G594"/>
       <c r="H594"/>
       <c r="I594" t="s">
-        <v>7557</v>
-      </c>
-    </row>
-    <row r="595" spans="1:27" s="41" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>7553</v>
+      </c>
+    </row>
+    <row r="595" spans="1:28" s="41" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A595" s="41">
         <v>471</v>
       </c>
       <c r="F595" s="29" t="s">
-        <v>7554</v>
+        <v>7550</v>
       </c>
       <c r="G595"/>
       <c r="H595"/>
       <c r="I595" t="s">
-        <v>7555</v>
-      </c>
-    </row>
-    <row r="596" spans="1:27" s="41" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>7551</v>
+      </c>
+    </row>
+    <row r="596" spans="1:28" s="41" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A596" s="41">
         <v>472</v>
       </c>
       <c r="F596" s="29" t="s">
-        <v>7561</v>
+        <v>7557</v>
       </c>
       <c r="G596"/>
       <c r="H596"/>
       <c r="I596" t="s">
-        <v>7559</v>
+        <v>7555</v>
       </c>
       <c r="J596" t="s">
+        <v>7836</v>
+      </c>
+      <c r="M596" t="s">
+        <v>7837</v>
+      </c>
+      <c r="N596" t="s">
+        <v>7838</v>
+      </c>
+      <c r="Q596" t="s">
+        <v>7839</v>
+      </c>
+      <c r="U596" t="s">
         <v>7840</v>
       </c>
-      <c r="M596" t="s">
+      <c r="V596" t="s">
         <v>7841</v>
       </c>
-      <c r="N596" t="s">
-        <v>7842</v>
-      </c>
-      <c r="Q596" t="s">
-        <v>7843</v>
-      </c>
-      <c r="U596" t="s">
-        <v>7844</v>
-      </c>
-      <c r="V596" t="s">
-        <v>7845</v>
-      </c>
-    </row>
-    <row r="597" spans="1:27" s="41" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="597" spans="1:28" s="41" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A597" s="41">
         <v>473</v>
       </c>
       <c r="F597" s="29" t="s">
-        <v>7562</v>
+        <v>7558</v>
       </c>
       <c r="G597"/>
       <c r="H597"/>
       <c r="I597" t="s">
-        <v>7560</v>
+        <v>7556</v>
       </c>
       <c r="J597" t="s">
+        <v>7842</v>
+      </c>
+      <c r="M597" t="s">
+        <v>7843</v>
+      </c>
+      <c r="N597" t="s">
+        <v>7844</v>
+      </c>
+      <c r="Q597" t="s">
+        <v>7845</v>
+      </c>
+      <c r="U597" t="s">
         <v>7846</v>
       </c>
-      <c r="M597" t="s">
+      <c r="V597" t="s">
         <v>7847</v>
       </c>
-      <c r="N597" t="s">
-        <v>7848</v>
-      </c>
-      <c r="Q597" t="s">
-        <v>7849</v>
-      </c>
-      <c r="U597" t="s">
-        <v>7850</v>
-      </c>
-      <c r="V597" t="s">
-        <v>7851</v>
-      </c>
-    </row>
-    <row r="598" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="598" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="F598" s="3" t="s">
-        <v>7861</v>
+        <v>7857</v>
       </c>
       <c r="I598" s="27" t="s">
-        <v>7862</v>
+        <v>7858</v>
       </c>
       <c r="M598" s="1" t="s">
-        <v>7863</v>
+        <v>7859</v>
       </c>
       <c r="N598" s="27" t="s">
-        <v>7864</v>
+        <v>7860</v>
       </c>
       <c r="R598" s="27" t="s">
-        <v>7871</v>
+        <v>7867</v>
       </c>
       <c r="S598" s="27" t="s">
         <v>1769</v>
       </c>
       <c r="U598" s="27" t="s">
+        <v>7861</v>
+      </c>
+      <c r="V598" s="27" t="s">
+        <v>7862</v>
+      </c>
+      <c r="X598" s="24" t="s">
+        <v>7863</v>
+      </c>
+      <c r="AA598" s="27" t="s">
         <v>7865</v>
       </c>
-      <c r="V598" s="27" t="s">
-        <v>7866</v>
-      </c>
-      <c r="X598" s="24" t="s">
-        <v>7867</v>
-      </c>
-      <c r="AA598" s="27" t="s">
-        <v>7869</v>
-      </c>
-    </row>
-    <row r="599" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="599" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="B599" s="1" t="b">
         <v>1</v>
       </c>
@@ -51936,12 +52056,12 @@
         <v>1</v>
       </c>
       <c r="F599" s="26" t="s">
-        <v>7898</v>
+        <v>7894</v>
       </c>
       <c r="G599" s="27"/>
       <c r="H599" s="27"/>
       <c r="I599" s="27" t="s">
-        <v>7899</v>
+        <v>7895</v>
       </c>
       <c r="J599" s="1" t="s">
         <v>586</v>
@@ -51950,7 +52070,7 @@
         <v>1917</v>
       </c>
       <c r="N599" s="1" t="s">
-        <v>7144</v>
+        <v>7141</v>
       </c>
       <c r="Q599" s="1" t="s">
         <v>1390</v>
@@ -51974,12 +52094,132 @@
         <v>1573</v>
       </c>
     </row>
+    <row r="600" spans="1:28" s="41" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F600" s="29" t="s">
+        <v>7904</v>
+      </c>
+      <c r="G600"/>
+      <c r="H600"/>
+      <c r="I600" t="s">
+        <v>7906</v>
+      </c>
+      <c r="J600" t="s">
+        <v>7908</v>
+      </c>
+      <c r="M600" t="s">
+        <v>7910</v>
+      </c>
+      <c r="N600" t="s">
+        <v>7912</v>
+      </c>
+      <c r="Q600" t="s">
+        <v>7914</v>
+      </c>
+      <c r="R600" s="41" t="s">
+        <v>7924</v>
+      </c>
+      <c r="U600" t="s">
+        <v>7915</v>
+      </c>
+      <c r="V600" t="s">
+        <v>7917</v>
+      </c>
+    </row>
+    <row r="601" spans="1:28" s="41" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F601" s="29" t="s">
+        <v>7905</v>
+      </c>
+      <c r="G601"/>
+      <c r="H601"/>
+      <c r="I601" t="s">
+        <v>7907</v>
+      </c>
+      <c r="J601" t="s">
+        <v>7909</v>
+      </c>
+      <c r="M601" t="s">
+        <v>7911</v>
+      </c>
+      <c r="N601" t="s">
+        <v>7913</v>
+      </c>
+      <c r="Q601" t="s">
+        <v>7922</v>
+      </c>
+      <c r="R601" s="41" t="s">
+        <v>7927</v>
+      </c>
+      <c r="U601" t="s">
+        <v>7916</v>
+      </c>
+      <c r="V601" t="s">
+        <v>7918</v>
+      </c>
+    </row>
+    <row r="602" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="F602" s="3" t="s">
+        <v>7928</v>
+      </c>
+      <c r="I602" s="27" t="s">
+        <v>7929</v>
+      </c>
+      <c r="J602" s="27" t="s">
+        <v>7930</v>
+      </c>
+      <c r="K602" s="27" t="s">
+        <v>7932</v>
+      </c>
+      <c r="L602" s="27" t="s">
+        <v>7933</v>
+      </c>
+      <c r="M602" s="27" t="s">
+        <v>7931</v>
+      </c>
+      <c r="N602" s="27" t="s">
+        <v>7934</v>
+      </c>
+      <c r="O602" s="27" t="s">
+        <v>7935</v>
+      </c>
+      <c r="Q602" s="27" t="s">
+        <v>7936</v>
+      </c>
+      <c r="R602" s="27" t="s">
+        <v>7937</v>
+      </c>
+      <c r="S602" s="27" t="s">
+        <v>7938</v>
+      </c>
+      <c r="U602" s="27" t="s">
+        <v>7939</v>
+      </c>
+      <c r="V602" s="27" t="s">
+        <v>7940</v>
+      </c>
+      <c r="W602" s="27" t="s">
+        <v>7941</v>
+      </c>
+      <c r="X602" s="27" t="s">
+        <v>7942</v>
+      </c>
+      <c r="Z602" s="27" t="s">
+        <v>7943</v>
+      </c>
+      <c r="AA602" s="6" t="s">
+        <v>7945</v>
+      </c>
+      <c r="AB602" s="27" t="s">
+        <v>7944</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AB599" xr:uid="{66F67DCD-E5E8-4C10-B29B-2F3972504186}">
-    <filterColumn colId="1">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
+  <autoFilter ref="A1:AB601" xr:uid="{66F67DCD-E5E8-4C10-B29B-2F3972504186}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="champion|tips|ally"/>
+        <filter val="champion|tips|enemy"/>
+        <filter val="Tips"/>
+      </filters>
     </filterColumn>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K1:AB1">
@@ -65664,13 +65904,13 @@
         <v>2574</v>
       </c>
       <c r="B1" s="38" t="s">
+        <v>7222</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>7221</v>
+      </c>
+      <c r="D1" s="38" t="s">
         <v>7225</v>
-      </c>
-      <c r="C1" s="38" t="s">
-        <v>7224</v>
-      </c>
-      <c r="D1" s="38" t="s">
-        <v>7228</v>
       </c>
       <c r="E1" s="36" t="s">
         <v>1</v>
@@ -65732,16 +65972,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>7226</v>
+        <v>7223</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>7227</v>
+        <v>7224</v>
       </c>
       <c r="D2" s="39" t="s">
-        <v>7233</v>
+        <v>7230</v>
       </c>
       <c r="F2" s="37" t="s">
-        <v>7394</v>
+        <v>7391</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="105" x14ac:dyDescent="0.25">
@@ -65749,16 +65989,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>7226</v>
+        <v>7223</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>7227</v>
+        <v>7224</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>7233</v>
+        <v>7230</v>
       </c>
       <c r="F3" s="37" t="s">
-        <v>7395</v>
+        <v>7392</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="90" x14ac:dyDescent="0.25">
@@ -65766,16 +66006,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>7226</v>
+        <v>7223</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>7227</v>
+        <v>7224</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>7234</v>
+        <v>7231</v>
       </c>
       <c r="F4" s="37" t="s">
-        <v>7396</v>
+        <v>7393</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="90" x14ac:dyDescent="0.25">
@@ -65783,16 +66023,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>7226</v>
+        <v>7223</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>7227</v>
+        <v>7224</v>
       </c>
       <c r="D5" s="39" t="s">
-        <v>7234</v>
+        <v>7231</v>
       </c>
       <c r="F5" s="37" t="s">
-        <v>7397</v>
+        <v>7394</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="105" x14ac:dyDescent="0.25">
@@ -65800,16 +66040,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>7226</v>
+        <v>7223</v>
       </c>
       <c r="C6" s="39" t="s">
+        <v>7228</v>
+      </c>
+      <c r="D6" s="39" t="s">
         <v>7231</v>
       </c>
-      <c r="D6" s="39" t="s">
-        <v>7234</v>
-      </c>
       <c r="F6" s="37" t="s">
-        <v>7347</v>
+        <v>7344</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="105" x14ac:dyDescent="0.25">
@@ -65817,16 +66057,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>7226</v>
+        <v>7223</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>7231</v>
+        <v>7228</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>7241</v>
+        <v>7238</v>
       </c>
       <c r="F7" s="37" t="s">
-        <v>7345</v>
+        <v>7342</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="75" x14ac:dyDescent="0.25">
@@ -65834,16 +66074,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>7226</v>
+        <v>7223</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>7231</v>
+        <v>7228</v>
       </c>
       <c r="D8" s="39" t="s">
-        <v>7241</v>
+        <v>7238</v>
       </c>
       <c r="F8" s="37" t="s">
-        <v>7346</v>
+        <v>7343</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="120" x14ac:dyDescent="0.25">
@@ -65851,16 +66091,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>7226</v>
+        <v>7223</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>7232</v>
+        <v>7229</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>7233</v>
+        <v>7230</v>
       </c>
       <c r="F9" s="37" t="s">
-        <v>7376</v>
+        <v>7373</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="120" x14ac:dyDescent="0.25">
@@ -65868,16 +66108,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="39" t="s">
-        <v>7226</v>
+        <v>7223</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>7232</v>
+        <v>7229</v>
       </c>
       <c r="D10" s="39" t="s">
-        <v>7233</v>
+        <v>7230</v>
       </c>
       <c r="F10" s="37" t="s">
-        <v>7377</v>
+        <v>7374</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="105" x14ac:dyDescent="0.25">
@@ -65885,16 +66125,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>7226</v>
+        <v>7223</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>7232</v>
+        <v>7229</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>7233</v>
+        <v>7230</v>
       </c>
       <c r="F11" s="37" t="s">
-        <v>7378</v>
+        <v>7375</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="75" x14ac:dyDescent="0.25">
@@ -65902,16 +66142,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>7226</v>
+        <v>7223</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>7232</v>
+        <v>7229</v>
       </c>
       <c r="D12" s="39" t="s">
-        <v>7234</v>
+        <v>7231</v>
       </c>
       <c r="F12" s="37" t="s">
-        <v>7380</v>
+        <v>7377</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="75" x14ac:dyDescent="0.25">
@@ -65919,506 +66159,506 @@
         <v>12</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>7226</v>
+        <v>7223</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>7232</v>
+        <v>7229</v>
       </c>
       <c r="D13" s="39" t="s">
-        <v>7234</v>
+        <v>7231</v>
       </c>
       <c r="F13" s="37" t="s">
-        <v>7379</v>
+        <v>7376</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="150" x14ac:dyDescent="0.25">
       <c r="B14" s="39" t="s">
-        <v>7226</v>
+        <v>7223</v>
       </c>
       <c r="C14" s="39" t="s">
-        <v>7239</v>
+        <v>7236</v>
       </c>
       <c r="D14" s="39" t="s">
-        <v>7241</v>
+        <v>7238</v>
       </c>
       <c r="F14" s="37" t="s">
-        <v>7367</v>
+        <v>7364</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="90" x14ac:dyDescent="0.25">
       <c r="B15" s="39" t="s">
-        <v>7226</v>
+        <v>7223</v>
       </c>
       <c r="C15" s="39" t="s">
-        <v>7239</v>
+        <v>7236</v>
       </c>
       <c r="D15" s="39" t="s">
-        <v>7241</v>
+        <v>7238</v>
       </c>
       <c r="F15" s="37" t="s">
-        <v>7364</v>
+        <v>7361</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="105" x14ac:dyDescent="0.25">
       <c r="B16" s="39" t="s">
-        <v>7226</v>
+        <v>7223</v>
       </c>
       <c r="C16" s="39" t="s">
-        <v>7239</v>
+        <v>7236</v>
       </c>
       <c r="D16" s="39" t="s">
-        <v>7240</v>
+        <v>7237</v>
       </c>
       <c r="F16" s="37" t="s">
-        <v>7363</v>
+        <v>7360</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="75" x14ac:dyDescent="0.25">
       <c r="B17" s="39" t="s">
-        <v>7226</v>
+        <v>7223</v>
       </c>
       <c r="C17" s="39" t="s">
-        <v>7239</v>
+        <v>7236</v>
       </c>
       <c r="D17" s="39" t="s">
-        <v>7240</v>
+        <v>7237</v>
       </c>
       <c r="F17" s="37" t="s">
-        <v>7365</v>
+        <v>7362</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="90" x14ac:dyDescent="0.25">
       <c r="B18" s="39" t="s">
-        <v>7226</v>
+        <v>7223</v>
       </c>
       <c r="C18" s="39" t="s">
-        <v>7239</v>
+        <v>7236</v>
       </c>
       <c r="D18" s="39" t="s">
-        <v>7240</v>
+        <v>7237</v>
       </c>
       <c r="F18" s="37" t="s">
-        <v>7366</v>
+        <v>7363</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="75" x14ac:dyDescent="0.25">
       <c r="B19" s="39" t="s">
-        <v>7226</v>
+        <v>7223</v>
       </c>
       <c r="C19" s="39" t="s">
-        <v>7242</v>
+        <v>7239</v>
       </c>
       <c r="D19" s="39" t="s">
-        <v>7233</v>
+        <v>7230</v>
       </c>
       <c r="F19" s="37" t="s">
-        <v>7368</v>
+        <v>7365</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="90" x14ac:dyDescent="0.25">
       <c r="B20" s="39" t="s">
-        <v>7226</v>
+        <v>7223</v>
       </c>
       <c r="C20" s="39" t="s">
-        <v>7242</v>
+        <v>7239</v>
       </c>
       <c r="D20" s="39" t="s">
-        <v>7233</v>
+        <v>7230</v>
       </c>
       <c r="F20" s="37" t="s">
-        <v>7370</v>
+        <v>7367</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="90" x14ac:dyDescent="0.25">
       <c r="B21" s="39" t="s">
-        <v>7226</v>
+        <v>7223</v>
       </c>
       <c r="C21" s="39" t="s">
-        <v>7242</v>
+        <v>7239</v>
       </c>
       <c r="D21" s="39" t="s">
-        <v>7233</v>
+        <v>7230</v>
       </c>
       <c r="F21" s="37" t="s">
-        <v>7369</v>
+        <v>7366</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="75" x14ac:dyDescent="0.25">
       <c r="B22" s="39" t="s">
-        <v>7226</v>
+        <v>7223</v>
       </c>
       <c r="C22" s="39" t="s">
-        <v>7242</v>
+        <v>7239</v>
       </c>
       <c r="D22" s="39" t="s">
-        <v>7234</v>
+        <v>7231</v>
       </c>
       <c r="F22" s="37" t="s">
-        <v>7371</v>
+        <v>7368</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="75" x14ac:dyDescent="0.25">
       <c r="B23" s="39" t="s">
-        <v>7226</v>
+        <v>7223</v>
       </c>
       <c r="C23" s="39" t="s">
-        <v>7242</v>
+        <v>7239</v>
       </c>
       <c r="D23" s="39" t="s">
-        <v>7234</v>
+        <v>7231</v>
       </c>
       <c r="F23" s="37" t="s">
-        <v>7372</v>
+        <v>7369</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="90" x14ac:dyDescent="0.25">
       <c r="B24" s="39" t="s">
-        <v>7226</v>
+        <v>7223</v>
       </c>
       <c r="C24" s="39" t="s">
-        <v>7243</v>
+        <v>7240</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>7241</v>
+        <v>7238</v>
       </c>
       <c r="F24" s="37" t="s">
-        <v>7383</v>
+        <v>7380</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="120" x14ac:dyDescent="0.25">
       <c r="B25" s="39" t="s">
-        <v>7226</v>
+        <v>7223</v>
       </c>
       <c r="C25" s="39" t="s">
-        <v>7243</v>
+        <v>7240</v>
       </c>
       <c r="D25" s="39" t="s">
-        <v>7241</v>
+        <v>7238</v>
       </c>
       <c r="F25" s="37" t="s">
-        <v>7384</v>
+        <v>7381</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="75" x14ac:dyDescent="0.25">
       <c r="B26" s="39" t="s">
-        <v>7226</v>
+        <v>7223</v>
       </c>
       <c r="C26" s="39" t="s">
-        <v>7243</v>
+        <v>7240</v>
       </c>
       <c r="D26" s="39" t="s">
-        <v>7241</v>
+        <v>7238</v>
       </c>
       <c r="F26" s="37" t="s">
-        <v>7385</v>
+        <v>7382</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B27" s="39" t="s">
-        <v>7226</v>
+        <v>7223</v>
       </c>
       <c r="C27" s="39" t="s">
-        <v>7243</v>
+        <v>7240</v>
       </c>
       <c r="D27" s="39" t="s">
-        <v>7234</v>
+        <v>7231</v>
       </c>
       <c r="F27" s="37" t="s">
-        <v>7386</v>
+        <v>7383</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="75" x14ac:dyDescent="0.25">
       <c r="B28" s="39" t="s">
-        <v>7226</v>
+        <v>7223</v>
       </c>
       <c r="C28" s="39" t="s">
-        <v>7243</v>
+        <v>7240</v>
       </c>
       <c r="D28" s="39" t="s">
-        <v>7234</v>
+        <v>7231</v>
       </c>
       <c r="F28" s="37" t="s">
-        <v>7387</v>
+        <v>7384</v>
       </c>
     </row>
     <row r="29" spans="2:6" ht="105" x14ac:dyDescent="0.25">
       <c r="B29" s="39" t="s">
-        <v>7226</v>
+        <v>7223</v>
       </c>
       <c r="C29" s="39" t="s">
-        <v>7243</v>
+        <v>7240</v>
       </c>
       <c r="D29" s="39" t="s">
-        <v>7234</v>
+        <v>7231</v>
       </c>
       <c r="F29" s="37" t="s">
-        <v>7388</v>
+        <v>7385</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B30" s="39" t="s">
-        <v>7226</v>
+        <v>7223</v>
       </c>
       <c r="C30" s="39" t="s">
-        <v>7244</v>
+        <v>7241</v>
       </c>
       <c r="D30" s="39" t="s">
-        <v>7233</v>
+        <v>7230</v>
       </c>
       <c r="F30" s="37" t="s">
-        <v>7381</v>
+        <v>7378</v>
       </c>
     </row>
     <row r="31" spans="2:6" ht="135" x14ac:dyDescent="0.25">
       <c r="B31" s="39" t="s">
-        <v>7226</v>
+        <v>7223</v>
       </c>
       <c r="C31" s="39" t="s">
-        <v>7244</v>
+        <v>7241</v>
       </c>
       <c r="D31" s="39" t="s">
-        <v>7233</v>
+        <v>7230</v>
       </c>
       <c r="F31" s="37" t="s">
-        <v>7382</v>
+        <v>7379</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="120" x14ac:dyDescent="0.25">
       <c r="B32" s="39" t="s">
-        <v>7226</v>
+        <v>7223</v>
       </c>
       <c r="C32" s="39" t="s">
-        <v>7244</v>
+        <v>7241</v>
       </c>
       <c r="D32" s="39" t="s">
-        <v>7234</v>
+        <v>7231</v>
       </c>
       <c r="F32" s="37" t="s">
-        <v>7402</v>
+        <v>7399</v>
       </c>
     </row>
     <row r="33" spans="2:6" ht="105" x14ac:dyDescent="0.25">
       <c r="B33" s="39" t="s">
-        <v>7226</v>
+        <v>7223</v>
       </c>
       <c r="C33" s="39" t="s">
-        <v>7245</v>
+        <v>7242</v>
       </c>
       <c r="D33" s="39" t="s">
-        <v>7233</v>
+        <v>7230</v>
       </c>
       <c r="F33" s="37" t="s">
-        <v>7373</v>
+        <v>7370</v>
       </c>
     </row>
     <row r="34" spans="2:6" ht="75" x14ac:dyDescent="0.25">
       <c r="B34" s="39" t="s">
-        <v>7226</v>
+        <v>7223</v>
       </c>
       <c r="C34" s="39" t="s">
-        <v>7245</v>
+        <v>7242</v>
       </c>
       <c r="D34" s="39" t="s">
-        <v>7233</v>
+        <v>7230</v>
       </c>
       <c r="F34" s="37" t="s">
-        <v>7374</v>
+        <v>7371</v>
       </c>
     </row>
     <row r="35" spans="2:6" ht="120" x14ac:dyDescent="0.25">
       <c r="B35" s="39" t="s">
-        <v>7226</v>
+        <v>7223</v>
       </c>
       <c r="C35" s="39" t="s">
-        <v>7245</v>
+        <v>7242</v>
       </c>
       <c r="D35" s="39" t="s">
-        <v>7234</v>
+        <v>7231</v>
       </c>
       <c r="F35" s="37" t="s">
-        <v>7375</v>
+        <v>7372</v>
       </c>
     </row>
     <row r="36" spans="2:6" ht="90" x14ac:dyDescent="0.25">
       <c r="B36" s="39" t="s">
-        <v>7226</v>
+        <v>7223</v>
       </c>
       <c r="C36" s="39" t="s">
-        <v>7246</v>
+        <v>7243</v>
       </c>
       <c r="D36" s="39" t="s">
-        <v>7233</v>
+        <v>7230</v>
       </c>
       <c r="F36" s="37" t="s">
-        <v>7362</v>
+        <v>7359</v>
       </c>
     </row>
     <row r="37" spans="2:6" ht="75" x14ac:dyDescent="0.25">
       <c r="B37" s="39" t="s">
-        <v>7226</v>
+        <v>7223</v>
       </c>
       <c r="C37" s="39" t="s">
-        <v>7246</v>
+        <v>7243</v>
       </c>
       <c r="D37" s="39" t="s">
-        <v>7233</v>
+        <v>7230</v>
       </c>
       <c r="F37" s="37" t="s">
-        <v>7360</v>
+        <v>7357</v>
       </c>
     </row>
     <row r="38" spans="2:6" ht="165" x14ac:dyDescent="0.25">
       <c r="B38" s="39" t="s">
-        <v>7226</v>
+        <v>7223</v>
       </c>
       <c r="C38" s="39" t="s">
-        <v>7246</v>
+        <v>7243</v>
       </c>
       <c r="D38" s="39" t="s">
-        <v>7234</v>
+        <v>7231</v>
       </c>
       <c r="F38" s="37" t="s">
-        <v>7361</v>
+        <v>7358</v>
       </c>
     </row>
     <row r="39" spans="2:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B39" s="39" t="s">
-        <v>7226</v>
+        <v>7223</v>
       </c>
       <c r="C39" s="39" t="s">
-        <v>7246</v>
+        <v>7243</v>
       </c>
       <c r="D39" s="39" t="s">
-        <v>7234</v>
+        <v>7231</v>
       </c>
       <c r="F39" s="37" t="s">
-        <v>7359</v>
+        <v>7356</v>
       </c>
     </row>
     <row r="40" spans="2:6" ht="75" x14ac:dyDescent="0.25">
       <c r="B40" s="39" t="s">
-        <v>7226</v>
+        <v>7223</v>
       </c>
       <c r="C40" s="39" t="s">
-        <v>7247</v>
+        <v>7244</v>
       </c>
       <c r="D40" s="39" t="s">
-        <v>7233</v>
+        <v>7230</v>
       </c>
       <c r="F40" s="37" t="s">
-        <v>7389</v>
+        <v>7386</v>
       </c>
     </row>
     <row r="41" spans="2:6" ht="105" x14ac:dyDescent="0.25">
       <c r="B41" s="39" t="s">
-        <v>7226</v>
+        <v>7223</v>
       </c>
       <c r="C41" s="39" t="s">
-        <v>7247</v>
+        <v>7244</v>
       </c>
       <c r="D41" s="39" t="s">
-        <v>7233</v>
+        <v>7230</v>
       </c>
       <c r="F41" s="37" t="s">
-        <v>7390</v>
+        <v>7387</v>
       </c>
     </row>
     <row r="42" spans="2:6" ht="105" x14ac:dyDescent="0.25">
       <c r="B42" s="39" t="s">
-        <v>7226</v>
+        <v>7223</v>
       </c>
       <c r="C42" s="39" t="s">
-        <v>7247</v>
+        <v>7244</v>
       </c>
       <c r="D42" s="39" t="s">
-        <v>7234</v>
+        <v>7231</v>
       </c>
       <c r="F42" s="37" t="s">
-        <v>7391</v>
+        <v>7388</v>
       </c>
     </row>
     <row r="43" spans="2:6" ht="105" x14ac:dyDescent="0.25">
       <c r="B43" s="39" t="s">
-        <v>7226</v>
+        <v>7223</v>
       </c>
       <c r="C43" s="39" t="s">
-        <v>7247</v>
+        <v>7244</v>
       </c>
       <c r="D43" s="39" t="s">
-        <v>7234</v>
+        <v>7231</v>
       </c>
       <c r="F43" s="37" t="s">
-        <v>7392</v>
+        <v>7389</v>
       </c>
     </row>
     <row r="44" spans="2:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B44" s="39" t="s">
-        <v>7226</v>
+        <v>7223</v>
       </c>
       <c r="C44" s="39" t="s">
-        <v>7247</v>
+        <v>7244</v>
       </c>
       <c r="D44" s="39" t="s">
-        <v>7234</v>
+        <v>7231</v>
       </c>
       <c r="F44" s="37" t="s">
-        <v>7393</v>
+        <v>7390</v>
       </c>
     </row>
     <row r="45" spans="2:6" ht="120" x14ac:dyDescent="0.25">
       <c r="B45" s="39" t="s">
-        <v>7226</v>
+        <v>7223</v>
       </c>
       <c r="C45" s="39" t="s">
-        <v>7248</v>
+        <v>7245</v>
       </c>
       <c r="D45" s="39" t="s">
-        <v>7233</v>
+        <v>7230</v>
       </c>
       <c r="F45" s="37" t="s">
-        <v>7401</v>
+        <v>7398</v>
       </c>
     </row>
     <row r="46" spans="2:6" ht="75" x14ac:dyDescent="0.25">
       <c r="B46" s="39" t="s">
-        <v>7226</v>
+        <v>7223</v>
       </c>
       <c r="C46" s="39" t="s">
-        <v>7248</v>
+        <v>7245</v>
       </c>
       <c r="D46" s="39" t="s">
-        <v>7233</v>
+        <v>7230</v>
       </c>
       <c r="F46" s="37" t="s">
-        <v>7399</v>
+        <v>7396</v>
       </c>
     </row>
     <row r="47" spans="2:6" ht="90" x14ac:dyDescent="0.25">
       <c r="B47" s="39" t="s">
-        <v>7226</v>
+        <v>7223</v>
       </c>
       <c r="C47" s="39" t="s">
-        <v>7248</v>
+        <v>7245</v>
       </c>
       <c r="D47" s="39" t="s">
-        <v>7234</v>
+        <v>7231</v>
       </c>
       <c r="F47" s="37" t="s">
-        <v>7400</v>
+        <v>7397</v>
       </c>
     </row>
     <row r="48" spans="2:6" ht="75" x14ac:dyDescent="0.25">
       <c r="B48" s="39" t="s">
-        <v>7226</v>
+        <v>7223</v>
       </c>
       <c r="C48" s="39" t="s">
-        <v>7248</v>
+        <v>7245</v>
       </c>
       <c r="D48" s="39" t="s">
-        <v>7234</v>
+        <v>7231</v>
       </c>
       <c r="F48" s="37" t="s">
-        <v>7398</v>
+        <v>7395</v>
       </c>
     </row>
   </sheetData>
@@ -66451,19 +66691,19 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
-        <v>7564</v>
+        <v>7560</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>7714</v>
+        <v>7710</v>
       </c>
       <c r="C1" s="38" t="s">
         <v>618</v>
       </c>
       <c r="D1" s="38" t="s">
-        <v>7713</v>
+        <v>7709</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>7712</v>
+        <v>7708</v>
       </c>
       <c r="F1" s="42" t="s">
         <v>0</v>
@@ -66528,957 +66768,957 @@
     </row>
     <row r="2" spans="1:25" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
-        <v>7571</v>
+        <v>7567</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>7599</v>
+        <v>7595</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>7316</v>
+        <v>7313</v>
       </c>
       <c r="D2" s="39" t="s">
-        <v>7711</v>
+        <v>7707</v>
       </c>
       <c r="E2" s="39">
         <v>8005</v>
       </c>
       <c r="F2" s="43" t="s">
-        <v>7710</v>
+        <v>7706</v>
       </c>
       <c r="G2" s="37" t="s">
-        <v>7719</v>
+        <v>7715</v>
       </c>
       <c r="H2" s="44"/>
     </row>
     <row r="3" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="39" t="s">
-        <v>7571</v>
+        <v>7567</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>7599</v>
+        <v>7595</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>7319</v>
+        <v>7316</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>7709</v>
+        <v>7705</v>
       </c>
       <c r="E3" s="39">
         <v>8008</v>
       </c>
       <c r="F3" s="43" t="s">
-        <v>7744</v>
+        <v>7740</v>
       </c>
       <c r="G3" s="37" t="s">
-        <v>7816</v>
+        <v>7812</v>
       </c>
       <c r="H3" s="44"/>
     </row>
     <row r="4" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="s">
-        <v>7571</v>
+        <v>7567</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>7599</v>
+        <v>7595</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>7708</v>
+        <v>7704</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>7707</v>
+        <v>7703</v>
       </c>
       <c r="E4" s="39">
         <v>8021</v>
       </c>
       <c r="F4" s="45" t="s">
-        <v>7706</v>
+        <v>7702</v>
       </c>
       <c r="G4" s="37" t="s">
-        <v>7745</v>
+        <v>7741</v>
       </c>
       <c r="H4" s="44"/>
     </row>
     <row r="5" spans="1:25" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
-        <v>7571</v>
+        <v>7567</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>7599</v>
+        <v>7595</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>7705</v>
+        <v>7701</v>
       </c>
       <c r="D5" s="39" t="s">
-        <v>7705</v>
+        <v>7701</v>
       </c>
       <c r="E5" s="39">
         <v>8010</v>
       </c>
       <c r="F5" s="45" t="s">
-        <v>7815</v>
+        <v>7811</v>
       </c>
       <c r="G5" s="37" t="s">
-        <v>7814</v>
+        <v>7810</v>
       </c>
       <c r="H5" s="44" t="s">
-        <v>7813</v>
+        <v>7809</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="39" t="s">
-        <v>7571</v>
+        <v>7567</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>7591</v>
+        <v>7587</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>7704</v>
+        <v>7700</v>
       </c>
       <c r="D6" s="39" t="s">
-        <v>7704</v>
+        <v>7700</v>
       </c>
       <c r="E6" s="39">
         <v>9101</v>
       </c>
       <c r="F6" s="45" t="s">
-        <v>7703</v>
+        <v>7699</v>
       </c>
       <c r="G6" s="37" t="s">
-        <v>7716</v>
+        <v>7712</v>
       </c>
       <c r="H6" s="39" t="s">
-        <v>7751</v>
+        <v>7747</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="39" t="s">
-        <v>7571</v>
+        <v>7567</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>7591</v>
+        <v>7587</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>7702</v>
+        <v>7698</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>7702</v>
+        <v>7698</v>
       </c>
       <c r="E7" s="39">
         <v>9111</v>
       </c>
       <c r="F7" s="45" t="s">
-        <v>7701</v>
+        <v>7697</v>
       </c>
       <c r="G7" s="37" t="s">
-        <v>7720</v>
+        <v>7716</v>
       </c>
       <c r="H7" s="39" t="s">
-        <v>7751</v>
+        <v>7747</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="39" t="s">
-        <v>7571</v>
+        <v>7567</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>7591</v>
+        <v>7587</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>7700</v>
+        <v>7696</v>
       </c>
       <c r="D8" s="39" t="s">
-        <v>7699</v>
+        <v>7695</v>
       </c>
       <c r="E8" s="39">
         <v>8009</v>
       </c>
       <c r="F8" s="43" t="s">
-        <v>7746</v>
+        <v>7742</v>
       </c>
       <c r="G8" s="37" t="s">
-        <v>7821</v>
+        <v>7817</v>
       </c>
       <c r="H8" s="44"/>
     </row>
     <row r="9" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="39" t="s">
-        <v>7571</v>
+        <v>7567</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>7583</v>
+        <v>7579</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>7698</v>
+        <v>7694</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>7697</v>
+        <v>7693</v>
       </c>
       <c r="E9" s="39">
         <v>9104</v>
       </c>
       <c r="F9" s="46" t="s">
-        <v>7696</v>
+        <v>7692</v>
       </c>
       <c r="G9" s="37" t="s">
-        <v>7721</v>
+        <v>7717</v>
       </c>
       <c r="H9" s="44"/>
     </row>
     <row r="10" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="39" t="s">
-        <v>7571</v>
+        <v>7567</v>
       </c>
       <c r="B10" s="39" t="s">
-        <v>7583</v>
+        <v>7579</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>7695</v>
+        <v>7691</v>
       </c>
       <c r="D10" s="39" t="s">
-        <v>7694</v>
+        <v>7690</v>
       </c>
       <c r="E10" s="39">
         <v>9105</v>
       </c>
       <c r="F10" s="46" t="s">
-        <v>7747</v>
+        <v>7743</v>
       </c>
       <c r="G10" s="37" t="s">
-        <v>7748</v>
+        <v>7744</v>
       </c>
       <c r="H10" s="44"/>
     </row>
     <row r="11" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="39" t="s">
-        <v>7571</v>
+        <v>7567</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>7583</v>
+        <v>7579</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>7693</v>
+        <v>7689</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>7692</v>
+        <v>7688</v>
       </c>
       <c r="E11" s="39">
         <v>9103</v>
       </c>
       <c r="F11" s="43" t="s">
-        <v>7749</v>
+        <v>7745</v>
       </c>
       <c r="G11" s="37" t="s">
-        <v>7750</v>
+        <v>7746</v>
       </c>
       <c r="H11" s="44"/>
     </row>
     <row r="12" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="39" t="s">
-        <v>7571</v>
+        <v>7567</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>7574</v>
+        <v>7570</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>7691</v>
+        <v>7687</v>
       </c>
       <c r="D12" s="39" t="s">
-        <v>7690</v>
+        <v>7686</v>
       </c>
       <c r="E12" s="39">
         <v>8014</v>
       </c>
       <c r="F12" s="45" t="s">
-        <v>7689</v>
+        <v>7685</v>
       </c>
       <c r="G12" s="37" t="s">
-        <v>7722</v>
+        <v>7718</v>
       </c>
       <c r="H12" s="39" t="s">
-        <v>7751</v>
+        <v>7747</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="39" t="s">
-        <v>7571</v>
+        <v>7567</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>7574</v>
+        <v>7570</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>7688</v>
+        <v>7684</v>
       </c>
       <c r="D13" s="39" t="s">
-        <v>7687</v>
+        <v>7683</v>
       </c>
       <c r="E13" s="39">
         <v>8017</v>
       </c>
       <c r="F13" s="45" t="s">
-        <v>7726</v>
+        <v>7722</v>
       </c>
       <c r="G13" s="37" t="s">
-        <v>7727</v>
+        <v>7723</v>
       </c>
       <c r="H13" s="44"/>
     </row>
     <row r="14" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="39" t="s">
-        <v>7571</v>
+        <v>7567</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>7574</v>
+        <v>7570</v>
       </c>
       <c r="C14" s="39" t="s">
-        <v>7686</v>
+        <v>7682</v>
       </c>
       <c r="D14" s="39" t="s">
-        <v>7685</v>
+        <v>7681</v>
       </c>
       <c r="E14" s="39">
         <v>8299</v>
       </c>
       <c r="F14" s="45" t="s">
-        <v>7684</v>
+        <v>7680</v>
       </c>
       <c r="G14" s="37" t="s">
-        <v>7752</v>
+        <v>7748</v>
       </c>
       <c r="H14" s="39" t="s">
-        <v>7751</v>
+        <v>7747</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="39" t="s">
-        <v>7569</v>
+        <v>7565</v>
       </c>
       <c r="B15" s="39" t="s">
-        <v>7599</v>
+        <v>7595</v>
       </c>
       <c r="C15" s="39" t="s">
-        <v>7264</v>
+        <v>7261</v>
       </c>
       <c r="D15" s="39" t="s">
-        <v>7264</v>
+        <v>7261</v>
       </c>
       <c r="E15" s="39">
         <v>8112</v>
       </c>
       <c r="F15" s="43" t="s">
-        <v>7683</v>
+        <v>7679</v>
       </c>
       <c r="G15" s="37" t="s">
-        <v>7728</v>
+        <v>7724</v>
       </c>
       <c r="H15" s="44"/>
     </row>
     <row r="16" spans="1:25" ht="90" x14ac:dyDescent="0.25">
       <c r="A16" s="39" t="s">
-        <v>7569</v>
+        <v>7565</v>
       </c>
       <c r="B16" s="39" t="s">
-        <v>7599</v>
+        <v>7595</v>
       </c>
       <c r="C16" s="39" t="s">
-        <v>7682</v>
+        <v>7678</v>
       </c>
       <c r="D16" s="39" t="s">
-        <v>7682</v>
+        <v>7678</v>
       </c>
       <c r="E16" s="39">
         <v>8124</v>
       </c>
       <c r="F16" s="45" t="s">
-        <v>7874</v>
+        <v>7870</v>
       </c>
       <c r="G16" s="37" t="s">
-        <v>7873</v>
+        <v>7869</v>
       </c>
       <c r="H16" s="44" t="s">
-        <v>7753</v>
+        <v>7749</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="39" t="s">
-        <v>7569</v>
+        <v>7565</v>
       </c>
       <c r="B17" s="39" t="s">
-        <v>7599</v>
+        <v>7595</v>
       </c>
       <c r="C17" s="39" t="s">
-        <v>7681</v>
+        <v>7677</v>
       </c>
       <c r="D17" s="39" t="s">
-        <v>7680</v>
+        <v>7676</v>
       </c>
       <c r="E17" s="39">
         <v>8128</v>
       </c>
       <c r="F17" s="45" t="s">
-        <v>7679</v>
+        <v>7675</v>
       </c>
       <c r="G17" s="37" t="s">
-        <v>7754</v>
+        <v>7750</v>
       </c>
       <c r="H17" s="44"/>
     </row>
     <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="39" t="s">
-        <v>7569</v>
+        <v>7565</v>
       </c>
       <c r="B18" s="39" t="s">
-        <v>7599</v>
+        <v>7595</v>
       </c>
       <c r="C18" s="39" t="s">
-        <v>7678</v>
+        <v>7674</v>
       </c>
       <c r="D18" s="39" t="s">
-        <v>7677</v>
+        <v>7673</v>
       </c>
       <c r="E18" s="39">
         <v>9923</v>
       </c>
       <c r="F18" s="45" t="s">
-        <v>7755</v>
+        <v>7751</v>
       </c>
       <c r="G18" s="37" t="s">
-        <v>7756</v>
+        <v>7752</v>
       </c>
       <c r="H18" s="44"/>
     </row>
     <row r="19" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="39" t="s">
-        <v>7569</v>
+        <v>7565</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>7591</v>
+        <v>7587</v>
       </c>
       <c r="C19" s="39" t="s">
-        <v>7676</v>
+        <v>7672</v>
       </c>
       <c r="D19" s="39" t="s">
-        <v>7675</v>
+        <v>7671</v>
       </c>
       <c r="E19" s="39">
         <v>8126</v>
       </c>
       <c r="F19" s="43" t="s">
-        <v>7674</v>
+        <v>7670</v>
       </c>
       <c r="G19" s="43" t="s">
-        <v>7757</v>
+        <v>7753</v>
       </c>
       <c r="H19" s="44"/>
     </row>
     <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="39" t="s">
-        <v>7569</v>
+        <v>7565</v>
       </c>
       <c r="B20" s="39" t="s">
-        <v>7591</v>
+        <v>7587</v>
       </c>
       <c r="C20" s="39" t="s">
-        <v>7673</v>
+        <v>7669</v>
       </c>
       <c r="D20" s="39" t="s">
-        <v>7672</v>
+        <v>7668</v>
       </c>
       <c r="E20" s="39">
         <v>8139</v>
       </c>
       <c r="F20" s="45" t="s">
-        <v>7671</v>
+        <v>7667</v>
       </c>
       <c r="G20" s="37" t="s">
-        <v>7729</v>
+        <v>7725</v>
       </c>
       <c r="H20" s="44"/>
     </row>
     <row r="21" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A21" s="39" t="s">
-        <v>7569</v>
+        <v>7565</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>7591</v>
+        <v>7587</v>
       </c>
       <c r="C21" s="39" t="s">
-        <v>7670</v>
+        <v>7666</v>
       </c>
       <c r="D21" s="39" t="s">
-        <v>7669</v>
+        <v>7665</v>
       </c>
       <c r="E21" s="39">
         <v>8143</v>
       </c>
       <c r="F21" s="43" t="s">
-        <v>7808</v>
+        <v>7804</v>
       </c>
       <c r="G21" s="37" t="s">
-        <v>7822</v>
+        <v>7818</v>
       </c>
       <c r="H21" s="44"/>
     </row>
     <row r="22" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="39" t="s">
-        <v>7569</v>
+        <v>7565</v>
       </c>
       <c r="B22" s="39" t="s">
-        <v>7583</v>
+        <v>7579</v>
       </c>
       <c r="C22" s="39" t="s">
-        <v>7668</v>
+        <v>7664</v>
       </c>
       <c r="D22" s="39" t="s">
-        <v>7667</v>
+        <v>7663</v>
       </c>
       <c r="E22" s="39">
         <v>8136</v>
       </c>
       <c r="F22" s="45" t="s">
-        <v>7758</v>
+        <v>7754</v>
       </c>
       <c r="G22" s="37" t="s">
-        <v>7759</v>
+        <v>7755</v>
       </c>
       <c r="H22" s="44"/>
     </row>
     <row r="23" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="39" t="s">
-        <v>7569</v>
+        <v>7565</v>
       </c>
       <c r="B23" s="39" t="s">
-        <v>7583</v>
+        <v>7579</v>
       </c>
       <c r="C23" s="39" t="s">
-        <v>7666</v>
+        <v>7662</v>
       </c>
       <c r="D23" s="39" t="s">
-        <v>7665</v>
+        <v>7661</v>
       </c>
       <c r="E23" s="39">
         <v>8120</v>
       </c>
       <c r="F23" s="45" t="s">
-        <v>7760</v>
+        <v>7756</v>
       </c>
       <c r="G23" s="37" t="s">
-        <v>7761</v>
+        <v>7757</v>
       </c>
       <c r="H23" s="44"/>
     </row>
     <row r="24" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="39" t="s">
-        <v>7569</v>
+        <v>7565</v>
       </c>
       <c r="B24" s="39" t="s">
-        <v>7583</v>
+        <v>7579</v>
       </c>
       <c r="C24" s="39" t="s">
-        <v>7664</v>
+        <v>7660</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>7663</v>
+        <v>7659</v>
       </c>
       <c r="E24" s="39">
         <v>8138</v>
       </c>
       <c r="F24" s="43" t="s">
-        <v>7662</v>
+        <v>7658</v>
       </c>
       <c r="G24" s="37" t="s">
-        <v>7730</v>
+        <v>7726</v>
       </c>
       <c r="H24" s="44"/>
     </row>
     <row r="25" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A25" s="39" t="s">
-        <v>7569</v>
+        <v>7565</v>
       </c>
       <c r="B25" s="39" t="s">
-        <v>7574</v>
+        <v>7570</v>
       </c>
       <c r="C25" s="39" t="s">
-        <v>7661</v>
+        <v>7657</v>
       </c>
       <c r="D25" s="39" t="s">
-        <v>7660</v>
+        <v>7656</v>
       </c>
       <c r="E25" s="39">
         <v>8135</v>
       </c>
       <c r="F25" s="43" t="s">
-        <v>7762</v>
+        <v>7758</v>
       </c>
       <c r="G25" s="37" t="s">
-        <v>7763</v>
+        <v>7759</v>
       </c>
       <c r="H25" s="44"/>
     </row>
     <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="39" t="s">
-        <v>7569</v>
+        <v>7565</v>
       </c>
       <c r="B26" s="39" t="s">
-        <v>7574</v>
+        <v>7570</v>
       </c>
       <c r="C26" s="39" t="s">
-        <v>7659</v>
+        <v>7655</v>
       </c>
       <c r="D26" s="39" t="s">
-        <v>7658</v>
+        <v>7654</v>
       </c>
       <c r="E26" s="39">
         <v>8134</v>
       </c>
       <c r="F26" s="45" t="s">
-        <v>7657</v>
+        <v>7653</v>
       </c>
       <c r="G26" s="37" t="s">
-        <v>7731</v>
+        <v>7727</v>
       </c>
       <c r="H26" s="44" t="s">
-        <v>7764</v>
+        <v>7760</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="39" t="s">
-        <v>7569</v>
+        <v>7565</v>
       </c>
       <c r="B27" s="39" t="s">
-        <v>7574</v>
+        <v>7570</v>
       </c>
       <c r="C27" s="39" t="s">
-        <v>7656</v>
+        <v>7652</v>
       </c>
       <c r="D27" s="39" t="s">
-        <v>7655</v>
+        <v>7651</v>
       </c>
       <c r="E27" s="39">
         <v>8105</v>
       </c>
       <c r="F27" s="45" t="s">
-        <v>7765</v>
+        <v>7761</v>
       </c>
       <c r="G27" s="43" t="s">
-        <v>7766</v>
+        <v>7762</v>
       </c>
       <c r="H27" s="44"/>
     </row>
     <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="39" t="s">
-        <v>7569</v>
+        <v>7565</v>
       </c>
       <c r="B28" s="39" t="s">
-        <v>7574</v>
+        <v>7570</v>
       </c>
       <c r="C28" s="39" t="s">
-        <v>7654</v>
+        <v>7650</v>
       </c>
       <c r="D28" s="39" t="s">
-        <v>7653</v>
+        <v>7649</v>
       </c>
       <c r="E28" s="39">
         <v>8106</v>
       </c>
       <c r="F28" s="45" t="s">
-        <v>7652</v>
+        <v>7648</v>
       </c>
       <c r="G28" s="37" t="s">
-        <v>7732</v>
+        <v>7728</v>
       </c>
       <c r="H28" s="39" t="s">
-        <v>7767</v>
+        <v>7763</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="39" t="s">
-        <v>7567</v>
+        <v>7563</v>
       </c>
       <c r="B29" s="39" t="s">
-        <v>7599</v>
+        <v>7595</v>
       </c>
       <c r="C29" s="39" t="s">
-        <v>7651</v>
+        <v>7647</v>
       </c>
       <c r="D29" s="39" t="s">
-        <v>7650</v>
+        <v>7646</v>
       </c>
       <c r="E29" s="39">
         <v>8214</v>
       </c>
       <c r="F29" s="45" t="s">
-        <v>7649</v>
+        <v>7645</v>
       </c>
       <c r="G29" s="37" t="s">
-        <v>7768</v>
+        <v>7764</v>
       </c>
       <c r="H29" s="44"/>
     </row>
     <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="39" t="s">
-        <v>7567</v>
+        <v>7563</v>
       </c>
       <c r="B30" s="39" t="s">
-        <v>7599</v>
+        <v>7595</v>
       </c>
       <c r="C30" s="39" t="s">
-        <v>7648</v>
+        <v>7644</v>
       </c>
       <c r="D30" s="39" t="s">
-        <v>7647</v>
+        <v>7643</v>
       </c>
       <c r="E30" s="39">
         <v>8229</v>
       </c>
       <c r="F30" s="45" t="s">
-        <v>7646</v>
+        <v>7642</v>
       </c>
       <c r="G30" s="37" t="s">
-        <v>7769</v>
+        <v>7765</v>
       </c>
       <c r="H30" s="44"/>
     </row>
     <row r="31" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="39" t="s">
-        <v>7567</v>
+        <v>7563</v>
       </c>
       <c r="B31" s="39" t="s">
-        <v>7599</v>
+        <v>7595</v>
       </c>
       <c r="C31" s="39" t="s">
-        <v>7273</v>
+        <v>7270</v>
       </c>
       <c r="D31" s="39" t="s">
-        <v>7645</v>
+        <v>7641</v>
       </c>
       <c r="E31" s="39">
         <v>8230</v>
       </c>
       <c r="F31" s="43" t="s">
-        <v>7770</v>
+        <v>7766</v>
       </c>
       <c r="G31" s="37" t="s">
-        <v>7771</v>
+        <v>7767</v>
       </c>
       <c r="H31" s="44"/>
     </row>
     <row r="32" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A32" s="39" t="s">
-        <v>7567</v>
+        <v>7563</v>
       </c>
       <c r="B32" s="39" t="s">
-        <v>7591</v>
+        <v>7587</v>
       </c>
       <c r="C32" s="39" t="s">
-        <v>7644</v>
+        <v>7640</v>
       </c>
       <c r="D32" s="39" t="s">
-        <v>7643</v>
+        <v>7639</v>
       </c>
       <c r="E32" s="39">
         <v>8224</v>
       </c>
       <c r="F32" s="45" t="s">
-        <v>7800</v>
+        <v>7796</v>
       </c>
       <c r="G32" s="37" t="s">
-        <v>7823</v>
+        <v>7819</v>
       </c>
       <c r="H32" s="44"/>
     </row>
     <row r="33" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="39" t="s">
-        <v>7567</v>
+        <v>7563</v>
       </c>
       <c r="B33" s="39" t="s">
-        <v>7591</v>
+        <v>7587</v>
       </c>
       <c r="C33" s="39" t="s">
-        <v>7642</v>
+        <v>7638</v>
       </c>
       <c r="D33" s="39" t="s">
-        <v>7641</v>
+        <v>7637</v>
       </c>
       <c r="E33" s="39">
         <v>8226</v>
       </c>
       <c r="F33" s="43" t="s">
-        <v>7772</v>
+        <v>7768</v>
       </c>
       <c r="G33" s="37" t="s">
-        <v>7773</v>
+        <v>7769</v>
       </c>
       <c r="H33" s="44"/>
     </row>
     <row r="34" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A34" s="39" t="s">
-        <v>7567</v>
+        <v>7563</v>
       </c>
       <c r="B34" s="39" t="s">
-        <v>7591</v>
+        <v>7587</v>
       </c>
       <c r="C34" s="39" t="s">
-        <v>7640</v>
+        <v>7636</v>
       </c>
       <c r="D34" s="39" t="s">
-        <v>7639</v>
+        <v>7635</v>
       </c>
       <c r="E34" s="39">
         <v>8275</v>
       </c>
       <c r="F34" s="43" t="s">
-        <v>7774</v>
+        <v>7770</v>
       </c>
       <c r="G34" s="37" t="s">
-        <v>7775</v>
+        <v>7771</v>
       </c>
       <c r="H34" s="44"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="39" t="s">
-        <v>7567</v>
+        <v>7563</v>
       </c>
       <c r="B35" s="39" t="s">
-        <v>7583</v>
+        <v>7579</v>
       </c>
       <c r="C35" s="39" t="s">
-        <v>7638</v>
+        <v>7634</v>
       </c>
       <c r="D35" s="39" t="s">
-        <v>7638</v>
+        <v>7634</v>
       </c>
       <c r="E35" s="39">
         <v>8210</v>
       </c>
       <c r="F35" s="43" t="s">
-        <v>7637</v>
+        <v>7633</v>
       </c>
       <c r="G35" s="37" t="s">
-        <v>7733</v>
+        <v>7729</v>
       </c>
       <c r="H35" s="39" t="s">
-        <v>7776</v>
+        <v>7772</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="39" t="s">
-        <v>7567</v>
+        <v>7563</v>
       </c>
       <c r="B36" s="39" t="s">
-        <v>7583</v>
+        <v>7579</v>
       </c>
       <c r="C36" s="39" t="s">
-        <v>7636</v>
+        <v>7632</v>
       </c>
       <c r="D36" s="39" t="s">
-        <v>7636</v>
+        <v>7632</v>
       </c>
       <c r="E36" s="39">
         <v>8234</v>
       </c>
       <c r="F36" s="45" t="s">
-        <v>7635</v>
+        <v>7631</v>
       </c>
       <c r="G36" s="37" t="s">
-        <v>7734</v>
+        <v>7730</v>
       </c>
       <c r="H36" s="44"/>
     </row>
     <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="39" t="s">
-        <v>7567</v>
+        <v>7563</v>
       </c>
       <c r="B37" s="39" t="s">
-        <v>7583</v>
+        <v>7579</v>
       </c>
       <c r="C37" s="39" t="s">
-        <v>7634</v>
+        <v>7630</v>
       </c>
       <c r="D37" s="39" t="s">
-        <v>7633</v>
+        <v>7629</v>
       </c>
       <c r="E37" s="39">
         <v>8233</v>
       </c>
       <c r="F37" s="45" t="s">
-        <v>7632</v>
+        <v>7628</v>
       </c>
       <c r="G37" s="37" t="s">
-        <v>7735</v>
+        <v>7731</v>
       </c>
       <c r="H37" s="39" t="s">
-        <v>7751</v>
+        <v>7747</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="39" t="s">
-        <v>7567</v>
+        <v>7563</v>
       </c>
       <c r="B38" s="39" t="s">
-        <v>7574</v>
+        <v>7570</v>
       </c>
       <c r="C38" s="39" t="s">
-        <v>7631</v>
+        <v>7627</v>
       </c>
       <c r="D38" s="39" t="s">
-        <v>7631</v>
+        <v>7627</v>
       </c>
       <c r="E38" s="39">
         <v>8237</v>
       </c>
       <c r="F38" s="43" t="s">
-        <v>7777</v>
+        <v>7773</v>
       </c>
       <c r="G38" s="37" t="s">
-        <v>7778</v>
+        <v>7774</v>
       </c>
       <c r="H38" s="44"/>
     </row>
     <row r="39" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="39" t="s">
-        <v>7567</v>
+        <v>7563</v>
       </c>
       <c r="B39" s="39" t="s">
-        <v>7574</v>
+        <v>7570</v>
       </c>
       <c r="C39" s="39" t="s">
-        <v>7630</v>
+        <v>7626</v>
       </c>
       <c r="D39" s="39" t="s">
-        <v>7630</v>
+        <v>7626</v>
       </c>
       <c r="E39" s="39">
         <v>8232</v>
       </c>
       <c r="F39" s="43" t="s">
-        <v>7629</v>
+        <v>7625</v>
       </c>
       <c r="G39" s="37" t="s">
-        <v>7723</v>
+        <v>7719</v>
       </c>
       <c r="H39" s="44"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="39" t="s">
-        <v>7567</v>
+        <v>7563</v>
       </c>
       <c r="B40" s="39" t="s">
-        <v>7574</v>
+        <v>7570</v>
       </c>
       <c r="C40" s="39" t="s">
-        <v>7628</v>
+        <v>7624</v>
       </c>
       <c r="D40" s="39" t="s">
-        <v>7627</v>
+        <v>7623</v>
       </c>
       <c r="E40" s="39">
         <v>8236</v>
       </c>
       <c r="F40" s="43" t="s">
-        <v>7779</v>
+        <v>7775</v>
       </c>
       <c r="G40" s="37" t="s">
-        <v>7780</v>
+        <v>7776</v>
       </c>
       <c r="H40" s="44"/>
     </row>
@@ -67487,22 +67727,22 @@
         <v>6036</v>
       </c>
       <c r="B41" s="39" t="s">
-        <v>7599</v>
+        <v>7595</v>
       </c>
       <c r="C41" s="39" t="s">
-        <v>7626</v>
+        <v>7622</v>
       </c>
       <c r="D41" s="39" t="s">
-        <v>7625</v>
+        <v>7621</v>
       </c>
       <c r="E41" s="39">
         <v>8437</v>
       </c>
       <c r="F41" s="45" t="s">
-        <v>7624</v>
+        <v>7620</v>
       </c>
       <c r="G41" s="37" t="s">
-        <v>7781</v>
+        <v>7777</v>
       </c>
       <c r="H41" s="44"/>
     </row>
@@ -67511,22 +67751,22 @@
         <v>6036</v>
       </c>
       <c r="B42" s="39" t="s">
-        <v>7599</v>
+        <v>7595</v>
       </c>
       <c r="C42" s="39" t="s">
-        <v>7263</v>
+        <v>7260</v>
       </c>
       <c r="D42" s="39" t="s">
-        <v>7263</v>
+        <v>7260</v>
       </c>
       <c r="E42" s="39">
         <v>8439</v>
       </c>
       <c r="F42" s="43" t="s">
-        <v>7782</v>
+        <v>7778</v>
       </c>
       <c r="G42" s="37" t="s">
-        <v>7820</v>
+        <v>7816</v>
       </c>
       <c r="H42" s="44"/>
     </row>
@@ -67535,22 +67775,22 @@
         <v>6036</v>
       </c>
       <c r="B43" s="39" t="s">
-        <v>7599</v>
+        <v>7595</v>
       </c>
       <c r="C43" s="39" t="s">
-        <v>7623</v>
+        <v>7619</v>
       </c>
       <c r="D43" s="39" t="s">
-        <v>7623</v>
+        <v>7619</v>
       </c>
       <c r="E43" s="39">
         <v>8465</v>
       </c>
       <c r="F43" s="45" t="s">
-        <v>7622</v>
+        <v>7618</v>
       </c>
       <c r="G43" s="37" t="s">
-        <v>7783</v>
+        <v>7779</v>
       </c>
       <c r="H43" s="44"/>
     </row>
@@ -67559,22 +67799,22 @@
         <v>6036</v>
       </c>
       <c r="B44" s="39" t="s">
-        <v>7591</v>
+        <v>7587</v>
       </c>
       <c r="C44" s="39" t="s">
-        <v>7621</v>
+        <v>7617</v>
       </c>
       <c r="D44" s="39" t="s">
-        <v>7621</v>
+        <v>7617</v>
       </c>
       <c r="E44" s="39">
         <v>8446</v>
       </c>
       <c r="F44" s="45" t="s">
-        <v>7784</v>
+        <v>7780</v>
       </c>
       <c r="G44" s="37" t="s">
-        <v>7785</v>
+        <v>7781</v>
       </c>
       <c r="H44" s="44"/>
     </row>
@@ -67583,22 +67823,22 @@
         <v>6036</v>
       </c>
       <c r="B45" s="39" t="s">
-        <v>7591</v>
+        <v>7587</v>
       </c>
       <c r="C45" s="39" t="s">
-        <v>7620</v>
+        <v>7616</v>
       </c>
       <c r="D45" s="39" t="s">
-        <v>7619</v>
+        <v>7615</v>
       </c>
       <c r="E45" s="39">
         <v>8463</v>
       </c>
       <c r="F45" s="43" t="s">
-        <v>7787</v>
+        <v>7783</v>
       </c>
       <c r="G45" s="37" t="s">
-        <v>7786</v>
+        <v>7782</v>
       </c>
       <c r="H45" s="44"/>
     </row>
@@ -67607,22 +67847,22 @@
         <v>6036</v>
       </c>
       <c r="B46" s="39" t="s">
-        <v>7591</v>
+        <v>7587</v>
       </c>
       <c r="C46" s="39" t="s">
-        <v>7618</v>
+        <v>7614</v>
       </c>
       <c r="D46" s="39" t="s">
-        <v>7617</v>
+        <v>7613</v>
       </c>
       <c r="E46" s="39">
         <v>8401</v>
       </c>
       <c r="F46" s="45" t="s">
-        <v>7788</v>
+        <v>7784</v>
       </c>
       <c r="G46" s="37" t="s">
-        <v>7801</v>
+        <v>7797</v>
       </c>
       <c r="H46" s="44"/>
     </row>
@@ -67631,22 +67871,22 @@
         <v>6036</v>
       </c>
       <c r="B47" s="39" t="s">
-        <v>7583</v>
+        <v>7579</v>
       </c>
       <c r="C47" s="39" t="s">
-        <v>7616</v>
+        <v>7612</v>
       </c>
       <c r="D47" s="39" t="s">
-        <v>7616</v>
+        <v>7612</v>
       </c>
       <c r="E47" s="39">
         <v>8429</v>
       </c>
       <c r="F47" s="45" t="s">
-        <v>7615</v>
+        <v>7611</v>
       </c>
       <c r="G47" s="37" t="s">
-        <v>7736</v>
+        <v>7732</v>
       </c>
       <c r="H47" s="44"/>
     </row>
@@ -67655,22 +67895,22 @@
         <v>6036</v>
       </c>
       <c r="B48" s="39" t="s">
-        <v>7583</v>
+        <v>7579</v>
       </c>
       <c r="C48" s="39" t="s">
-        <v>7614</v>
+        <v>7610</v>
       </c>
       <c r="D48" s="39" t="s">
-        <v>7613</v>
+        <v>7609</v>
       </c>
       <c r="E48" s="39">
         <v>8444</v>
       </c>
       <c r="F48" s="45" t="s">
-        <v>7612</v>
+        <v>7608</v>
       </c>
       <c r="G48" s="37" t="s">
-        <v>7737</v>
+        <v>7733</v>
       </c>
       <c r="H48" s="44"/>
     </row>
@@ -67679,25 +67919,25 @@
         <v>6036</v>
       </c>
       <c r="B49" s="39" t="s">
-        <v>7583</v>
+        <v>7579</v>
       </c>
       <c r="C49" s="39" t="s">
-        <v>7611</v>
+        <v>7607</v>
       </c>
       <c r="D49" s="39" t="s">
-        <v>7610</v>
+        <v>7606</v>
       </c>
       <c r="E49" s="39">
         <v>8473</v>
       </c>
       <c r="F49" s="43" t="s">
-        <v>7609</v>
+        <v>7605</v>
       </c>
       <c r="G49" s="37" t="s">
-        <v>7802</v>
+        <v>7798</v>
       </c>
       <c r="H49" s="39" t="s">
-        <v>7803</v>
+        <v>7799</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -67705,22 +67945,22 @@
         <v>6036</v>
       </c>
       <c r="B50" s="39" t="s">
-        <v>7574</v>
+        <v>7570</v>
       </c>
       <c r="C50" s="39" t="s">
-        <v>7608</v>
+        <v>7604</v>
       </c>
       <c r="D50" s="39" t="s">
-        <v>7608</v>
+        <v>7604</v>
       </c>
       <c r="E50" s="39">
         <v>8451</v>
       </c>
       <c r="F50" s="43" t="s">
-        <v>7607</v>
+        <v>7603</v>
       </c>
       <c r="G50" s="37" t="s">
-        <v>7738</v>
+        <v>7734</v>
       </c>
       <c r="H50" s="44"/>
     </row>
@@ -67729,22 +67969,22 @@
         <v>6036</v>
       </c>
       <c r="B51" s="39" t="s">
-        <v>7574</v>
+        <v>7570</v>
       </c>
       <c r="C51" s="39" t="s">
-        <v>7606</v>
+        <v>7602</v>
       </c>
       <c r="D51" s="39" t="s">
-        <v>7606</v>
+        <v>7602</v>
       </c>
       <c r="E51" s="39">
         <v>8453</v>
       </c>
       <c r="F51" s="45" t="s">
-        <v>7789</v>
+        <v>7785</v>
       </c>
       <c r="G51" s="37" t="s">
-        <v>7790</v>
+        <v>7786</v>
       </c>
       <c r="H51" s="44"/>
     </row>
@@ -67753,374 +67993,374 @@
         <v>6036</v>
       </c>
       <c r="B52" s="39" t="s">
-        <v>7574</v>
+        <v>7570</v>
       </c>
       <c r="C52" s="39" t="s">
-        <v>7605</v>
+        <v>7601</v>
       </c>
       <c r="D52" s="39" t="s">
-        <v>7605</v>
+        <v>7601</v>
       </c>
       <c r="E52" s="39">
         <v>8242</v>
       </c>
       <c r="F52" s="45" t="s">
-        <v>7604</v>
+        <v>7600</v>
       </c>
       <c r="G52" s="37" t="s">
-        <v>7739</v>
+        <v>7735</v>
       </c>
       <c r="H52" s="39" t="s">
-        <v>7751</v>
+        <v>7747</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A53" s="39" t="s">
-        <v>7565</v>
+        <v>7561</v>
       </c>
       <c r="B53" s="39" t="s">
+        <v>7595</v>
+      </c>
+      <c r="C53" s="39" t="s">
         <v>7599</v>
       </c>
-      <c r="C53" s="39" t="s">
-        <v>7603</v>
-      </c>
       <c r="D53" s="39" t="s">
-        <v>7602</v>
+        <v>7598</v>
       </c>
       <c r="E53" s="39">
         <v>8351</v>
       </c>
       <c r="F53" s="45" t="s">
-        <v>7740</v>
+        <v>7736</v>
       </c>
       <c r="G53" s="37" t="s">
-        <v>7819</v>
+        <v>7815</v>
       </c>
       <c r="H53" s="39" t="s">
-        <v>7804</v>
+        <v>7800</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="255" x14ac:dyDescent="0.25">
       <c r="A54" s="39" t="s">
-        <v>7565</v>
+        <v>7561</v>
       </c>
       <c r="B54" s="39" t="s">
-        <v>7599</v>
+        <v>7595</v>
       </c>
       <c r="C54" s="39" t="s">
-        <v>7601</v>
+        <v>7597</v>
       </c>
       <c r="D54" s="39" t="s">
-        <v>7600</v>
+        <v>7596</v>
       </c>
       <c r="E54" s="39">
         <v>8360</v>
       </c>
       <c r="F54" s="43" t="s">
-        <v>7805</v>
+        <v>7801</v>
       </c>
       <c r="G54" s="37" t="s">
-        <v>7791</v>
+        <v>7787</v>
       </c>
       <c r="H54" s="44"/>
     </row>
     <row r="55" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A55" s="39" t="s">
-        <v>7565</v>
+        <v>7561</v>
       </c>
       <c r="B55" s="39" t="s">
-        <v>7599</v>
+        <v>7595</v>
       </c>
       <c r="C55" s="39" t="s">
-        <v>7598</v>
+        <v>7594</v>
       </c>
       <c r="D55" s="39" t="s">
-        <v>7597</v>
+        <v>7593</v>
       </c>
       <c r="E55" s="39">
         <v>8358</v>
       </c>
       <c r="F55" s="45" t="s">
-        <v>7792</v>
+        <v>7788</v>
       </c>
       <c r="G55" s="37" t="s">
-        <v>7793</v>
+        <v>7789</v>
       </c>
       <c r="H55" s="44"/>
     </row>
     <row r="56" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="39" t="s">
-        <v>7565</v>
+        <v>7561</v>
       </c>
       <c r="B56" s="39" t="s">
+        <v>7587</v>
+      </c>
+      <c r="C56" s="39" t="s">
+        <v>7592</v>
+      </c>
+      <c r="D56" s="39" t="s">
         <v>7591</v>
-      </c>
-      <c r="C56" s="39" t="s">
-        <v>7596</v>
-      </c>
-      <c r="D56" s="39" t="s">
-        <v>7595</v>
       </c>
       <c r="E56" s="39">
         <v>8306</v>
       </c>
       <c r="F56" s="45" t="s">
-        <v>7806</v>
+        <v>7802</v>
       </c>
       <c r="G56" s="43" t="s">
-        <v>7807</v>
+        <v>7803</v>
       </c>
       <c r="H56" s="44"/>
     </row>
     <row r="57" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="39" t="s">
-        <v>7565</v>
+        <v>7561</v>
       </c>
       <c r="B57" s="39" t="s">
-        <v>7591</v>
+        <v>7587</v>
       </c>
       <c r="C57" s="39" t="s">
-        <v>7594</v>
+        <v>7590</v>
       </c>
       <c r="D57" s="39" t="s">
-        <v>7593</v>
+        <v>7589</v>
       </c>
       <c r="E57" s="39">
         <v>8304</v>
       </c>
       <c r="F57" s="43" t="s">
-        <v>7592</v>
+        <v>7588</v>
       </c>
       <c r="G57" s="43" t="s">
-        <v>7717</v>
+        <v>7713</v>
       </c>
       <c r="H57" s="44"/>
     </row>
     <row r="58" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="39" t="s">
-        <v>7565</v>
+        <v>7561</v>
       </c>
       <c r="B58" s="39" t="s">
-        <v>7591</v>
+        <v>7587</v>
       </c>
       <c r="C58" s="39" t="s">
-        <v>7590</v>
+        <v>7586</v>
       </c>
       <c r="D58" s="39" t="s">
-        <v>7589</v>
+        <v>7585</v>
       </c>
       <c r="E58" s="39">
         <v>8313</v>
       </c>
       <c r="F58" s="45" t="s">
-        <v>7588</v>
+        <v>7584</v>
       </c>
       <c r="G58" s="37" t="s">
-        <v>7741</v>
+        <v>7737</v>
       </c>
       <c r="H58" s="44"/>
     </row>
     <row r="59" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A59" s="39" t="s">
-        <v>7565</v>
+        <v>7561</v>
       </c>
       <c r="B59" s="39" t="s">
+        <v>7579</v>
+      </c>
+      <c r="C59" s="39" t="s">
         <v>7583</v>
       </c>
-      <c r="C59" s="39" t="s">
-        <v>7587</v>
-      </c>
       <c r="D59" s="39" t="s">
-        <v>7586</v>
+        <v>7582</v>
       </c>
       <c r="E59" s="39">
         <v>8321</v>
       </c>
       <c r="F59" s="45" t="s">
-        <v>7809</v>
+        <v>7805</v>
       </c>
       <c r="G59" s="37" t="s">
-        <v>7810</v>
+        <v>7806</v>
       </c>
       <c r="H59" s="44"/>
     </row>
     <row r="60" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="39" t="s">
-        <v>7565</v>
+        <v>7561</v>
       </c>
       <c r="B60" s="39" t="s">
-        <v>7583</v>
+        <v>7579</v>
       </c>
       <c r="C60" s="39" t="s">
-        <v>7585</v>
+        <v>7581</v>
       </c>
       <c r="D60" s="39" t="s">
-        <v>7584</v>
+        <v>7580</v>
       </c>
       <c r="E60" s="39">
         <v>8316</v>
       </c>
       <c r="F60" s="47" t="s">
-        <v>7795</v>
+        <v>7791</v>
       </c>
       <c r="G60" s="47" t="s">
-        <v>7794</v>
+        <v>7790</v>
       </c>
       <c r="H60" s="44"/>
     </row>
     <row r="61" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="39" t="s">
-        <v>7565</v>
+        <v>7561</v>
       </c>
       <c r="B61" s="39" t="s">
-        <v>7583</v>
+        <v>7579</v>
       </c>
       <c r="C61" s="39" t="s">
-        <v>7582</v>
+        <v>7578</v>
       </c>
       <c r="D61" s="39" t="s">
-        <v>7581</v>
+        <v>7577</v>
       </c>
       <c r="E61" s="39">
         <v>8345</v>
       </c>
       <c r="F61" s="43" t="s">
-        <v>7811</v>
+        <v>7807</v>
       </c>
       <c r="G61" s="43" t="s">
-        <v>7812</v>
+        <v>7808</v>
       </c>
       <c r="H61" s="39" t="s">
-        <v>7751</v>
+        <v>7747</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="39" t="s">
-        <v>7565</v>
+        <v>7561</v>
       </c>
       <c r="B62" s="39" t="s">
-        <v>7574</v>
+        <v>7570</v>
       </c>
       <c r="C62" s="39" t="s">
-        <v>7580</v>
+        <v>7576</v>
       </c>
       <c r="D62" s="39" t="s">
-        <v>7579</v>
+        <v>7575</v>
       </c>
       <c r="E62" s="39">
         <v>8347</v>
       </c>
       <c r="F62" s="43" t="s">
-        <v>7578</v>
+        <v>7574</v>
       </c>
       <c r="G62" s="43" t="s">
-        <v>7718</v>
+        <v>7714</v>
       </c>
       <c r="H62" s="39" t="s">
-        <v>7796</v>
+        <v>7792</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A63" s="39" t="s">
-        <v>7565</v>
+        <v>7561</v>
       </c>
       <c r="B63" s="39" t="s">
-        <v>7574</v>
+        <v>7570</v>
       </c>
       <c r="C63" s="39" t="s">
-        <v>7577</v>
+        <v>7573</v>
       </c>
       <c r="D63" s="39" t="s">
-        <v>7576</v>
+        <v>7572</v>
       </c>
       <c r="E63" s="39">
         <v>8410</v>
       </c>
       <c r="F63" s="45" t="s">
-        <v>7575</v>
+        <v>7571</v>
       </c>
       <c r="G63" s="37" t="s">
-        <v>7742</v>
+        <v>7738</v>
       </c>
       <c r="H63" s="44"/>
     </row>
     <row r="64" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="39" t="s">
-        <v>7565</v>
+        <v>7561</v>
       </c>
       <c r="B64" s="39" t="s">
-        <v>7574</v>
+        <v>7570</v>
       </c>
       <c r="C64" s="39" t="s">
-        <v>7573</v>
+        <v>7569</v>
       </c>
       <c r="D64" s="39" t="s">
-        <v>7572</v>
+        <v>7568</v>
       </c>
       <c r="E64" s="39">
         <v>8352</v>
       </c>
       <c r="F64" s="46" t="s">
-        <v>7715</v>
+        <v>7711</v>
       </c>
       <c r="G64" s="37" t="s">
-        <v>7743</v>
+        <v>7739</v>
       </c>
       <c r="H64" s="44"/>
     </row>
     <row r="65" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="39" t="s">
-        <v>7571</v>
+        <v>7567</v>
       </c>
       <c r="B65" s="39" t="s">
-        <v>7564</v>
+        <v>7560</v>
       </c>
       <c r="E65" s="39">
         <v>8000</v>
       </c>
       <c r="F65" s="45" t="s">
-        <v>7570</v>
+        <v>7566</v>
       </c>
       <c r="G65" s="37" t="s">
-        <v>7817</v>
+        <v>7813</v>
       </c>
       <c r="H65" s="44"/>
     </row>
     <row r="66" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="39" t="s">
-        <v>7569</v>
+        <v>7565</v>
       </c>
       <c r="B66" s="39" t="s">
-        <v>7564</v>
+        <v>7560</v>
       </c>
       <c r="E66" s="39">
         <v>8100</v>
       </c>
       <c r="F66" s="45" t="s">
-        <v>7568</v>
+        <v>7564</v>
       </c>
       <c r="G66" s="37" t="s">
-        <v>7818</v>
+        <v>7814</v>
       </c>
       <c r="H66" s="39" t="s">
-        <v>7797</v>
+        <v>7793</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="39" t="s">
-        <v>7567</v>
+        <v>7563</v>
       </c>
       <c r="B67" s="39" t="s">
-        <v>7564</v>
+        <v>7560</v>
       </c>
       <c r="E67" s="39">
         <v>8200</v>
       </c>
       <c r="F67" s="45" t="s">
-        <v>7566</v>
+        <v>7562</v>
       </c>
       <c r="G67" s="37" t="s">
-        <v>7724</v>
+        <v>7720</v>
       </c>
       <c r="H67" s="44"/>
     </row>
@@ -68129,34 +68369,34 @@
         <v>6036</v>
       </c>
       <c r="B68" s="39" t="s">
-        <v>7564</v>
+        <v>7560</v>
       </c>
       <c r="E68" s="39">
         <v>8400</v>
       </c>
       <c r="F68" s="45" t="s">
-        <v>7798</v>
+        <v>7794</v>
       </c>
       <c r="G68" s="37" t="s">
-        <v>7799</v>
+        <v>7795</v>
       </c>
       <c r="H68" s="44"/>
     </row>
     <row r="69" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="39" t="s">
-        <v>7565</v>
+        <v>7561</v>
       </c>
       <c r="B69" s="39" t="s">
-        <v>7564</v>
+        <v>7560</v>
       </c>
       <c r="E69" s="39">
         <v>8300</v>
       </c>
       <c r="F69" s="45" t="s">
-        <v>7563</v>
+        <v>7559</v>
       </c>
       <c r="G69" s="37" t="s">
-        <v>7725</v>
+        <v>7721</v>
       </c>
       <c r="H69" s="44"/>
     </row>
@@ -68209,16 +68449,16 @@
         <v>2574</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>7225</v>
+        <v>7222</v>
       </c>
       <c r="C1" s="38" t="s">
-        <v>7272</v>
+        <v>7269</v>
       </c>
       <c r="D1" s="36" t="s">
         <v>807</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>7228</v>
+        <v>7225</v>
       </c>
       <c r="F1" s="38" t="s">
         <v>274</v>
@@ -68283,19 +68523,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>7259</v>
+        <v>7256</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>7271</v>
+        <v>7268</v>
       </c>
       <c r="D2" s="37" t="s">
+        <v>7260</v>
+      </c>
+      <c r="E2" s="39" t="s">
+        <v>7257</v>
+      </c>
+      <c r="H2" s="37" t="s">
         <v>7263</v>
-      </c>
-      <c r="E2" s="39" t="s">
-        <v>7260</v>
-      </c>
-      <c r="H2" s="37" t="s">
-        <v>7266</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="105" x14ac:dyDescent="0.25">
@@ -68303,19 +68543,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>7259</v>
+        <v>7256</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>7274</v>
+        <v>7271</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>7273</v>
+        <v>7270</v>
       </c>
       <c r="E3" s="39" t="s">
-        <v>7260</v>
+        <v>7257</v>
       </c>
       <c r="H3" s="37" t="s">
-        <v>7315</v>
+        <v>7312</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="45" x14ac:dyDescent="0.25">
@@ -68323,19 +68563,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>7259</v>
+        <v>7256</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>7275</v>
+        <v>7272</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>7264</v>
+        <v>7261</v>
       </c>
       <c r="E4" s="39" t="s">
-        <v>7260</v>
+        <v>7257</v>
       </c>
       <c r="H4" s="37" t="s">
-        <v>7295</v>
+        <v>7292</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -68343,19 +68583,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>7259</v>
+        <v>7256</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>7269</v>
+        <v>7266</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>7270</v>
+        <v>7267</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>7261</v>
+        <v>7258</v>
       </c>
       <c r="H5" s="37" t="s">
-        <v>7265</v>
+        <v>7262</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="150" x14ac:dyDescent="0.25">
@@ -68363,19 +68603,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>7259</v>
+        <v>7256</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>7276</v>
+        <v>7273</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>7277</v>
+        <v>7274</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>7261</v>
+        <v>7258</v>
       </c>
       <c r="H6" s="37" t="s">
-        <v>7296</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="150" x14ac:dyDescent="0.25">
@@ -68383,19 +68623,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>7259</v>
+        <v>7256</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>7281</v>
+        <v>7278</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>7282</v>
+        <v>7279</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>7261</v>
+        <v>7258</v>
       </c>
       <c r="H7" s="37" t="s">
-        <v>7297</v>
+        <v>7294</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="75" x14ac:dyDescent="0.25">
@@ -68403,19 +68643,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>7259</v>
+        <v>7256</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>7283</v>
+        <v>7280</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>7284</v>
+        <v>7281</v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>7261</v>
+        <v>7258</v>
       </c>
       <c r="H8" s="37" t="s">
-        <v>7342</v>
+        <v>7339</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="120" x14ac:dyDescent="0.25">
@@ -68423,19 +68663,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="39" t="s">
+        <v>7256</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>7265</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>7264</v>
+      </c>
+      <c r="E9" s="39" t="s">
         <v>7259</v>
       </c>
-      <c r="C9" s="39" t="s">
-        <v>7268</v>
-      </c>
-      <c r="D9" s="37" t="s">
-        <v>7267</v>
-      </c>
-      <c r="E9" s="39" t="s">
-        <v>7262</v>
-      </c>
       <c r="H9" s="37" t="s">
-        <v>7298</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="60" x14ac:dyDescent="0.25">
@@ -68443,19 +68683,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="39" t="s">
+        <v>7256</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>7282</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>7283</v>
+      </c>
+      <c r="E10" s="39" t="s">
         <v>7259</v>
       </c>
-      <c r="C10" s="39" t="s">
-        <v>7285</v>
-      </c>
-      <c r="D10" s="37" t="s">
-        <v>7286</v>
-      </c>
-      <c r="E10" s="39" t="s">
-        <v>7262</v>
-      </c>
       <c r="H10" s="37" t="s">
-        <v>7278</v>
+        <v>7275</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="75" x14ac:dyDescent="0.25">
@@ -68463,19 +68703,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="39" t="s">
+        <v>7256</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>7286</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>7287</v>
+      </c>
+      <c r="E11" s="39" t="s">
         <v>7259</v>
       </c>
-      <c r="C11" s="39" t="s">
-        <v>7289</v>
-      </c>
-      <c r="D11" s="37" t="s">
-        <v>7290</v>
-      </c>
-      <c r="E11" s="39" t="s">
-        <v>7262</v>
-      </c>
       <c r="H11" s="37" t="s">
-        <v>7299</v>
+        <v>7296</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="105" x14ac:dyDescent="0.25">
@@ -68483,19 +68723,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="39" t="s">
+        <v>7256</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>7284</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>7285</v>
+      </c>
+      <c r="E12" s="39" t="s">
         <v>7259</v>
       </c>
-      <c r="C12" s="39" t="s">
-        <v>7287</v>
-      </c>
-      <c r="D12" s="37" t="s">
-        <v>7288</v>
-      </c>
-      <c r="E12" s="39" t="s">
-        <v>7262</v>
-      </c>
       <c r="H12" s="37" t="s">
-        <v>7300</v>
+        <v>7297</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="60" x14ac:dyDescent="0.25">
@@ -68503,19 +68743,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="39" t="s">
+        <v>7256</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>7288</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>7277</v>
+      </c>
+      <c r="E13" s="39" t="s">
         <v>7259</v>
       </c>
-      <c r="C13" s="39" t="s">
-        <v>7291</v>
-      </c>
-      <c r="D13" s="37" t="s">
-        <v>7280</v>
-      </c>
-      <c r="E13" s="39" t="s">
-        <v>7262</v>
-      </c>
       <c r="H13" s="37" t="s">
-        <v>7279</v>
+        <v>7276</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="60" x14ac:dyDescent="0.25">
@@ -68523,19 +68763,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="39" t="s">
+        <v>7256</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>7289</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>7290</v>
+      </c>
+      <c r="E14" s="39" t="s">
         <v>7259</v>
       </c>
-      <c r="C14" s="39" t="s">
-        <v>7292</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>7293</v>
-      </c>
-      <c r="E14" s="39" t="s">
-        <v>7262</v>
-      </c>
       <c r="H14" s="37" t="s">
-        <v>7294</v>
+        <v>7291</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="60" x14ac:dyDescent="0.25">
@@ -68543,19 +68783,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="39" t="s">
-        <v>7259</v>
+        <v>7256</v>
       </c>
       <c r="C15" s="39" t="s">
-        <v>7335</v>
+        <v>7332</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>7334</v>
+        <v>7331</v>
       </c>
       <c r="E15" s="39" t="s">
-        <v>7261</v>
+        <v>7258</v>
       </c>
       <c r="H15" s="37" t="s">
-        <v>7343</v>
+        <v>7340</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="60" x14ac:dyDescent="0.25">
@@ -68563,19 +68803,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="39" t="s">
-        <v>7259</v>
+        <v>7256</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>7333</v>
+        <v>7330</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>7316</v>
+        <v>7313</v>
       </c>
       <c r="E16" s="39" t="s">
-        <v>7260</v>
+        <v>7257</v>
       </c>
       <c r="H16" s="37" t="s">
-        <v>7341</v>
+        <v>7338</v>
       </c>
     </row>
     <row r="17" spans="1:25" s="37" customFormat="1" ht="105" x14ac:dyDescent="0.25">
@@ -68583,20 +68823,20 @@
         <v>16</v>
       </c>
       <c r="B17" s="39" t="s">
-        <v>7259</v>
+        <v>7256</v>
       </c>
       <c r="C17" s="39" t="s">
-        <v>7336</v>
+        <v>7333</v>
       </c>
       <c r="D17" s="37" t="s">
-        <v>7337</v>
+        <v>7334</v>
       </c>
       <c r="E17" s="39" t="s">
-        <v>7261</v>
+        <v>7258</v>
       </c>
       <c r="F17" s="39"/>
       <c r="H17" s="37" t="s">
-        <v>7317</v>
+        <v>7314</v>
       </c>
       <c r="Y17" s="39"/>
     </row>
@@ -68605,20 +68845,20 @@
         <v>17</v>
       </c>
       <c r="B18" s="39" t="s">
-        <v>7259</v>
+        <v>7256</v>
       </c>
       <c r="C18" s="39" t="s">
-        <v>7338</v>
+        <v>7335</v>
       </c>
       <c r="D18" s="37" t="s">
-        <v>7339</v>
+        <v>7336</v>
       </c>
       <c r="E18" s="39" t="s">
-        <v>7261</v>
+        <v>7258</v>
       </c>
       <c r="F18" s="39"/>
       <c r="H18" s="37" t="s">
-        <v>7318</v>
+        <v>7315</v>
       </c>
       <c r="Y18" s="39"/>
     </row>
@@ -68627,20 +68867,20 @@
         <v>18</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>7259</v>
+        <v>7256</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>7332</v>
+        <v>7329</v>
       </c>
       <c r="D19" s="37" t="s">
-        <v>7319</v>
+        <v>7316</v>
       </c>
       <c r="E19" s="39" t="s">
-        <v>7260</v>
+        <v>7257</v>
       </c>
       <c r="F19" s="39"/>
       <c r="H19" s="37" t="s">
-        <v>7320</v>
+        <v>7317</v>
       </c>
       <c r="Y19" s="39"/>
     </row>
@@ -68649,20 +68889,20 @@
         <v>19</v>
       </c>
       <c r="B20" s="39" t="s">
+        <v>7256</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>7337</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>7318</v>
+      </c>
+      <c r="E20" s="39" t="s">
         <v>7259</v>
-      </c>
-      <c r="C20" s="39" t="s">
-        <v>7340</v>
-      </c>
-      <c r="D20" s="37" t="s">
-        <v>7321</v>
-      </c>
-      <c r="E20" s="39" t="s">
-        <v>7262</v>
       </c>
       <c r="F20" s="39"/>
       <c r="H20" s="37" t="s">
-        <v>7322</v>
+        <v>7319</v>
       </c>
       <c r="Y20" s="39"/>
     </row>
@@ -68671,20 +68911,20 @@
         <v>20</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>7259</v>
+        <v>7256</v>
       </c>
       <c r="C21" s="39" t="s">
-        <v>7327</v>
+        <v>7324</v>
       </c>
       <c r="D21" s="37" t="s">
-        <v>7328</v>
+        <v>7325</v>
       </c>
       <c r="E21" s="39" t="s">
-        <v>7261</v>
+        <v>7258</v>
       </c>
       <c r="F21" s="39"/>
       <c r="H21" s="37" t="s">
-        <v>7324</v>
+        <v>7321</v>
       </c>
       <c r="Y21" s="39"/>
     </row>
@@ -68693,20 +68933,20 @@
         <v>21</v>
       </c>
       <c r="B22" s="39" t="s">
-        <v>7259</v>
+        <v>7256</v>
       </c>
       <c r="C22" s="39" t="s">
-        <v>7329</v>
+        <v>7326</v>
       </c>
       <c r="D22" s="37" t="s">
-        <v>7330</v>
+        <v>7327</v>
       </c>
       <c r="E22" s="39" t="s">
-        <v>7261</v>
+        <v>7258</v>
       </c>
       <c r="F22" s="39"/>
       <c r="H22" s="37" t="s">
-        <v>7323</v>
+        <v>7320</v>
       </c>
       <c r="Y22" s="39"/>
     </row>
@@ -68715,20 +68955,20 @@
         <v>22</v>
       </c>
       <c r="B23" s="39" t="s">
+        <v>7256</v>
+      </c>
+      <c r="C23" s="37" t="s">
+        <v>7328</v>
+      </c>
+      <c r="D23" s="37" t="s">
+        <v>7322</v>
+      </c>
+      <c r="E23" s="39" t="s">
         <v>7259</v>
-      </c>
-      <c r="C23" s="37" t="s">
-        <v>7331</v>
-      </c>
-      <c r="D23" s="37" t="s">
-        <v>7325</v>
-      </c>
-      <c r="E23" s="39" t="s">
-        <v>7262</v>
       </c>
       <c r="F23" s="39"/>
       <c r="H23" s="37" t="s">
-        <v>7326</v>
+        <v>7323</v>
       </c>
       <c r="Y23" s="39"/>
     </row>

--- a/private/INDIVIDUAL_LOCALIZATIONS_UI_7.xlsx
+++ b/private/INDIVIDUAL_LOCALIZATIONS_UI_7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\lolvvv\Assets\private\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4392414A-E7FB-4491-9C14-A2B72A97648A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC7CC9F-1CCB-43C2-9229-E9EBA1736B38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4875" yWindow="1650" windowWidth="29055" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15480" yWindow="1785" windowWidth="25170" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INTL" sheetId="1" r:id="rId1"/>
@@ -27302,37 +27302,37 @@
     <t>A Melhor Lista de Campeão para League of Legends. Encontre Probuilds, Build, Guias, Sequências de Habilidades e Compra de Itens, Runas e muito mais no Patch {patch} para todos os Campeões em todas as posições.</t>
   </si>
   <si>
-    <t>{championName} Build {position} – LoL {championName} Runes S13 [{patch} UPDATED]</t>
-  </si>
-  <si>
-    <t>{championName} Guide {position} – LoL {championName} Runes S13 [{patch} AKTUALISIERT]</t>
-  </si>
-  <si>
-    <t>Runas {championName} {position} – LoL {championName} Runes S13 [{patch} ACTUALIZADO]</t>
-  </si>
-  <si>
-    <t>Runes {championName} {position} – Rune {championName} LoL S13 [{patch} MISE À JOUR]</t>
-  </si>
-  <si>
-    <t>{championName} Runy {position} – LoL {championName} Runes S13 [{patch} AKTUALIZACJA]</t>
-  </si>
-  <si>
-    <t>{championName} Runas {position} – Runa {championName} LoL S13 [{patch} ATUALIZADO]</t>
-  </si>
-  <si>
-    <t>{championName} Rün {position} – LoL {championName} Rün S13 [{patch} GÜNCELLENMİŞ]</t>
-  </si>
-  <si>
-    <t>Bảng Ngọc {championName} {position} – Hướng dẫn {championName} mua 13 LoL [{patch} ĐÃ CẬP NHẬT]</t>
-  </si>
-  <si>
-    <t>{championName} Build {position} – LoL {championName} Runes S13 [{patch} BIJGEWERKTE]</t>
-  </si>
-  <si>
-    <t>{championName} Build {position} – LoL {championName} Runes S13 [{patch} OPDATERET]</t>
-  </si>
-  <si>
-    <t>{championName} Build {position} – LoL {championName} Runes S13 [{patch} UPPDATERAD]</t>
+    <t>{championName} Build {position} – LoL {championName} Runes S14 [{patch} BIJGEWERKTE]</t>
+  </si>
+  <si>
+    <t>{championName} Build {position} – LoL {championName} Runes S14 [{patch} OPDATERET]</t>
+  </si>
+  <si>
+    <t>{championName} Build {position} – LoL {championName} Runes S14 [{patch} UPPDATERAD]</t>
+  </si>
+  <si>
+    <t>{championName} Build {position} – LoL {championName} Runes S14 [{patch} UPDATED]</t>
+  </si>
+  <si>
+    <t>{championName} Guide {position} – LoL {championName} Runes S14 [{patch} AKTUALISIERT]</t>
+  </si>
+  <si>
+    <t>Runas {championName} {position} – LoL {championName} Runes S14 [{patch} ACTUALIZADO]</t>
+  </si>
+  <si>
+    <t>Runes {championName} {position} – Rune {championName} LoL S14 [{patch} MISE À JOUR]</t>
+  </si>
+  <si>
+    <t>{championName} Runy {position} – LoL {championName} Runes S14 [{patch} AKTUALIZACJA]</t>
+  </si>
+  <si>
+    <t>{championName} Runas {position} – Runa {championName} LoL S14 [{patch} ATUALIZADO]</t>
+  </si>
+  <si>
+    <t>{championName} Rün {position} – LoL {championName} Rün S14 [{patch} GÜNCELLENMİŞ]</t>
+  </si>
+  <si>
+    <t>Bảng Ngọc {championName} {position} – Hướng dẫn {championName} mua 14 LoL [{patch} ĐÃ CẬP NHẬT]</t>
   </si>
 </sst>
 </file>
@@ -27534,9 +27534,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="20% - Accent4" xfId="1" builtinId="42"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="20 % - Akzent4" xfId="1" builtinId="42"/>
+    <cellStyle name="Link" xfId="2" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -27560,9 +27560,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -27600,7 +27600,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -27706,7 +27706,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -27848,7 +27848,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -27862,13 +27862,13 @@
   <dimension ref="A1:AE645"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="L416" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L424" sqref="L424"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" style="1" customWidth="1" outlineLevel="1"/>
@@ -45319,40 +45319,40 @@
       <c r="G416" s="2"/>
       <c r="H416" s="2"/>
       <c r="I416" s="2" t="s">
-        <v>8627</v>
+        <v>8619</v>
       </c>
       <c r="J416" s="2" t="s">
-        <v>8628</v>
+        <v>8620</v>
       </c>
       <c r="K416" s="2" t="s">
-        <v>8629</v>
+        <v>8621</v>
       </c>
       <c r="L416" s="2" t="s">
-        <v>8619</v>
+        <v>8622</v>
       </c>
       <c r="M416" s="2" t="s">
-        <v>8620</v>
+        <v>8623</v>
       </c>
       <c r="P416" s="2" t="s">
-        <v>8621</v>
+        <v>8624</v>
       </c>
       <c r="Q416" s="2" t="s">
-        <v>8622</v>
+        <v>8625</v>
       </c>
       <c r="V416" s="14" t="s">
         <v>3001</v>
       </c>
       <c r="X416" s="2" t="s">
-        <v>8623</v>
+        <v>8626</v>
       </c>
       <c r="Y416" s="2" t="s">
-        <v>8624</v>
+        <v>8627</v>
       </c>
       <c r="AC416" s="2" t="s">
-        <v>8625</v>
+        <v>8628</v>
       </c>
       <c r="AD416" s="16" t="s">
-        <v>8626</v>
+        <v>8629</v>
       </c>
     </row>
     <row r="417" spans="1:30" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -56941,7 +56941,7 @@
       <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
     <col min="2" max="10" width="28.5703125" customWidth="1"/>
@@ -58231,7 +58231,7 @@
       <selection pane="bottomRight" activeCell="A148" sqref="A143:A148"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="39.140625" bestFit="1" customWidth="1"/>
@@ -71839,7 +71839,7 @@
       <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="24" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" style="24" customWidth="1"/>
@@ -72346,7 +72346,7 @@
         <v>7260</v>
       </c>
     </row>
-    <row r="29" spans="2:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" ht="105" x14ac:dyDescent="0.25">
       <c r="B29" s="24" t="s">
         <v>7101</v>
       </c>
@@ -72642,7 +72642,7 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="24"/>
     <col min="2" max="2" width="9.28515625" style="24" bestFit="1" customWidth="1"/>
@@ -74383,7 +74383,7 @@
       <selection pane="bottomRight" activeCell="F4" sqref="A1:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="24" customWidth="1"/>
     <col min="2" max="3" width="14.85546875" style="24" customWidth="1"/>
